--- a/database/industries/lastic/pasa/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pasa/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF26359-01DE-4F53-8F59-65E96C675E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF9D31-1050-4BB5-9C33-5AB809FD1938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1501,92 +1501,92 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>1325483</v>
       </c>
       <c r="AA11" s="11">
-        <v>1325483</v>
+        <v>1156344</v>
       </c>
       <c r="AB11" s="11">
-        <v>1156344</v>
+        <v>197112</v>
       </c>
       <c r="AC11" s="11">
-        <v>197112</v>
+        <v>774553</v>
       </c>
       <c r="AD11" s="11">
-        <v>774553</v>
+        <v>1175860</v>
       </c>
       <c r="AE11" s="11">
-        <v>1175860</v>
+        <v>1276508</v>
       </c>
       <c r="AF11" s="11">
-        <v>1276508</v>
+        <v>1260775</v>
       </c>
       <c r="AG11" s="11">
-        <v>1260775</v>
+        <v>1087802</v>
       </c>
       <c r="AH11" s="11">
-        <v>1087802</v>
+        <v>651932</v>
       </c>
       <c r="AI11" s="11">
-        <v>651932</v>
+        <v>537758</v>
       </c>
       <c r="AJ11" s="11">
-        <v>537758</v>
+        <v>1057005</v>
       </c>
       <c r="AK11" s="11">
-        <v>1057005</v>
+        <v>1240544</v>
       </c>
       <c r="AL11" s="11">
-        <v>1240544</v>
+        <v>1357633</v>
       </c>
       <c r="AM11" s="11">
-        <v>1357633</v>
+        <v>866889</v>
       </c>
       <c r="AN11" s="11">
-        <v>866889</v>
+        <v>1414212</v>
       </c>
       <c r="AO11" s="11">
-        <v>1414212</v>
+        <v>1277905</v>
       </c>
       <c r="AP11" s="11">
-        <v>1277905</v>
+        <v>1379084</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1379084</v>
+        <v>1362327</v>
       </c>
       <c r="AR11" s="11">
-        <v>1362327</v>
+        <v>1255588</v>
       </c>
       <c r="AS11" s="11">
-        <v>1255588</v>
+        <v>1326245</v>
       </c>
       <c r="AT11" s="11">
-        <v>1326245</v>
+        <v>813561</v>
       </c>
       <c r="AU11" s="11">
-        <v>813561</v>
+        <v>666056</v>
       </c>
       <c r="AV11" s="11">
-        <v>666056</v>
+        <v>1284935</v>
       </c>
       <c r="AW11" s="11">
-        <v>1284935</v>
+        <v>1414467</v>
       </c>
       <c r="AX11" s="11">
-        <v>1414467</v>
+        <v>1262842</v>
       </c>
       <c r="AY11" s="11">
-        <v>1262842</v>
+        <v>1215231</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1215231</v>
+        <v>1130358</v>
       </c>
       <c r="BA11" s="11">
-        <v>1130358</v>
+        <v>949821</v>
       </c>
       <c r="BB11" s="11">
-        <v>949821</v>
+        <v>1462906</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1660,36 +1660,36 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>124515</v>
       </c>
       <c r="AA12" s="13">
-        <v>124515</v>
+        <v>110120</v>
       </c>
       <c r="AB12" s="13">
-        <v>110120</v>
+        <v>103430</v>
       </c>
       <c r="AC12" s="13">
-        <v>103430</v>
+        <v>66209</v>
       </c>
       <c r="AD12" s="13">
-        <v>66209</v>
+        <v>71944</v>
       </c>
       <c r="AE12" s="13">
-        <v>71944</v>
+        <v>112511</v>
       </c>
       <c r="AF12" s="13">
-        <v>112511</v>
+        <v>105943</v>
       </c>
       <c r="AG12" s="13">
-        <v>105943</v>
+        <v>94317</v>
       </c>
       <c r="AH12" s="13">
-        <v>94317</v>
-      </c>
-      <c r="AI12" s="13">
         <v>70052</v>
       </c>
+      <c r="AI12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1717,35 +1717,35 @@
       <c r="AR12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
+      <c r="AS12" s="13">
+        <v>89606</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>64456</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV12" s="13">
-        <v>61089</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>142674</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>132872</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>101431</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>114885</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>23535</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>26527</v>
+      <c r="AV12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB12" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1819,92 +1819,92 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>332468</v>
       </c>
       <c r="AA13" s="11">
-        <v>332468</v>
+        <v>314218</v>
       </c>
       <c r="AB13" s="11">
-        <v>314218</v>
+        <v>1285139</v>
       </c>
       <c r="AC13" s="11">
-        <v>1285139</v>
+        <v>218610</v>
       </c>
       <c r="AD13" s="11">
-        <v>218610</v>
+        <v>315710</v>
       </c>
       <c r="AE13" s="11">
-        <v>315710</v>
+        <v>310027</v>
       </c>
       <c r="AF13" s="11">
-        <v>310027</v>
+        <v>310581</v>
       </c>
       <c r="AG13" s="11">
-        <v>310581</v>
+        <v>234342</v>
       </c>
       <c r="AH13" s="11">
-        <v>234342</v>
+        <v>131430</v>
       </c>
       <c r="AI13" s="11">
-        <v>131430</v>
+        <v>111657</v>
       </c>
       <c r="AJ13" s="11">
-        <v>111657</v>
+        <v>181932</v>
       </c>
       <c r="AK13" s="11">
-        <v>181932</v>
+        <v>156101</v>
       </c>
       <c r="AL13" s="11">
-        <v>156101</v>
+        <v>170724</v>
       </c>
       <c r="AM13" s="11">
-        <v>170724</v>
+        <v>110235</v>
       </c>
       <c r="AN13" s="11">
-        <v>110235</v>
+        <v>286846</v>
       </c>
       <c r="AO13" s="11">
-        <v>286846</v>
+        <v>240282</v>
       </c>
       <c r="AP13" s="11">
-        <v>240282</v>
+        <v>254640</v>
       </c>
       <c r="AQ13" s="11">
-        <v>254640</v>
+        <v>272919</v>
       </c>
       <c r="AR13" s="11">
-        <v>272919</v>
+        <v>223708</v>
       </c>
       <c r="AS13" s="11">
-        <v>223708</v>
+        <v>226709</v>
       </c>
       <c r="AT13" s="11">
-        <v>226709</v>
+        <v>194299</v>
       </c>
       <c r="AU13" s="11">
-        <v>194299</v>
+        <v>100164</v>
       </c>
       <c r="AV13" s="11">
-        <v>100164</v>
+        <v>183692</v>
       </c>
       <c r="AW13" s="11">
-        <v>183692</v>
+        <v>196344</v>
       </c>
       <c r="AX13" s="11">
-        <v>196344</v>
+        <v>165035</v>
       </c>
       <c r="AY13" s="11">
-        <v>165035</v>
+        <v>162716</v>
       </c>
       <c r="AZ13" s="11">
-        <v>162716</v>
+        <v>206418</v>
       </c>
       <c r="BA13" s="11">
-        <v>206418</v>
+        <v>116371</v>
       </c>
       <c r="BB13" s="11">
-        <v>116371</v>
+        <v>184422</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2005,65 +2005,65 @@
       <c r="AH14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="13" t="s">
-        <v>58</v>
+      <c r="AI14" s="13">
+        <v>56441</v>
       </c>
       <c r="AJ14" s="13">
-        <v>56441</v>
+        <v>122686</v>
       </c>
       <c r="AK14" s="13">
-        <v>122686</v>
+        <v>216298</v>
       </c>
       <c r="AL14" s="13">
-        <v>216298</v>
+        <v>192322</v>
       </c>
       <c r="AM14" s="13">
-        <v>192322</v>
+        <v>117622</v>
       </c>
       <c r="AN14" s="13">
-        <v>117622</v>
+        <v>24402</v>
       </c>
       <c r="AO14" s="13">
-        <v>24402</v>
+        <v>76558</v>
       </c>
       <c r="AP14" s="13">
-        <v>76558</v>
+        <v>88699</v>
       </c>
       <c r="AQ14" s="13">
-        <v>88699</v>
+        <v>105933</v>
       </c>
       <c r="AR14" s="13">
-        <v>105933</v>
-      </c>
-      <c r="AS14" s="13">
         <v>85939</v>
       </c>
-      <c r="AT14" s="13">
-        <v>89606</v>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU14" s="13">
-        <v>64456</v>
-      </c>
-      <c r="AV14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB14" s="13" t="s">
-        <v>58</v>
+        <v>61089</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>142674</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>132872</v>
+      </c>
+      <c r="AX14" s="13">
+        <v>101431</v>
+      </c>
+      <c r="AY14" s="13">
+        <v>114885</v>
+      </c>
+      <c r="AZ14" s="13">
+        <v>23535</v>
+      </c>
+      <c r="BA14" s="13">
+        <v>26527</v>
+      </c>
+      <c r="BB14" s="13">
+        <v>46778</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2136,91 +2136,91 @@
         <v>0</v>
       </c>
       <c r="Z15" s="15">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="AA15" s="15">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="AB15" s="15">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="AC15" s="15">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="AD15" s="15">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="AE15" s="15">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AF15" s="15">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AG15" s="15">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AH15" s="15">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AI15" s="15">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AJ15" s="15">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AK15" s="15">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AL15" s="15">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AM15" s="15">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AN15" s="15">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AO15" s="15">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AP15" s="15">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AR15" s="15">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AS15" s="15">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AT15" s="15">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AU15" s="15">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AV15" s="15">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AW15" s="15">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AX15" s="15">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AY15" s="15">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="BA15" s="15">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="BB15" s="15">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2351,8 +2351,8 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>0</v>
       </c>
       <c r="AA17" s="11">
         <v>0</v>
@@ -2381,8 +2381,8 @@
       <c r="AI17" s="11">
         <v>0</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>58</v>
@@ -2408,20 +2408,20 @@
       <c r="AR17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>58</v>
+      <c r="AS17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
         <v>0</v>
@@ -2510,14 +2510,14 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
         <v>0</v>
       </c>
-      <c r="AB18" s="13">
-        <v>0</v>
+      <c r="AB18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC18" s="13" t="s">
         <v>58</v>
@@ -2534,14 +2534,14 @@
       <c r="AG18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>58</v>
+      <c r="AH18" s="13">
+        <v>0</v>
       </c>
       <c r="AI18" s="13">
         <v>0</v>
       </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>58</v>
@@ -2567,11 +2567,11 @@
       <c r="AR18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
+      <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>0</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2669,8 +2669,8 @@
       <c r="Y19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Z19" s="11">
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -2699,8 +2699,8 @@
       <c r="AI19" s="11">
         <v>0</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
+      <c r="AJ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="11" t="s">
         <v>58</v>
@@ -2726,20 +2726,20 @@
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>58</v>
+      <c r="AS19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>0</v>
       </c>
       <c r="AX19" s="11">
         <v>0</v>
@@ -2891,14 +2891,14 @@
       <c r="AT20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW20" s="13" t="s">
-        <v>58</v>
+      <c r="AU20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="13">
+        <v>0</v>
       </c>
       <c r="AX20" s="13">
         <v>0</v>
@@ -3199,8 +3199,8 @@
       <c r="Y23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>58</v>
+      <c r="Z23" s="15">
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
@@ -3357,91 +3357,91 @@
         <v>0</v>
       </c>
       <c r="Z24" s="19">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="AA24" s="19">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="AB24" s="19">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="AC24" s="19">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="AD24" s="19">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="AE24" s="19">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AF24" s="19">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AG24" s="19">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AH24" s="19">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AI24" s="19">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AJ24" s="19">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AK24" s="19">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AL24" s="19">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AM24" s="19">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AN24" s="19">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AO24" s="19">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AP24" s="19">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AR24" s="19">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AS24" s="19">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AT24" s="19">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AU24" s="19">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AV24" s="19">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AW24" s="19">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AX24" s="19">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AY24" s="19">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="BA24" s="19">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="BB24" s="19">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3949,92 +3949,92 @@
       <c r="Y31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
+      <c r="Z31" s="11">
+        <v>979673</v>
       </c>
       <c r="AA31" s="11">
-        <v>979673</v>
+        <v>1082127</v>
       </c>
       <c r="AB31" s="11">
-        <v>1082127</v>
+        <v>1052547</v>
       </c>
       <c r="AC31" s="11">
-        <v>1052547</v>
+        <v>700348</v>
       </c>
       <c r="AD31" s="11">
-        <v>700348</v>
+        <v>745890</v>
       </c>
       <c r="AE31" s="11">
-        <v>745890</v>
+        <v>563427</v>
       </c>
       <c r="AF31" s="11">
-        <v>563427</v>
+        <v>728491</v>
       </c>
       <c r="AG31" s="11">
-        <v>728491</v>
+        <v>734161</v>
       </c>
       <c r="AH31" s="11">
-        <v>734161</v>
+        <v>684373</v>
       </c>
       <c r="AI31" s="11">
-        <v>684373</v>
+        <v>739019</v>
       </c>
       <c r="AJ31" s="11">
-        <v>739019</v>
+        <v>892247</v>
       </c>
       <c r="AK31" s="11">
-        <v>892247</v>
+        <v>1208897</v>
       </c>
       <c r="AL31" s="11">
-        <v>1208897</v>
+        <v>925018</v>
       </c>
       <c r="AM31" s="11">
-        <v>925018</v>
+        <v>813625</v>
       </c>
       <c r="AN31" s="11">
-        <v>813625</v>
+        <v>820540</v>
       </c>
       <c r="AO31" s="11">
-        <v>820540</v>
+        <v>717793</v>
       </c>
       <c r="AP31" s="11">
-        <v>717793</v>
+        <v>732830</v>
       </c>
       <c r="AQ31" s="11">
-        <v>732830</v>
+        <v>687005</v>
       </c>
       <c r="AR31" s="11">
-        <v>687005</v>
+        <v>676587</v>
       </c>
       <c r="AS31" s="11">
-        <v>676587</v>
+        <v>854049</v>
       </c>
       <c r="AT31" s="11">
-        <v>854049</v>
+        <v>467068</v>
       </c>
       <c r="AU31" s="11">
-        <v>467068</v>
+        <v>675477</v>
       </c>
       <c r="AV31" s="11">
-        <v>675477</v>
+        <v>1060871</v>
       </c>
       <c r="AW31" s="11">
-        <v>1060871</v>
+        <v>1256318</v>
       </c>
       <c r="AX31" s="11">
-        <v>1256318</v>
+        <v>1138722</v>
       </c>
       <c r="AY31" s="11">
-        <v>1138722</v>
+        <v>955654</v>
       </c>
       <c r="AZ31" s="11">
-        <v>955654</v>
+        <v>955532</v>
       </c>
       <c r="BA31" s="11">
-        <v>955532</v>
+        <v>975351</v>
       </c>
       <c r="BB31" s="11">
-        <v>975351</v>
+        <v>627552</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4108,36 +4108,36 @@
       <c r="Y32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="13" t="s">
-        <v>58</v>
+      <c r="Z32" s="13">
+        <v>121878</v>
       </c>
       <c r="AA32" s="13">
-        <v>121878</v>
+        <v>85611</v>
       </c>
       <c r="AB32" s="13">
-        <v>85611</v>
+        <v>78826</v>
       </c>
       <c r="AC32" s="13">
-        <v>78826</v>
+        <v>106761</v>
       </c>
       <c r="AD32" s="13">
-        <v>106761</v>
+        <v>85491</v>
       </c>
       <c r="AE32" s="13">
-        <v>85491</v>
+        <v>97876</v>
       </c>
       <c r="AF32" s="13">
-        <v>97876</v>
+        <v>93514</v>
       </c>
       <c r="AG32" s="13">
-        <v>93514</v>
+        <v>84526</v>
       </c>
       <c r="AH32" s="13">
-        <v>84526</v>
-      </c>
-      <c r="AI32" s="13">
         <v>100182</v>
       </c>
+      <c r="AI32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4165,35 +4165,35 @@
       <c r="AR32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT32" s="13" t="s">
-        <v>58</v>
+      <c r="AS32" s="13">
+        <v>85067</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>86030</v>
       </c>
       <c r="AU32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV32" s="13">
-        <v>99905</v>
-      </c>
-      <c r="AW32" s="13">
-        <v>89183</v>
-      </c>
-      <c r="AX32" s="13">
-        <v>130589</v>
-      </c>
-      <c r="AY32" s="13">
-        <v>100244</v>
-      </c>
-      <c r="AZ32" s="13">
-        <v>93413</v>
-      </c>
-      <c r="BA32" s="13">
-        <v>103354</v>
-      </c>
-      <c r="BB32" s="13">
-        <v>15803</v>
+      <c r="AV32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB32" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4267,92 +4267,92 @@
       <c r="Y33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Z33" s="11">
+        <v>206743</v>
       </c>
       <c r="AA33" s="11">
-        <v>206743</v>
+        <v>186120</v>
       </c>
       <c r="AB33" s="11">
-        <v>186120</v>
+        <v>219603</v>
       </c>
       <c r="AC33" s="11">
-        <v>219603</v>
+        <v>138595</v>
       </c>
       <c r="AD33" s="11">
-        <v>138595</v>
+        <v>191030</v>
       </c>
       <c r="AE33" s="11">
-        <v>191030</v>
+        <v>125633</v>
       </c>
       <c r="AF33" s="11">
-        <v>125633</v>
+        <v>138908</v>
       </c>
       <c r="AG33" s="11">
-        <v>138908</v>
+        <v>123213</v>
       </c>
       <c r="AH33" s="11">
-        <v>123213</v>
+        <v>140887</v>
       </c>
       <c r="AI33" s="11">
-        <v>140887</v>
+        <v>142466</v>
       </c>
       <c r="AJ33" s="11">
-        <v>142466</v>
+        <v>175338</v>
       </c>
       <c r="AK33" s="11">
-        <v>175338</v>
+        <v>250014</v>
       </c>
       <c r="AL33" s="11">
-        <v>250014</v>
+        <v>138150</v>
       </c>
       <c r="AM33" s="11">
-        <v>138150</v>
+        <v>230905</v>
       </c>
       <c r="AN33" s="11">
-        <v>230905</v>
+        <v>232825</v>
       </c>
       <c r="AO33" s="11">
-        <v>232825</v>
+        <v>219167</v>
       </c>
       <c r="AP33" s="11">
-        <v>219167</v>
+        <v>192763</v>
       </c>
       <c r="AQ33" s="11">
-        <v>192763</v>
+        <v>206733</v>
       </c>
       <c r="AR33" s="11">
-        <v>206733</v>
+        <v>189384</v>
       </c>
       <c r="AS33" s="11">
-        <v>189384</v>
+        <v>38075</v>
       </c>
       <c r="AT33" s="11">
-        <v>38075</v>
+        <v>38242</v>
       </c>
       <c r="AU33" s="11">
-        <v>38242</v>
+        <v>158407</v>
       </c>
       <c r="AV33" s="11">
-        <v>158407</v>
+        <v>197007</v>
       </c>
       <c r="AW33" s="11">
-        <v>197007</v>
+        <v>225573</v>
       </c>
       <c r="AX33" s="11">
-        <v>225573</v>
+        <v>182592</v>
       </c>
       <c r="AY33" s="11">
-        <v>182592</v>
+        <v>193746</v>
       </c>
       <c r="AZ33" s="11">
-        <v>193746</v>
+        <v>204267</v>
       </c>
       <c r="BA33" s="11">
-        <v>204267</v>
+        <v>275647</v>
       </c>
       <c r="BB33" s="11">
-        <v>275647</v>
+        <v>114191</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4453,65 +4453,65 @@
       <c r="AH34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI34" s="13" t="s">
-        <v>58</v>
+      <c r="AI34" s="13">
+        <v>68091</v>
       </c>
       <c r="AJ34" s="13">
-        <v>68091</v>
+        <v>127691</v>
       </c>
       <c r="AK34" s="13">
-        <v>127691</v>
+        <v>140353</v>
       </c>
       <c r="AL34" s="13">
-        <v>140353</v>
+        <v>123855</v>
       </c>
       <c r="AM34" s="13">
-        <v>123855</v>
+        <v>114719</v>
       </c>
       <c r="AN34" s="13">
-        <v>114719</v>
+        <v>118876</v>
       </c>
       <c r="AO34" s="13">
-        <v>118876</v>
+        <v>66307</v>
       </c>
       <c r="AP34" s="13">
-        <v>66307</v>
+        <v>100918</v>
       </c>
       <c r="AQ34" s="13">
-        <v>100918</v>
+        <v>81510</v>
       </c>
       <c r="AR34" s="13">
-        <v>81510</v>
-      </c>
-      <c r="AS34" s="13">
         <v>59708</v>
       </c>
-      <c r="AT34" s="13">
-        <v>85067</v>
+      <c r="AS34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU34" s="13">
-        <v>86030</v>
-      </c>
-      <c r="AV34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB34" s="13" t="s">
-        <v>58</v>
+        <v>99905</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>89183</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>130589</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>100244</v>
+      </c>
+      <c r="AY34" s="13">
+        <v>93413</v>
+      </c>
+      <c r="AZ34" s="13">
+        <v>103354</v>
+      </c>
+      <c r="BA34" s="13">
+        <v>15803</v>
+      </c>
+      <c r="BB34" s="13">
+        <v>150097</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4584,91 +4584,91 @@
         <v>0</v>
       </c>
       <c r="Z35" s="15">
-        <v>0</v>
+        <v>1308294</v>
       </c>
       <c r="AA35" s="15">
-        <v>1308294</v>
+        <v>1353858</v>
       </c>
       <c r="AB35" s="15">
-        <v>1353858</v>
+        <v>1350976</v>
       </c>
       <c r="AC35" s="15">
-        <v>1350976</v>
+        <v>945704</v>
       </c>
       <c r="AD35" s="15">
-        <v>945704</v>
+        <v>1022411</v>
       </c>
       <c r="AE35" s="15">
-        <v>1022411</v>
+        <v>786936</v>
       </c>
       <c r="AF35" s="15">
-        <v>786936</v>
+        <v>960913</v>
       </c>
       <c r="AG35" s="15">
-        <v>960913</v>
+        <v>941900</v>
       </c>
       <c r="AH35" s="15">
-        <v>941900</v>
+        <v>925442</v>
       </c>
       <c r="AI35" s="15">
-        <v>925442</v>
+        <v>949576</v>
       </c>
       <c r="AJ35" s="15">
-        <v>949576</v>
+        <v>1195276</v>
       </c>
       <c r="AK35" s="15">
-        <v>1195276</v>
+        <v>1599264</v>
       </c>
       <c r="AL35" s="15">
-        <v>1599264</v>
+        <v>1187023</v>
       </c>
       <c r="AM35" s="15">
-        <v>1187023</v>
+        <v>1159249</v>
       </c>
       <c r="AN35" s="15">
-        <v>1159249</v>
+        <v>1172241</v>
       </c>
       <c r="AO35" s="15">
-        <v>1172241</v>
+        <v>1003267</v>
       </c>
       <c r="AP35" s="15">
-        <v>1003267</v>
+        <v>1026511</v>
       </c>
       <c r="AQ35" s="15">
-        <v>1026511</v>
+        <v>975248</v>
       </c>
       <c r="AR35" s="15">
-        <v>975248</v>
+        <v>925679</v>
       </c>
       <c r="AS35" s="15">
-        <v>925679</v>
+        <v>977191</v>
       </c>
       <c r="AT35" s="15">
-        <v>977191</v>
+        <v>591340</v>
       </c>
       <c r="AU35" s="15">
-        <v>591340</v>
+        <v>933789</v>
       </c>
       <c r="AV35" s="15">
-        <v>933789</v>
+        <v>1347061</v>
       </c>
       <c r="AW35" s="15">
-        <v>1347061</v>
+        <v>1612480</v>
       </c>
       <c r="AX35" s="15">
-        <v>1612480</v>
+        <v>1421558</v>
       </c>
       <c r="AY35" s="15">
-        <v>1421558</v>
+        <v>1242813</v>
       </c>
       <c r="AZ35" s="15">
-        <v>1242813</v>
+        <v>1263153</v>
       </c>
       <c r="BA35" s="15">
-        <v>1263153</v>
+        <v>1266801</v>
       </c>
       <c r="BB35" s="15">
-        <v>1266801</v>
+        <v>891840</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4799,92 +4799,92 @@
       <c r="Y37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Z37" s="11">
+        <v>181190</v>
       </c>
       <c r="AA37" s="11">
-        <v>181190</v>
+        <v>285984</v>
       </c>
       <c r="AB37" s="11">
-        <v>285984</v>
+        <v>330009</v>
       </c>
       <c r="AC37" s="11">
-        <v>330009</v>
+        <v>160912</v>
       </c>
       <c r="AD37" s="11">
-        <v>160912</v>
+        <v>301953</v>
       </c>
       <c r="AE37" s="11">
-        <v>301953</v>
+        <v>309723</v>
       </c>
       <c r="AF37" s="11">
-        <v>309723</v>
+        <v>276356</v>
       </c>
       <c r="AG37" s="11">
-        <v>276356</v>
+        <v>263260</v>
       </c>
       <c r="AH37" s="11">
-        <v>263260</v>
+        <v>300280</v>
       </c>
       <c r="AI37" s="11">
-        <v>300280</v>
+        <v>189474</v>
       </c>
       <c r="AJ37" s="11">
-        <v>189474</v>
+        <v>305722</v>
       </c>
       <c r="AK37" s="11">
-        <v>305722</v>
+        <v>338249</v>
       </c>
       <c r="AL37" s="11">
-        <v>338249</v>
+        <v>538853</v>
       </c>
       <c r="AM37" s="11">
-        <v>538853</v>
+        <v>190523</v>
       </c>
       <c r="AN37" s="11">
-        <v>190523</v>
+        <v>339166</v>
       </c>
       <c r="AO37" s="11">
-        <v>339166</v>
+        <v>298118</v>
       </c>
       <c r="AP37" s="11">
-        <v>298118</v>
+        <v>185640</v>
       </c>
       <c r="AQ37" s="11">
-        <v>185640</v>
+        <v>176389</v>
       </c>
       <c r="AR37" s="11">
-        <v>176389</v>
+        <v>73665</v>
       </c>
       <c r="AS37" s="11">
-        <v>73665</v>
+        <v>120868</v>
       </c>
       <c r="AT37" s="11">
-        <v>120868</v>
+        <v>531566</v>
       </c>
       <c r="AU37" s="11">
-        <v>531566</v>
+        <v>387294</v>
       </c>
       <c r="AV37" s="11">
-        <v>387294</v>
+        <v>4382</v>
       </c>
       <c r="AW37" s="11">
-        <v>4382</v>
+        <v>414551</v>
       </c>
       <c r="AX37" s="11">
-        <v>414551</v>
+        <v>189931</v>
       </c>
       <c r="AY37" s="11">
-        <v>189931</v>
+        <v>480691</v>
       </c>
       <c r="AZ37" s="11">
-        <v>480691</v>
+        <v>437942</v>
       </c>
       <c r="BA37" s="11">
-        <v>437942</v>
+        <v>432674</v>
       </c>
       <c r="BB37" s="11">
-        <v>432674</v>
+        <v>297422</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4958,14 +4958,14 @@
       <c r="Y38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Z38" s="13">
+        <v>0</v>
       </c>
       <c r="AA38" s="13">
         <v>0</v>
       </c>
-      <c r="AB38" s="13">
-        <v>0</v>
+      <c r="AB38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC38" s="13" t="s">
         <v>58</v>
@@ -4982,20 +4982,20 @@
       <c r="AG38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
+      <c r="AH38" s="13">
+        <v>12405</v>
       </c>
       <c r="AI38" s="13">
-        <v>12405</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM38" s="13" t="s">
         <v>58</v>
@@ -5015,8 +5015,8 @@
       <c r="AR38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS38" s="13" t="s">
-        <v>58</v>
+      <c r="AS38" s="13">
+        <v>0</v>
       </c>
       <c r="AT38" s="13">
         <v>0</v>
@@ -5117,92 +5117,92 @@
       <c r="Y39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>58</v>
+      <c r="Z39" s="11">
+        <v>88012</v>
       </c>
       <c r="AA39" s="11">
-        <v>88012</v>
+        <v>53090</v>
       </c>
       <c r="AB39" s="11">
-        <v>53090</v>
+        <v>108564</v>
       </c>
       <c r="AC39" s="11">
-        <v>108564</v>
+        <v>8031</v>
       </c>
       <c r="AD39" s="11">
-        <v>8031</v>
+        <v>77477</v>
       </c>
       <c r="AE39" s="11">
-        <v>77477</v>
+        <v>40769</v>
       </c>
       <c r="AF39" s="11">
-        <v>40769</v>
+        <v>53501</v>
       </c>
       <c r="AG39" s="11">
-        <v>53501</v>
+        <v>89783</v>
       </c>
       <c r="AH39" s="11">
-        <v>89783</v>
+        <v>96771</v>
       </c>
       <c r="AI39" s="11">
-        <v>96771</v>
+        <v>67002</v>
       </c>
       <c r="AJ39" s="11">
-        <v>67002</v>
+        <v>154038</v>
       </c>
       <c r="AK39" s="11">
-        <v>154038</v>
+        <v>65993</v>
       </c>
       <c r="AL39" s="11">
-        <v>65993</v>
+        <v>21456</v>
       </c>
       <c r="AM39" s="11">
-        <v>21456</v>
+        <v>49018</v>
       </c>
       <c r="AN39" s="11">
-        <v>49018</v>
+        <v>91212</v>
       </c>
       <c r="AO39" s="11">
-        <v>91212</v>
+        <v>82571</v>
       </c>
       <c r="AP39" s="11">
-        <v>82571</v>
+        <v>28028</v>
       </c>
       <c r="AQ39" s="11">
-        <v>28028</v>
+        <v>31898</v>
       </c>
       <c r="AR39" s="11">
-        <v>31898</v>
+        <v>2546</v>
       </c>
       <c r="AS39" s="11">
-        <v>2546</v>
+        <v>20788</v>
       </c>
       <c r="AT39" s="11">
-        <v>20788</v>
+        <v>142861</v>
       </c>
       <c r="AU39" s="11">
-        <v>142861</v>
+        <v>31025</v>
       </c>
       <c r="AV39" s="11">
-        <v>31025</v>
+        <v>538</v>
       </c>
       <c r="AW39" s="11">
-        <v>538</v>
+        <v>11030</v>
       </c>
       <c r="AX39" s="11">
-        <v>11030</v>
+        <v>6323</v>
       </c>
       <c r="AY39" s="11">
-        <v>6323</v>
+        <v>14371</v>
       </c>
       <c r="AZ39" s="11">
-        <v>14371</v>
+        <v>9338</v>
       </c>
       <c r="BA39" s="11">
-        <v>9338</v>
+        <v>23735</v>
       </c>
       <c r="BB39" s="11">
-        <v>23735</v>
+        <v>14202</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5339,17 +5339,17 @@
       <c r="AT40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU40" s="13" t="s">
-        <v>58</v>
+      <c r="AU40" s="13">
+        <v>0</v>
       </c>
       <c r="AV40" s="13">
         <v>0</v>
       </c>
-      <c r="AW40" s="13" t="s">
-        <v>58</v>
+      <c r="AW40" s="13">
+        <v>22</v>
       </c>
       <c r="AX40" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="13">
         <v>0</v>
@@ -5358,10 +5358,10 @@
         <v>0</v>
       </c>
       <c r="BA40" s="13">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="BB40" s="13">
-        <v>199</v>
+        <v>25440</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5434,91 +5434,91 @@
         <v>0</v>
       </c>
       <c r="Z41" s="15">
-        <v>0</v>
+        <v>269202</v>
       </c>
       <c r="AA41" s="15">
-        <v>269202</v>
+        <v>339074</v>
       </c>
       <c r="AB41" s="15">
-        <v>339074</v>
+        <v>438573</v>
       </c>
       <c r="AC41" s="15">
-        <v>438573</v>
+        <v>168943</v>
       </c>
       <c r="AD41" s="15">
-        <v>168943</v>
+        <v>379430</v>
       </c>
       <c r="AE41" s="15">
-        <v>379430</v>
+        <v>350492</v>
       </c>
       <c r="AF41" s="15">
-        <v>350492</v>
+        <v>329857</v>
       </c>
       <c r="AG41" s="15">
-        <v>329857</v>
+        <v>353043</v>
       </c>
       <c r="AH41" s="15">
-        <v>353043</v>
+        <v>409456</v>
       </c>
       <c r="AI41" s="15">
-        <v>409456</v>
+        <v>256476</v>
       </c>
       <c r="AJ41" s="15">
-        <v>256476</v>
+        <v>459760</v>
       </c>
       <c r="AK41" s="15">
-        <v>459760</v>
+        <v>404242</v>
       </c>
       <c r="AL41" s="15">
-        <v>404242</v>
+        <v>560309</v>
       </c>
       <c r="AM41" s="15">
-        <v>560309</v>
+        <v>239541</v>
       </c>
       <c r="AN41" s="15">
-        <v>239541</v>
+        <v>430378</v>
       </c>
       <c r="AO41" s="15">
-        <v>430378</v>
+        <v>380689</v>
       </c>
       <c r="AP41" s="15">
-        <v>380689</v>
+        <v>213668</v>
       </c>
       <c r="AQ41" s="15">
-        <v>213668</v>
+        <v>208287</v>
       </c>
       <c r="AR41" s="15">
-        <v>208287</v>
+        <v>76211</v>
       </c>
       <c r="AS41" s="15">
-        <v>76211</v>
+        <v>141656</v>
       </c>
       <c r="AT41" s="15">
-        <v>141656</v>
+        <v>674427</v>
       </c>
       <c r="AU41" s="15">
-        <v>674427</v>
+        <v>418319</v>
       </c>
       <c r="AV41" s="15">
-        <v>418319</v>
+        <v>4920</v>
       </c>
       <c r="AW41" s="15">
-        <v>4920</v>
+        <v>425603</v>
       </c>
       <c r="AX41" s="15">
-        <v>425603</v>
+        <v>196254</v>
       </c>
       <c r="AY41" s="15">
-        <v>196254</v>
+        <v>495062</v>
       </c>
       <c r="AZ41" s="15">
-        <v>495062</v>
+        <v>447280</v>
       </c>
       <c r="BA41" s="15">
-        <v>447280</v>
+        <v>456608</v>
       </c>
       <c r="BB41" s="15">
-        <v>456608</v>
+        <v>337064</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5647,8 +5647,8 @@
       <c r="Y43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="15" t="s">
-        <v>58</v>
+      <c r="Z43" s="15">
+        <v>0</v>
       </c>
       <c r="AA43" s="15">
         <v>0</v>
@@ -5869,11 +5869,11 @@
       <c r="AA45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB45" s="11" t="s">
-        <v>58</v>
+      <c r="AB45" s="11">
+        <v>-2359</v>
       </c>
       <c r="AC45" s="11">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="11">
         <v>0</v>
@@ -5882,29 +5882,29 @@
         <v>0</v>
       </c>
       <c r="AF45" s="11">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AG45" s="11">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AH45" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AI45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ45" s="11">
         <v>-804</v>
       </c>
-      <c r="AL45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM45" s="11">
+      <c r="AK45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL45" s="11">
         <v>-673</v>
       </c>
+      <c r="AM45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN45" s="11" t="s">
         <v>58</v>
       </c>
@@ -5920,35 +5920,35 @@
       <c r="AR45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS45" s="11" t="s">
-        <v>58</v>
+      <c r="AS45" s="11">
+        <v>-12</v>
       </c>
       <c r="AT45" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AU45" s="11">
         <v>-27520</v>
       </c>
+      <c r="AU45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY45" s="11">
+      <c r="AX45" s="11">
         <v>-8</v>
       </c>
-      <c r="AZ45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA45" s="11">
+      <c r="AY45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ45" s="11">
         <v>-257927</v>
       </c>
-      <c r="BB45" s="11" t="s">
-        <v>58</v>
+      <c r="BA45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB45" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6058,12 +6058,12 @@
       <c r="AK46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM46" s="13">
+      <c r="AL46" s="13">
         <v>-22</v>
       </c>
+      <c r="AM46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6079,14 +6079,14 @@
       <c r="AR46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS46" s="13" t="s">
-        <v>58</v>
+      <c r="AS46" s="13">
+        <v>0</v>
       </c>
       <c r="AT46" s="13">
         <v>0</v>
       </c>
-      <c r="AU46" s="13">
-        <v>0</v>
+      <c r="AU46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV46" s="13" t="s">
         <v>58</v>
@@ -6223,12 +6223,12 @@
       <c r="AM47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO47" s="11">
+      <c r="AN47" s="11">
         <v>-376</v>
       </c>
+      <c r="AO47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP47" s="11" t="s">
         <v>58</v>
       </c>
@@ -6238,35 +6238,35 @@
       <c r="AR47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS47" s="11" t="s">
-        <v>58</v>
+      <c r="AS47" s="11">
+        <v>0</v>
       </c>
       <c r="AT47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU47" s="11">
         <v>-10000</v>
       </c>
+      <c r="AU47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV47" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY47" s="11">
+      <c r="AX47" s="11">
         <v>-1</v>
       </c>
-      <c r="AZ47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA47" s="11">
+      <c r="AY47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ47" s="11">
         <v>-53336</v>
       </c>
-      <c r="BB47" s="11" t="s">
-        <v>58</v>
+      <c r="BA47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB47" s="11">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6412,20 +6412,20 @@
       <c r="AW48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY48" s="13">
+      <c r="AX48" s="13">
         <v>-15547</v>
       </c>
-      <c r="AZ48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA48" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB48" s="13" t="s">
-        <v>58</v>
+      <c r="AY48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ48" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB48" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6497,17 +6497,17 @@
       <c r="Y49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="15" t="s">
-        <v>58</v>
+      <c r="Z49" s="15">
+        <v>0</v>
       </c>
       <c r="AA49" s="15">
         <v>0</v>
       </c>
       <c r="AB49" s="15">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="AC49" s="15">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="15">
         <v>0</v>
@@ -6516,34 +6516,34 @@
         <v>0</v>
       </c>
       <c r="AF49" s="15">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AG49" s="15">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AH49" s="15">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="15">
         <v>0</v>
       </c>
       <c r="AJ49" s="15">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AK49" s="15">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="AL49" s="15">
-        <v>0</v>
+        <v>-695</v>
       </c>
       <c r="AM49" s="15">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="15">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AO49" s="15">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="15">
         <v>0</v>
@@ -6555,13 +6555,13 @@
         <v>0</v>
       </c>
       <c r="AS49" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AT49" s="15">
-        <v>-12</v>
+        <v>-37520</v>
       </c>
       <c r="AU49" s="15">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="15">
         <v>0</v>
@@ -6570,16 +6570,16 @@
         <v>0</v>
       </c>
       <c r="AX49" s="15">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AY49" s="15">
-        <v>-15556</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="15">
-        <v>0</v>
+        <v>-311263</v>
       </c>
       <c r="BA49" s="15">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="15">
         <v>0</v>
@@ -6655,91 +6655,91 @@
         <v>0</v>
       </c>
       <c r="Z50" s="19">
-        <v>0</v>
+        <v>1577496</v>
       </c>
       <c r="AA50" s="19">
-        <v>1577496</v>
+        <v>1692932</v>
       </c>
       <c r="AB50" s="19">
-        <v>1692932</v>
+        <v>1787190</v>
       </c>
       <c r="AC50" s="19">
-        <v>1787190</v>
+        <v>1114647</v>
       </c>
       <c r="AD50" s="19">
-        <v>1114647</v>
+        <v>1401841</v>
       </c>
       <c r="AE50" s="19">
-        <v>1401841</v>
+        <v>1137428</v>
       </c>
       <c r="AF50" s="19">
-        <v>1137428</v>
+        <v>1290676</v>
       </c>
       <c r="AG50" s="19">
-        <v>1290676</v>
+        <v>1294870</v>
       </c>
       <c r="AH50" s="19">
-        <v>1294870</v>
+        <v>1334898</v>
       </c>
       <c r="AI50" s="19">
-        <v>1334898</v>
+        <v>1206052</v>
       </c>
       <c r="AJ50" s="19">
-        <v>1206052</v>
+        <v>1654232</v>
       </c>
       <c r="AK50" s="19">
-        <v>1654232</v>
+        <v>2003506</v>
       </c>
       <c r="AL50" s="19">
-        <v>2003506</v>
+        <v>1746637</v>
       </c>
       <c r="AM50" s="19">
-        <v>1746637</v>
+        <v>1398790</v>
       </c>
       <c r="AN50" s="19">
-        <v>1398790</v>
+        <v>1602243</v>
       </c>
       <c r="AO50" s="19">
-        <v>1602243</v>
+        <v>1383956</v>
       </c>
       <c r="AP50" s="19">
-        <v>1383956</v>
+        <v>1240179</v>
       </c>
       <c r="AQ50" s="19">
-        <v>1240179</v>
+        <v>1183535</v>
       </c>
       <c r="AR50" s="19">
-        <v>1183535</v>
+        <v>1001890</v>
       </c>
       <c r="AS50" s="19">
-        <v>1001890</v>
+        <v>1118835</v>
       </c>
       <c r="AT50" s="19">
-        <v>1118835</v>
+        <v>1228247</v>
       </c>
       <c r="AU50" s="19">
-        <v>1228247</v>
+        <v>1352108</v>
       </c>
       <c r="AV50" s="19">
-        <v>1352108</v>
+        <v>1351981</v>
       </c>
       <c r="AW50" s="19">
-        <v>1351981</v>
+        <v>2038083</v>
       </c>
       <c r="AX50" s="19">
-        <v>2038083</v>
+        <v>1602256</v>
       </c>
       <c r="AY50" s="19">
-        <v>1602256</v>
+        <v>1737875</v>
       </c>
       <c r="AZ50" s="19">
-        <v>1737875</v>
+        <v>1399170</v>
       </c>
       <c r="BA50" s="19">
-        <v>1399170</v>
+        <v>1723409</v>
       </c>
       <c r="BB50" s="19">
-        <v>1723409</v>
+        <v>1228904</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7247,92 +7247,92 @@
       <c r="Y57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z57" s="11" t="s">
-        <v>58</v>
+      <c r="Z57" s="11">
+        <v>377966</v>
       </c>
       <c r="AA57" s="11">
-        <v>377966</v>
+        <v>484738</v>
       </c>
       <c r="AB57" s="11">
-        <v>484738</v>
+        <v>469422</v>
       </c>
       <c r="AC57" s="11">
-        <v>469422</v>
+        <v>346503</v>
       </c>
       <c r="AD57" s="11">
-        <v>346503</v>
+        <v>387412</v>
       </c>
       <c r="AE57" s="11">
-        <v>387412</v>
+        <v>283224</v>
       </c>
       <c r="AF57" s="11">
-        <v>283224</v>
+        <v>383105</v>
       </c>
       <c r="AG57" s="11">
-        <v>383105</v>
+        <v>379537</v>
       </c>
       <c r="AH57" s="11">
-        <v>379537</v>
+        <v>363206</v>
       </c>
       <c r="AI57" s="11">
-        <v>363206</v>
+        <v>417300</v>
       </c>
       <c r="AJ57" s="11">
-        <v>417300</v>
+        <v>505141</v>
       </c>
       <c r="AK57" s="11">
-        <v>505141</v>
+        <v>704811</v>
       </c>
       <c r="AL57" s="11">
-        <v>704811</v>
+        <v>586804</v>
       </c>
       <c r="AM57" s="11">
-        <v>586804</v>
+        <v>515653</v>
       </c>
       <c r="AN57" s="11">
-        <v>515653</v>
+        <v>560068</v>
       </c>
       <c r="AO57" s="11">
-        <v>560068</v>
+        <v>486218</v>
       </c>
       <c r="AP57" s="11">
-        <v>486218</v>
+        <v>510584</v>
       </c>
       <c r="AQ57" s="11">
-        <v>510584</v>
+        <v>523238</v>
       </c>
       <c r="AR57" s="11">
-        <v>523238</v>
+        <v>525300</v>
       </c>
       <c r="AS57" s="11">
-        <v>525300</v>
+        <v>647446</v>
       </c>
       <c r="AT57" s="11">
-        <v>647446</v>
+        <v>361766</v>
       </c>
       <c r="AU57" s="11">
-        <v>361766</v>
+        <v>529474</v>
       </c>
       <c r="AV57" s="11">
-        <v>529474</v>
+        <v>962843</v>
       </c>
       <c r="AW57" s="11">
-        <v>962843</v>
+        <v>1155390</v>
       </c>
       <c r="AX57" s="11">
-        <v>1155390</v>
+        <v>1058510</v>
       </c>
       <c r="AY57" s="11">
-        <v>1058510</v>
+        <v>927881</v>
       </c>
       <c r="AZ57" s="11">
-        <v>927881</v>
+        <v>969953</v>
       </c>
       <c r="BA57" s="11">
-        <v>969953</v>
+        <v>915714</v>
       </c>
       <c r="BB57" s="11">
-        <v>915714</v>
+        <v>671958</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7406,36 +7406,36 @@
       <c r="Y58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z58" s="13" t="s">
-        <v>58</v>
+      <c r="Z58" s="13">
+        <v>33000</v>
       </c>
       <c r="AA58" s="13">
-        <v>33000</v>
+        <v>24698</v>
       </c>
       <c r="AB58" s="13">
-        <v>24698</v>
+        <v>22632</v>
       </c>
       <c r="AC58" s="13">
-        <v>22632</v>
+        <v>34146</v>
       </c>
       <c r="AD58" s="13">
-        <v>34146</v>
+        <v>27973</v>
       </c>
       <c r="AE58" s="13">
-        <v>27973</v>
+        <v>32017</v>
       </c>
       <c r="AF58" s="13">
-        <v>32017</v>
+        <v>29834</v>
       </c>
       <c r="AG58" s="13">
-        <v>29834</v>
+        <v>26238</v>
       </c>
       <c r="AH58" s="13">
-        <v>26238</v>
-      </c>
-      <c r="AI58" s="13">
         <v>35294</v>
       </c>
+      <c r="AI58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ58" s="13" t="s">
         <v>58</v>
       </c>
@@ -7463,35 +7463,35 @@
       <c r="AR58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT58" s="13" t="s">
-        <v>58</v>
+      <c r="AS58" s="13">
+        <v>47761</v>
+      </c>
+      <c r="AT58" s="13">
+        <v>47148</v>
       </c>
       <c r="AU58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV58" s="13">
-        <v>55545</v>
-      </c>
-      <c r="AW58" s="13">
-        <v>55612</v>
-      </c>
-      <c r="AX58" s="13">
-        <v>81389</v>
-      </c>
-      <c r="AY58" s="13">
-        <v>62593</v>
-      </c>
-      <c r="AZ58" s="13">
-        <v>59882</v>
-      </c>
-      <c r="BA58" s="13">
-        <v>66870</v>
-      </c>
-      <c r="BB58" s="13">
-        <v>11181</v>
+      <c r="AV58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB58" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7565,92 +7565,92 @@
       <c r="Y59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Z59" s="11">
+        <v>120475</v>
       </c>
       <c r="AA59" s="11">
-        <v>120475</v>
+        <v>119664</v>
       </c>
       <c r="AB59" s="11">
-        <v>119664</v>
+        <v>134603</v>
       </c>
       <c r="AC59" s="11">
-        <v>134603</v>
+        <v>93784</v>
       </c>
       <c r="AD59" s="11">
-        <v>93784</v>
+        <v>134982</v>
       </c>
       <c r="AE59" s="11">
-        <v>134982</v>
+        <v>84872</v>
       </c>
       <c r="AF59" s="11">
-        <v>84872</v>
+        <v>101005</v>
       </c>
       <c r="AG59" s="11">
-        <v>101005</v>
+        <v>92774</v>
       </c>
       <c r="AH59" s="11">
-        <v>92774</v>
+        <v>102702</v>
       </c>
       <c r="AI59" s="11">
-        <v>102702</v>
+        <v>110394</v>
       </c>
       <c r="AJ59" s="11">
-        <v>110394</v>
+        <v>136446</v>
       </c>
       <c r="AK59" s="11">
-        <v>136446</v>
+        <v>197004</v>
       </c>
       <c r="AL59" s="11">
-        <v>197004</v>
+        <v>125079</v>
       </c>
       <c r="AM59" s="11">
-        <v>125079</v>
+        <v>202413</v>
       </c>
       <c r="AN59" s="11">
-        <v>202413</v>
+        <v>204389</v>
       </c>
       <c r="AO59" s="11">
-        <v>204389</v>
+        <v>187686</v>
       </c>
       <c r="AP59" s="11">
-        <v>187686</v>
+        <v>170143</v>
       </c>
       <c r="AQ59" s="11">
-        <v>170143</v>
+        <v>179325</v>
       </c>
       <c r="AR59" s="11">
-        <v>179325</v>
+        <v>168127</v>
       </c>
       <c r="AS59" s="11">
-        <v>168127</v>
+        <v>38118</v>
       </c>
       <c r="AT59" s="11">
-        <v>38118</v>
+        <v>39297</v>
       </c>
       <c r="AU59" s="11">
-        <v>39297</v>
+        <v>146904</v>
       </c>
       <c r="AV59" s="11">
-        <v>146904</v>
+        <v>183237</v>
       </c>
       <c r="AW59" s="11">
-        <v>183237</v>
+        <v>208870</v>
       </c>
       <c r="AX59" s="11">
-        <v>208870</v>
+        <v>175142</v>
       </c>
       <c r="AY59" s="11">
-        <v>175142</v>
+        <v>176008</v>
       </c>
       <c r="AZ59" s="11">
-        <v>176008</v>
+        <v>181110</v>
       </c>
       <c r="BA59" s="11">
-        <v>181110</v>
+        <v>264271</v>
       </c>
       <c r="BB59" s="11">
-        <v>264271</v>
+        <v>124530</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7751,65 +7751,65 @@
       <c r="AH60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI60" s="13" t="s">
-        <v>58</v>
+      <c r="AI60" s="13">
+        <v>26245</v>
       </c>
       <c r="AJ60" s="13">
-        <v>26245</v>
+        <v>61856</v>
       </c>
       <c r="AK60" s="13">
-        <v>61856</v>
+        <v>67802</v>
       </c>
       <c r="AL60" s="13">
-        <v>67802</v>
+        <v>61484</v>
       </c>
       <c r="AM60" s="13">
-        <v>61484</v>
+        <v>59403</v>
       </c>
       <c r="AN60" s="13">
-        <v>59403</v>
+        <v>64199</v>
       </c>
       <c r="AO60" s="13">
-        <v>64199</v>
+        <v>37627</v>
       </c>
       <c r="AP60" s="13">
-        <v>37627</v>
+        <v>56308</v>
       </c>
       <c r="AQ60" s="13">
-        <v>56308</v>
+        <v>44349</v>
       </c>
       <c r="AR60" s="13">
-        <v>44349</v>
-      </c>
-      <c r="AS60" s="13">
         <v>33883</v>
       </c>
-      <c r="AT60" s="13">
-        <v>47761</v>
+      <c r="AS60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU60" s="13">
-        <v>47148</v>
-      </c>
-      <c r="AV60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB60" s="13" t="s">
-        <v>58</v>
+        <v>55545</v>
+      </c>
+      <c r="AV60" s="13">
+        <v>55612</v>
+      </c>
+      <c r="AW60" s="13">
+        <v>81389</v>
+      </c>
+      <c r="AX60" s="13">
+        <v>62593</v>
+      </c>
+      <c r="AY60" s="13">
+        <v>59882</v>
+      </c>
+      <c r="AZ60" s="13">
+        <v>66870</v>
+      </c>
+      <c r="BA60" s="13">
+        <v>11181</v>
+      </c>
+      <c r="BB60" s="13">
+        <v>109499</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7882,91 +7882,91 @@
         <v>0</v>
       </c>
       <c r="Z61" s="15">
-        <v>0</v>
+        <v>531441</v>
       </c>
       <c r="AA61" s="15">
-        <v>531441</v>
+        <v>629100</v>
       </c>
       <c r="AB61" s="15">
-        <v>629100</v>
+        <v>626657</v>
       </c>
       <c r="AC61" s="15">
-        <v>626657</v>
+        <v>474433</v>
       </c>
       <c r="AD61" s="15">
-        <v>474433</v>
+        <v>550367</v>
       </c>
       <c r="AE61" s="15">
-        <v>550367</v>
+        <v>400113</v>
       </c>
       <c r="AF61" s="15">
-        <v>400113</v>
+        <v>513944</v>
       </c>
       <c r="AG61" s="15">
-        <v>513944</v>
+        <v>498549</v>
       </c>
       <c r="AH61" s="15">
-        <v>498549</v>
+        <v>501202</v>
       </c>
       <c r="AI61" s="15">
-        <v>501202</v>
+        <v>553939</v>
       </c>
       <c r="AJ61" s="15">
-        <v>553939</v>
+        <v>703443</v>
       </c>
       <c r="AK61" s="15">
-        <v>703443</v>
+        <v>969617</v>
       </c>
       <c r="AL61" s="15">
-        <v>969617</v>
+        <v>773367</v>
       </c>
       <c r="AM61" s="15">
-        <v>773367</v>
+        <v>777469</v>
       </c>
       <c r="AN61" s="15">
-        <v>777469</v>
+        <v>828656</v>
       </c>
       <c r="AO61" s="15">
-        <v>828656</v>
+        <v>711531</v>
       </c>
       <c r="AP61" s="15">
-        <v>711531</v>
+        <v>737035</v>
       </c>
       <c r="AQ61" s="15">
-        <v>737035</v>
+        <v>746912</v>
       </c>
       <c r="AR61" s="15">
-        <v>746912</v>
+        <v>727310</v>
       </c>
       <c r="AS61" s="15">
-        <v>727310</v>
+        <v>733325</v>
       </c>
       <c r="AT61" s="15">
-        <v>733325</v>
+        <v>448211</v>
       </c>
       <c r="AU61" s="15">
-        <v>448211</v>
+        <v>731923</v>
       </c>
       <c r="AV61" s="15">
-        <v>731923</v>
+        <v>1201692</v>
       </c>
       <c r="AW61" s="15">
-        <v>1201692</v>
+        <v>1445649</v>
       </c>
       <c r="AX61" s="15">
-        <v>1445649</v>
+        <v>1296245</v>
       </c>
       <c r="AY61" s="15">
-        <v>1296245</v>
+        <v>1163771</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1163771</v>
+        <v>1217933</v>
       </c>
       <c r="BA61" s="15">
-        <v>1217933</v>
+        <v>1191166</v>
       </c>
       <c r="BB61" s="15">
-        <v>1191166</v>
+        <v>905987</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8097,92 +8097,92 @@
       <c r="Y63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="11" t="s">
-        <v>58</v>
+      <c r="Z63" s="11">
+        <v>61064</v>
       </c>
       <c r="AA63" s="11">
-        <v>61064</v>
+        <v>109445</v>
       </c>
       <c r="AB63" s="11">
-        <v>109445</v>
+        <v>138345</v>
       </c>
       <c r="AC63" s="11">
-        <v>138345</v>
+        <v>72275</v>
       </c>
       <c r="AD63" s="11">
-        <v>72275</v>
+        <v>134176</v>
       </c>
       <c r="AE63" s="11">
-        <v>134176</v>
+        <v>137535</v>
       </c>
       <c r="AF63" s="11">
-        <v>137535</v>
+        <v>124744</v>
       </c>
       <c r="AG63" s="11">
-        <v>124744</v>
+        <v>108107</v>
       </c>
       <c r="AH63" s="11">
-        <v>108107</v>
+        <v>128613</v>
       </c>
       <c r="AI63" s="11">
-        <v>128613</v>
+        <v>76817</v>
       </c>
       <c r="AJ63" s="11">
-        <v>76817</v>
+        <v>118283</v>
       </c>
       <c r="AK63" s="11">
-        <v>118283</v>
+        <v>136386</v>
       </c>
       <c r="AL63" s="11">
-        <v>136386</v>
+        <v>252613</v>
       </c>
       <c r="AM63" s="11">
-        <v>252613</v>
+        <v>96259</v>
       </c>
       <c r="AN63" s="11">
-        <v>96259</v>
+        <v>172811</v>
       </c>
       <c r="AO63" s="11">
-        <v>172811</v>
+        <v>153659</v>
       </c>
       <c r="AP63" s="11">
-        <v>153659</v>
+        <v>109919</v>
       </c>
       <c r="AQ63" s="11">
-        <v>109919</v>
+        <v>104877</v>
       </c>
       <c r="AR63" s="11">
-        <v>104877</v>
+        <v>41664</v>
       </c>
       <c r="AS63" s="11">
-        <v>41664</v>
+        <v>65290</v>
       </c>
       <c r="AT63" s="11">
-        <v>65290</v>
+        <v>277275</v>
       </c>
       <c r="AU63" s="11">
-        <v>277275</v>
+        <v>215067</v>
       </c>
       <c r="AV63" s="11">
-        <v>215067</v>
+        <v>2840</v>
       </c>
       <c r="AW63" s="11">
-        <v>2840</v>
+        <v>287433</v>
       </c>
       <c r="AX63" s="11">
-        <v>287433</v>
+        <v>141649</v>
       </c>
       <c r="AY63" s="11">
-        <v>141649</v>
+        <v>357432</v>
       </c>
       <c r="AZ63" s="11">
-        <v>357432</v>
+        <v>321942</v>
       </c>
       <c r="BA63" s="11">
-        <v>321942</v>
+        <v>330788</v>
       </c>
       <c r="BB63" s="11">
-        <v>330788</v>
+        <v>242405</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8256,14 +8256,14 @@
       <c r="Y64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z64" s="13" t="s">
-        <v>58</v>
+      <c r="Z64" s="13">
+        <v>0</v>
       </c>
       <c r="AA64" s="13">
         <v>0</v>
       </c>
-      <c r="AB64" s="13">
-        <v>0</v>
+      <c r="AB64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AC64" s="13" t="s">
         <v>58</v>
@@ -8280,11 +8280,11 @@
       <c r="AG64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH64" s="13" t="s">
-        <v>58</v>
+      <c r="AH64" s="13">
+        <v>3753</v>
       </c>
       <c r="AI64" s="13">
-        <v>3753</v>
+        <v>0</v>
       </c>
       <c r="AJ64" s="13">
         <v>0</v>
@@ -8319,8 +8319,8 @@
       <c r="AT64" s="13">
         <v>0</v>
       </c>
-      <c r="AU64" s="13">
-        <v>0</v>
+      <c r="AU64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV64" s="13" t="s">
         <v>58</v>
@@ -8415,92 +8415,92 @@
       <c r="Y65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="11" t="s">
-        <v>58</v>
+      <c r="Z65" s="11">
+        <v>24977</v>
       </c>
       <c r="AA65" s="11">
-        <v>24977</v>
+        <v>18713</v>
       </c>
       <c r="AB65" s="11">
-        <v>18713</v>
+        <v>42718</v>
       </c>
       <c r="AC65" s="11">
-        <v>42718</v>
+        <v>4855</v>
       </c>
       <c r="AD65" s="11">
-        <v>4855</v>
+        <v>35145</v>
       </c>
       <c r="AE65" s="11">
-        <v>35145</v>
+        <v>17258</v>
       </c>
       <c r="AF65" s="11">
-        <v>17258</v>
+        <v>26378</v>
       </c>
       <c r="AG65" s="11">
-        <v>26378</v>
+        <v>38483</v>
       </c>
       <c r="AH65" s="11">
-        <v>38483</v>
+        <v>43705</v>
       </c>
       <c r="AI65" s="11">
-        <v>43705</v>
+        <v>28637</v>
       </c>
       <c r="AJ65" s="11">
-        <v>28637</v>
+        <v>59364</v>
       </c>
       <c r="AK65" s="11">
-        <v>59364</v>
+        <v>23569</v>
       </c>
       <c r="AL65" s="11">
-        <v>23569</v>
+        <v>12215</v>
       </c>
       <c r="AM65" s="11">
-        <v>12215</v>
+        <v>26010</v>
       </c>
       <c r="AN65" s="11">
-        <v>26010</v>
+        <v>47216</v>
       </c>
       <c r="AO65" s="11">
-        <v>47216</v>
+        <v>40907</v>
       </c>
       <c r="AP65" s="11">
-        <v>40907</v>
+        <v>17651</v>
       </c>
       <c r="AQ65" s="11">
-        <v>17651</v>
+        <v>17918</v>
       </c>
       <c r="AR65" s="11">
-        <v>17918</v>
+        <v>1646</v>
       </c>
       <c r="AS65" s="11">
-        <v>1646</v>
+        <v>12277</v>
       </c>
       <c r="AT65" s="11">
-        <v>12277</v>
+        <v>73893</v>
       </c>
       <c r="AU65" s="11">
-        <v>73893</v>
+        <v>17862</v>
       </c>
       <c r="AV65" s="11">
-        <v>17862</v>
+        <v>398</v>
       </c>
       <c r="AW65" s="11">
-        <v>398</v>
+        <v>8585</v>
       </c>
       <c r="AX65" s="11">
-        <v>8585</v>
+        <v>5145</v>
       </c>
       <c r="AY65" s="11">
-        <v>5145</v>
+        <v>12114</v>
       </c>
       <c r="AZ65" s="11">
-        <v>12114</v>
+        <v>7796</v>
       </c>
       <c r="BA65" s="11">
-        <v>7796</v>
+        <v>21391</v>
       </c>
       <c r="BB65" s="11">
-        <v>21391</v>
+        <v>14591</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8637,17 +8637,17 @@
       <c r="AT66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU66" s="13" t="s">
-        <v>58</v>
+      <c r="AU66" s="13">
+        <v>0</v>
       </c>
       <c r="AV66" s="13">
         <v>0</v>
       </c>
       <c r="AW66" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AX66" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="13">
         <v>0</v>
@@ -8656,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="BB66" s="13">
-        <v>184</v>
+        <v>14775</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8732,91 +8732,91 @@
         <v>0</v>
       </c>
       <c r="Z67" s="15">
-        <v>0</v>
+        <v>86041</v>
       </c>
       <c r="AA67" s="15">
-        <v>86041</v>
+        <v>128158</v>
       </c>
       <c r="AB67" s="15">
-        <v>128158</v>
+        <v>181063</v>
       </c>
       <c r="AC67" s="15">
-        <v>181063</v>
+        <v>77130</v>
       </c>
       <c r="AD67" s="15">
-        <v>77130</v>
+        <v>169321</v>
       </c>
       <c r="AE67" s="15">
-        <v>169321</v>
+        <v>154793</v>
       </c>
       <c r="AF67" s="15">
-        <v>154793</v>
+        <v>151122</v>
       </c>
       <c r="AG67" s="15">
-        <v>151122</v>
+        <v>146590</v>
       </c>
       <c r="AH67" s="15">
-        <v>146590</v>
+        <v>176071</v>
       </c>
       <c r="AI67" s="15">
-        <v>176071</v>
+        <v>105454</v>
       </c>
       <c r="AJ67" s="15">
-        <v>105454</v>
+        <v>177647</v>
       </c>
       <c r="AK67" s="15">
-        <v>177647</v>
+        <v>159955</v>
       </c>
       <c r="AL67" s="15">
-        <v>159955</v>
+        <v>264828</v>
       </c>
       <c r="AM67" s="15">
-        <v>264828</v>
+        <v>122269</v>
       </c>
       <c r="AN67" s="15">
-        <v>122269</v>
+        <v>220027</v>
       </c>
       <c r="AO67" s="15">
-        <v>220027</v>
+        <v>194566</v>
       </c>
       <c r="AP67" s="15">
-        <v>194566</v>
+        <v>127570</v>
       </c>
       <c r="AQ67" s="15">
-        <v>127570</v>
+        <v>122795</v>
       </c>
       <c r="AR67" s="15">
-        <v>122795</v>
+        <v>43310</v>
       </c>
       <c r="AS67" s="15">
-        <v>43310</v>
+        <v>77567</v>
       </c>
       <c r="AT67" s="15">
-        <v>77567</v>
+        <v>351168</v>
       </c>
       <c r="AU67" s="15">
-        <v>351168</v>
+        <v>232929</v>
       </c>
       <c r="AV67" s="15">
-        <v>232929</v>
+        <v>3238</v>
       </c>
       <c r="AW67" s="15">
-        <v>3238</v>
+        <v>296029</v>
       </c>
       <c r="AX67" s="15">
-        <v>296029</v>
+        <v>146794</v>
       </c>
       <c r="AY67" s="15">
-        <v>146794</v>
+        <v>369546</v>
       </c>
       <c r="AZ67" s="15">
-        <v>369546</v>
+        <v>329738</v>
       </c>
       <c r="BA67" s="15">
-        <v>329738</v>
+        <v>352363</v>
       </c>
       <c r="BB67" s="15">
-        <v>352363</v>
+        <v>271771</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8947,8 +8947,8 @@
       <c r="Y69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="15" t="s">
-        <v>58</v>
+      <c r="Z69" s="15">
+        <v>0</v>
       </c>
       <c r="AA69" s="15">
         <v>0</v>
@@ -9169,11 +9169,11 @@
       <c r="AA71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB71" s="11" t="s">
-        <v>58</v>
+      <c r="AB71" s="11">
+        <v>-537</v>
       </c>
       <c r="AC71" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="11">
         <v>0</v>
@@ -9182,28 +9182,28 @@
         <v>0</v>
       </c>
       <c r="AF71" s="11">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AG71" s="11">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AH71" s="11">
-        <v>-32</v>
-      </c>
-      <c r="AI71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ71" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AI71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ71" s="11">
+        <v>-534</v>
       </c>
       <c r="AK71" s="11">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="11">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="AM71" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AN71" s="11">
         <v>0</v>
@@ -9221,31 +9221,31 @@
         <v>0</v>
       </c>
       <c r="AS71" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AT71" s="11">
-        <v>-11</v>
-      </c>
-      <c r="AU71" s="11">
         <v>-18919</v>
       </c>
-      <c r="AV71" s="11" t="s">
-        <v>58</v>
+      <c r="AU71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV71" s="11">
+        <v>0</v>
       </c>
       <c r="AW71" s="11">
         <v>0</v>
       </c>
       <c r="AX71" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AY71" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
-        <v>0</v>
+        <v>-232282</v>
       </c>
       <c r="BA71" s="11">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="BB71" s="11">
         <v>0</v>
@@ -9358,11 +9358,11 @@
       <c r="AK72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL72" s="13" t="s">
-        <v>58</v>
+      <c r="AL72" s="13">
+        <v>-9</v>
       </c>
       <c r="AM72" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AN72" s="13">
         <v>0</v>
@@ -9385,8 +9385,8 @@
       <c r="AT72" s="13">
         <v>0</v>
       </c>
-      <c r="AU72" s="13">
-        <v>0</v>
+      <c r="AU72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV72" s="13" t="s">
         <v>58</v>
@@ -9523,11 +9523,11 @@
       <c r="AM73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN73" s="11" t="s">
-        <v>58</v>
+      <c r="AN73" s="11">
+        <v>-228</v>
       </c>
       <c r="AO73" s="11">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AP73" s="11">
         <v>0</v>
@@ -9542,28 +9542,28 @@
         <v>0</v>
       </c>
       <c r="AT73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU73" s="11">
         <v>-8665</v>
       </c>
+      <c r="AU73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX73" s="11" t="s">
-        <v>58</v>
+      <c r="AX73" s="11">
+        <v>-1</v>
       </c>
       <c r="AY73" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="11">
-        <v>0</v>
+        <v>-46804</v>
       </c>
       <c r="BA73" s="11">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="BB73" s="11">
         <v>0</v>
@@ -9712,11 +9712,11 @@
       <c r="AW74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX74" s="13" t="s">
-        <v>58</v>
+      <c r="AX74" s="13">
+        <v>-10250</v>
       </c>
       <c r="AY74" s="13">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AZ74" s="13">
         <v>0</v>
@@ -9799,17 +9799,17 @@
       <c r="Y75" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z75" s="15" t="s">
-        <v>58</v>
+      <c r="Z75" s="15">
+        <v>0</v>
       </c>
       <c r="AA75" s="15">
         <v>0</v>
       </c>
       <c r="AB75" s="15">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="AC75" s="15">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="15">
         <v>0</v>
@@ -9818,34 +9818,34 @@
         <v>0</v>
       </c>
       <c r="AF75" s="15">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AG75" s="15">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AH75" s="15">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="15">
         <v>0</v>
       </c>
       <c r="AJ75" s="15">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AK75" s="15">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AL75" s="15">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AM75" s="15">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="15">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AO75" s="15">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AP75" s="15">
         <v>0</v>
@@ -9857,13 +9857,13 @@
         <v>0</v>
       </c>
       <c r="AS75" s="15">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AT75" s="15">
-        <v>-11</v>
+        <v>-27584</v>
       </c>
       <c r="AU75" s="15">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="15">
         <v>0</v>
@@ -9872,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="AX75" s="15">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AY75" s="15">
-        <v>-10259</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="15">
-        <v>0</v>
+        <v>-279086</v>
       </c>
       <c r="BA75" s="15">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="15">
         <v>0</v>
@@ -10015,17 +10015,17 @@
       <c r="Y77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Z77" s="11">
+        <v>-643</v>
       </c>
       <c r="AA77" s="11">
-        <v>-643</v>
+        <v>-325</v>
       </c>
       <c r="AB77" s="11">
-        <v>-325</v>
+        <v>-3860</v>
       </c>
       <c r="AC77" s="11">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="11">
         <v>0</v>
@@ -10034,67 +10034,67 @@
         <v>0</v>
       </c>
       <c r="AF77" s="11">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AG77" s="11">
-        <v>-455</v>
+        <v>-472</v>
       </c>
       <c r="AH77" s="11">
-        <v>-472</v>
+        <v>-259</v>
       </c>
       <c r="AI77" s="11">
-        <v>-259</v>
+        <v>-6</v>
       </c>
       <c r="AJ77" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AK77" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AL77" s="11">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="AM77" s="11">
-        <v>-58</v>
+        <v>-7683</v>
       </c>
       <c r="AN77" s="11">
-        <v>-7683</v>
+        <v>-8058</v>
       </c>
       <c r="AO77" s="11">
-        <v>-8058</v>
+        <v>-8049</v>
       </c>
       <c r="AP77" s="11">
-        <v>-8049</v>
+        <v>-8065</v>
       </c>
       <c r="AQ77" s="11">
-        <v>-8065</v>
+        <v>-7978</v>
       </c>
       <c r="AR77" s="11">
-        <v>-7978</v>
+        <v>-31864</v>
       </c>
       <c r="AS77" s="11">
-        <v>-31864</v>
+        <v>-22230</v>
       </c>
       <c r="AT77" s="11">
-        <v>-22230</v>
+        <v>-22531</v>
       </c>
       <c r="AU77" s="11">
-        <v>-22531</v>
+        <v>-56</v>
       </c>
       <c r="AV77" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AW77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY77" s="11">
         <v>-56</v>
       </c>
-      <c r="AW77" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AX77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY77" s="11">
-        <v>0</v>
-      </c>
       <c r="AZ77" s="11">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="BA77" s="11">
         <v>0</v>
@@ -10173,91 +10173,91 @@
         <v>0</v>
       </c>
       <c r="Z78" s="19">
-        <v>0</v>
+        <v>616839</v>
       </c>
       <c r="AA78" s="19">
-        <v>616839</v>
+        <v>756933</v>
       </c>
       <c r="AB78" s="19">
-        <v>756933</v>
+        <v>803323</v>
       </c>
       <c r="AC78" s="19">
-        <v>803323</v>
+        <v>551563</v>
       </c>
       <c r="AD78" s="19">
-        <v>551563</v>
+        <v>719688</v>
       </c>
       <c r="AE78" s="19">
-        <v>719688</v>
+        <v>554906</v>
       </c>
       <c r="AF78" s="19">
-        <v>554906</v>
+        <v>664563</v>
       </c>
       <c r="AG78" s="19">
-        <v>664563</v>
+        <v>644635</v>
       </c>
       <c r="AH78" s="19">
-        <v>644635</v>
+        <v>677014</v>
       </c>
       <c r="AI78" s="19">
-        <v>677014</v>
+        <v>659387</v>
       </c>
       <c r="AJ78" s="19">
-        <v>659387</v>
+        <v>880556</v>
       </c>
       <c r="AK78" s="19">
-        <v>880556</v>
+        <v>1129525</v>
       </c>
       <c r="AL78" s="19">
-        <v>1129525</v>
+        <v>1037648</v>
       </c>
       <c r="AM78" s="19">
-        <v>1037648</v>
+        <v>892055</v>
       </c>
       <c r="AN78" s="19">
-        <v>892055</v>
+        <v>1040397</v>
       </c>
       <c r="AO78" s="19">
-        <v>1040397</v>
+        <v>898048</v>
       </c>
       <c r="AP78" s="19">
-        <v>898048</v>
+        <v>856540</v>
       </c>
       <c r="AQ78" s="19">
-        <v>856540</v>
+        <v>861729</v>
       </c>
       <c r="AR78" s="19">
-        <v>861729</v>
+        <v>738756</v>
       </c>
       <c r="AS78" s="19">
-        <v>738756</v>
+        <v>788651</v>
       </c>
       <c r="AT78" s="19">
-        <v>788651</v>
+        <v>749264</v>
       </c>
       <c r="AU78" s="19">
-        <v>749264</v>
+        <v>964796</v>
       </c>
       <c r="AV78" s="19">
-        <v>964796</v>
+        <v>1204929</v>
       </c>
       <c r="AW78" s="19">
-        <v>1204929</v>
+        <v>1741678</v>
       </c>
       <c r="AX78" s="19">
-        <v>1741678</v>
+        <v>1432780</v>
       </c>
       <c r="AY78" s="19">
-        <v>1432780</v>
+        <v>1533261</v>
       </c>
       <c r="AZ78" s="19">
-        <v>1533261</v>
+        <v>1268585</v>
       </c>
       <c r="BA78" s="19">
-        <v>1268585</v>
+        <v>1543529</v>
       </c>
       <c r="BB78" s="19">
-        <v>1543529</v>
+        <v>1177758</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10765,92 +10765,92 @@
       <c r="Y85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z85" s="11" t="s">
-        <v>58</v>
+      <c r="Z85" s="11">
+        <v>385808</v>
       </c>
       <c r="AA85" s="11">
-        <v>385808</v>
+        <v>447949</v>
       </c>
       <c r="AB85" s="11">
-        <v>447949</v>
+        <v>445987</v>
       </c>
       <c r="AC85" s="11">
-        <v>445987</v>
+        <v>494758</v>
       </c>
       <c r="AD85" s="11">
-        <v>494758</v>
+        <v>519396</v>
       </c>
       <c r="AE85" s="11">
-        <v>519396</v>
+        <v>502681</v>
       </c>
       <c r="AF85" s="11">
-        <v>502681</v>
+        <v>525888</v>
       </c>
       <c r="AG85" s="11">
-        <v>525888</v>
+        <v>516967</v>
       </c>
       <c r="AH85" s="11">
-        <v>516967</v>
+        <v>530714</v>
       </c>
       <c r="AI85" s="11">
-        <v>530714</v>
+        <v>564667</v>
       </c>
       <c r="AJ85" s="11">
-        <v>564667</v>
+        <v>566145</v>
       </c>
       <c r="AK85" s="11">
-        <v>566145</v>
+        <v>583020</v>
       </c>
       <c r="AL85" s="11">
-        <v>583020</v>
+        <v>634370</v>
       </c>
       <c r="AM85" s="11">
-        <v>634370</v>
+        <v>633772</v>
       </c>
       <c r="AN85" s="11">
-        <v>633772</v>
+        <v>682560</v>
       </c>
       <c r="AO85" s="11">
-        <v>682560</v>
+        <v>677379</v>
       </c>
       <c r="AP85" s="11">
-        <v>677379</v>
+        <v>696729</v>
       </c>
       <c r="AQ85" s="11">
-        <v>696729</v>
+        <v>761622</v>
       </c>
       <c r="AR85" s="11">
-        <v>761622</v>
+        <v>776397</v>
       </c>
       <c r="AS85" s="11">
-        <v>776397</v>
+        <v>758090</v>
       </c>
       <c r="AT85" s="11">
-        <v>758090</v>
+        <v>774547</v>
       </c>
       <c r="AU85" s="11">
-        <v>774547</v>
+        <v>783852</v>
       </c>
       <c r="AV85" s="11">
-        <v>783852</v>
+        <v>907597</v>
       </c>
       <c r="AW85" s="11">
-        <v>907597</v>
+        <v>919664</v>
       </c>
       <c r="AX85" s="11">
-        <v>919664</v>
+        <v>929560</v>
       </c>
       <c r="AY85" s="11">
-        <v>929560</v>
+        <v>970938</v>
       </c>
       <c r="AZ85" s="11">
-        <v>970938</v>
+        <v>1015092</v>
       </c>
       <c r="BA85" s="11">
-        <v>1015092</v>
+        <v>938856</v>
       </c>
       <c r="BB85" s="11">
-        <v>938856</v>
+        <v>1070761</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10924,36 +10924,36 @@
       <c r="Y86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
+      <c r="Z86" s="13">
+        <v>270763</v>
       </c>
       <c r="AA86" s="13">
-        <v>270763</v>
+        <v>288491</v>
       </c>
       <c r="AB86" s="13">
-        <v>288491</v>
+        <v>287113</v>
       </c>
       <c r="AC86" s="13">
-        <v>287113</v>
+        <v>319836</v>
       </c>
       <c r="AD86" s="13">
-        <v>319836</v>
+        <v>327204</v>
       </c>
       <c r="AE86" s="13">
-        <v>327204</v>
+        <v>327118</v>
       </c>
       <c r="AF86" s="13">
-        <v>327118</v>
+        <v>319032</v>
       </c>
       <c r="AG86" s="13">
-        <v>319032</v>
+        <v>310413</v>
       </c>
       <c r="AH86" s="13">
-        <v>310413</v>
-      </c>
-      <c r="AI86" s="13">
         <v>352299</v>
       </c>
+      <c r="AI86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ86" s="13" t="s">
         <v>58</v>
       </c>
@@ -10981,35 +10981,35 @@
       <c r="AR86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT86" s="13" t="s">
-        <v>58</v>
+      <c r="AS86" s="13">
+        <v>561452</v>
+      </c>
+      <c r="AT86" s="13">
+        <v>548041</v>
       </c>
       <c r="AU86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV86" s="13">
-        <v>555978</v>
-      </c>
-      <c r="AW86" s="13">
-        <v>623572</v>
-      </c>
-      <c r="AX86" s="13">
-        <v>623245</v>
-      </c>
-      <c r="AY86" s="13">
-        <v>624406</v>
-      </c>
-      <c r="AZ86" s="13">
-        <v>641046</v>
-      </c>
-      <c r="BA86" s="13">
-        <v>647000</v>
-      </c>
-      <c r="BB86" s="13">
-        <v>707524</v>
+      <c r="AV86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB86" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11083,92 +11083,92 @@
       <c r="Y87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z87" s="11" t="s">
-        <v>58</v>
+      <c r="Z87" s="11">
+        <v>582728</v>
       </c>
       <c r="AA87" s="11">
-        <v>582728</v>
+        <v>642940</v>
       </c>
       <c r="AB87" s="11">
-        <v>642940</v>
+        <v>612938</v>
       </c>
       <c r="AC87" s="11">
-        <v>612938</v>
+        <v>676677</v>
       </c>
       <c r="AD87" s="11">
-        <v>676677</v>
+        <v>706601</v>
       </c>
       <c r="AE87" s="11">
-        <v>706601</v>
+        <v>675555</v>
       </c>
       <c r="AF87" s="11">
-        <v>675555</v>
+        <v>727136</v>
       </c>
       <c r="AG87" s="11">
-        <v>727136</v>
+        <v>752956</v>
       </c>
       <c r="AH87" s="11">
-        <v>752956</v>
+        <v>728967</v>
       </c>
       <c r="AI87" s="11">
-        <v>728967</v>
+        <v>774880</v>
       </c>
       <c r="AJ87" s="11">
-        <v>774880</v>
+        <v>778188</v>
       </c>
       <c r="AK87" s="11">
-        <v>778188</v>
+        <v>787972</v>
       </c>
       <c r="AL87" s="11">
-        <v>787972</v>
+        <v>905385</v>
       </c>
       <c r="AM87" s="11">
-        <v>905385</v>
+        <v>876607</v>
       </c>
       <c r="AN87" s="11">
-        <v>876607</v>
+        <v>877865</v>
       </c>
       <c r="AO87" s="11">
-        <v>877865</v>
+        <v>856361</v>
       </c>
       <c r="AP87" s="11">
-        <v>856361</v>
+        <v>882654</v>
       </c>
       <c r="AQ87" s="11">
-        <v>882654</v>
+        <v>867423</v>
       </c>
       <c r="AR87" s="11">
-        <v>867423</v>
+        <v>887757</v>
       </c>
       <c r="AS87" s="11">
-        <v>887757</v>
+        <v>1001129</v>
       </c>
       <c r="AT87" s="11">
-        <v>1001129</v>
+        <v>1027587</v>
       </c>
       <c r="AU87" s="11">
-        <v>1027587</v>
+        <v>927383</v>
       </c>
       <c r="AV87" s="11">
-        <v>927383</v>
+        <v>930104</v>
       </c>
       <c r="AW87" s="11">
-        <v>930104</v>
+        <v>925953</v>
       </c>
       <c r="AX87" s="11">
-        <v>925953</v>
+        <v>959199</v>
       </c>
       <c r="AY87" s="11">
-        <v>959199</v>
+        <v>908447</v>
       </c>
       <c r="AZ87" s="11">
-        <v>908447</v>
+        <v>886634</v>
       </c>
       <c r="BA87" s="11">
-        <v>886634</v>
+        <v>958730</v>
       </c>
       <c r="BB87" s="11">
-        <v>958730</v>
+        <v>1090541</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11269,65 +11269,65 @@
       <c r="AH88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI88" s="13" t="s">
-        <v>58</v>
+      <c r="AI88" s="13">
+        <v>385440</v>
       </c>
       <c r="AJ88" s="13">
-        <v>385440</v>
+        <v>484419</v>
       </c>
       <c r="AK88" s="13">
-        <v>484419</v>
+        <v>483082</v>
       </c>
       <c r="AL88" s="13">
-        <v>483082</v>
+        <v>496419</v>
       </c>
       <c r="AM88" s="13">
-        <v>496419</v>
+        <v>517813</v>
       </c>
       <c r="AN88" s="13">
-        <v>517813</v>
+        <v>540050</v>
       </c>
       <c r="AO88" s="13">
-        <v>540050</v>
+        <v>567466</v>
       </c>
       <c r="AP88" s="13">
-        <v>567466</v>
+        <v>557958</v>
       </c>
       <c r="AQ88" s="13">
-        <v>557958</v>
+        <v>544093</v>
       </c>
       <c r="AR88" s="13">
-        <v>544093</v>
-      </c>
-      <c r="AS88" s="13">
         <v>567478</v>
       </c>
-      <c r="AT88" s="13">
-        <v>561452</v>
+      <c r="AS88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU88" s="13">
-        <v>548041</v>
-      </c>
-      <c r="AV88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB88" s="13" t="s">
-        <v>58</v>
+        <v>555978</v>
+      </c>
+      <c r="AV88" s="13">
+        <v>623572</v>
+      </c>
+      <c r="AW88" s="13">
+        <v>623245</v>
+      </c>
+      <c r="AX88" s="13">
+        <v>624406</v>
+      </c>
+      <c r="AY88" s="13">
+        <v>641046</v>
+      </c>
+      <c r="AZ88" s="13">
+        <v>647000</v>
+      </c>
+      <c r="BA88" s="13">
+        <v>707524</v>
+      </c>
+      <c r="BB88" s="13">
+        <v>729522</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11458,92 +11458,92 @@
       <c r="Y90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z90" s="11" t="s">
-        <v>58</v>
+      <c r="Z90" s="11">
+        <v>337016</v>
       </c>
       <c r="AA90" s="11">
-        <v>337016</v>
+        <v>382696</v>
       </c>
       <c r="AB90" s="11">
-        <v>382696</v>
+        <v>419216</v>
       </c>
       <c r="AC90" s="11">
-        <v>419216</v>
+        <v>449159</v>
       </c>
       <c r="AD90" s="11">
-        <v>449159</v>
+        <v>444361</v>
       </c>
       <c r="AE90" s="11">
-        <v>444361</v>
+        <v>444058</v>
       </c>
       <c r="AF90" s="11">
-        <v>444058</v>
+        <v>451389</v>
       </c>
       <c r="AG90" s="11">
-        <v>451389</v>
+        <v>410647</v>
       </c>
       <c r="AH90" s="11">
-        <v>410647</v>
+        <v>428310</v>
       </c>
       <c r="AI90" s="11">
-        <v>428310</v>
+        <v>405422</v>
       </c>
       <c r="AJ90" s="11">
-        <v>405422</v>
+        <v>386897</v>
       </c>
       <c r="AK90" s="11">
-        <v>386897</v>
+        <v>403212</v>
       </c>
       <c r="AL90" s="11">
-        <v>403212</v>
+        <v>468798</v>
       </c>
       <c r="AM90" s="11">
-        <v>468798</v>
+        <v>505236</v>
       </c>
       <c r="AN90" s="11">
-        <v>505236</v>
+        <v>509517</v>
       </c>
       <c r="AO90" s="11">
-        <v>509517</v>
+        <v>515430</v>
       </c>
       <c r="AP90" s="11">
-        <v>515430</v>
+        <v>592108</v>
       </c>
       <c r="AQ90" s="11">
-        <v>592108</v>
+        <v>594578</v>
       </c>
       <c r="AR90" s="11">
-        <v>594578</v>
+        <v>565587</v>
       </c>
       <c r="AS90" s="11">
-        <v>565587</v>
+        <v>540176</v>
       </c>
       <c r="AT90" s="11">
-        <v>540176</v>
+        <v>521619</v>
       </c>
       <c r="AU90" s="11">
-        <v>521619</v>
+        <v>555307</v>
       </c>
       <c r="AV90" s="11">
-        <v>555307</v>
+        <v>648106</v>
       </c>
       <c r="AW90" s="11">
-        <v>648106</v>
+        <v>693360</v>
       </c>
       <c r="AX90" s="11">
-        <v>693360</v>
+        <v>745792</v>
       </c>
       <c r="AY90" s="11">
-        <v>745792</v>
+        <v>743580</v>
       </c>
       <c r="AZ90" s="11">
-        <v>743580</v>
+        <v>735125</v>
       </c>
       <c r="BA90" s="11">
-        <v>735125</v>
+        <v>764520</v>
       </c>
       <c r="BB90" s="11">
-        <v>764520</v>
+        <v>815020</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11641,11 +11641,11 @@
       <c r="AG91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI91" s="13">
+      <c r="AH91" s="13">
         <v>302539</v>
+      </c>
+      <c r="AI91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ91" s="13" t="s">
         <v>58</v>
@@ -11776,92 +11776,92 @@
       <c r="Y92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z92" s="11" t="s">
-        <v>58</v>
+      <c r="Z92" s="11">
+        <v>283791</v>
       </c>
       <c r="AA92" s="11">
-        <v>283791</v>
+        <v>352477</v>
       </c>
       <c r="AB92" s="11">
-        <v>352477</v>
+        <v>393482</v>
       </c>
       <c r="AC92" s="11">
-        <v>393482</v>
+        <v>604532</v>
       </c>
       <c r="AD92" s="11">
-        <v>604532</v>
+        <v>453618</v>
       </c>
       <c r="AE92" s="11">
-        <v>453618</v>
+        <v>423312</v>
       </c>
       <c r="AF92" s="11">
-        <v>423312</v>
+        <v>493038</v>
       </c>
       <c r="AG92" s="11">
-        <v>493038</v>
+        <v>428622</v>
       </c>
       <c r="AH92" s="11">
-        <v>428622</v>
+        <v>451633</v>
       </c>
       <c r="AI92" s="11">
-        <v>451633</v>
+        <v>427405</v>
       </c>
       <c r="AJ92" s="11">
-        <v>427405</v>
+        <v>385385</v>
       </c>
       <c r="AK92" s="11">
-        <v>385385</v>
+        <v>357144</v>
       </c>
       <c r="AL92" s="11">
-        <v>357144</v>
+        <v>569305</v>
       </c>
       <c r="AM92" s="11">
-        <v>569305</v>
+        <v>530621</v>
       </c>
       <c r="AN92" s="11">
-        <v>530621</v>
+        <v>517651</v>
       </c>
       <c r="AO92" s="11">
-        <v>517651</v>
+        <v>495416</v>
       </c>
       <c r="AP92" s="11">
-        <v>495416</v>
+        <v>629763</v>
       </c>
       <c r="AQ92" s="11">
-        <v>629763</v>
+        <v>561728</v>
       </c>
       <c r="AR92" s="11">
-        <v>561728</v>
+        <v>646504</v>
       </c>
       <c r="AS92" s="11">
-        <v>646504</v>
+        <v>590581</v>
       </c>
       <c r="AT92" s="11">
-        <v>590581</v>
+        <v>517237</v>
       </c>
       <c r="AU92" s="11">
-        <v>517237</v>
+        <v>575729</v>
       </c>
       <c r="AV92" s="11">
-        <v>575729</v>
+        <v>739777</v>
       </c>
       <c r="AW92" s="11">
-        <v>739777</v>
+        <v>778332</v>
       </c>
       <c r="AX92" s="11">
-        <v>778332</v>
+        <v>813696</v>
       </c>
       <c r="AY92" s="11">
-        <v>813696</v>
+        <v>842948</v>
       </c>
       <c r="AZ92" s="11">
-        <v>842948</v>
+        <v>834868</v>
       </c>
       <c r="BA92" s="11">
-        <v>834868</v>
+        <v>901243</v>
       </c>
       <c r="BB92" s="11">
-        <v>901243</v>
+        <v>1027391</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12004,23 +12004,23 @@
       <c r="AV93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX93" s="13">
+      <c r="AW93" s="13">
         <v>500000</v>
       </c>
+      <c r="AX93" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AY93" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AZ93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA93" s="13" t="s">
-        <v>58</v>
+      <c r="BA93" s="13">
+        <v>924623</v>
       </c>
       <c r="BB93" s="13">
-        <v>924623</v>
+        <v>580778</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pasa/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pasa/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF9D31-1050-4BB5-9C33-5AB809FD1938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C8606-84F1-4B50-B1EB-D233F6380486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پاسا-ایران‌یاساتایرورابر</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1498,95 +1498,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>1325483</v>
       </c>
       <c r="Z11" s="11">
-        <v>1325483</v>
+        <v>1156344</v>
       </c>
       <c r="AA11" s="11">
-        <v>1156344</v>
+        <v>197112</v>
       </c>
       <c r="AB11" s="11">
-        <v>197112</v>
+        <v>774553</v>
       </c>
       <c r="AC11" s="11">
-        <v>774553</v>
+        <v>1175860</v>
       </c>
       <c r="AD11" s="11">
-        <v>1175860</v>
+        <v>1276508</v>
       </c>
       <c r="AE11" s="11">
-        <v>1276508</v>
+        <v>1260775</v>
       </c>
       <c r="AF11" s="11">
-        <v>1260775</v>
+        <v>1087802</v>
       </c>
       <c r="AG11" s="11">
-        <v>1087802</v>
+        <v>651932</v>
       </c>
       <c r="AH11" s="11">
-        <v>651932</v>
+        <v>537758</v>
       </c>
       <c r="AI11" s="11">
-        <v>537758</v>
+        <v>1057005</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1057005</v>
+        <v>1240544</v>
       </c>
       <c r="AK11" s="11">
-        <v>1240544</v>
+        <v>1357633</v>
       </c>
       <c r="AL11" s="11">
-        <v>1357633</v>
+        <v>866889</v>
       </c>
       <c r="AM11" s="11">
-        <v>866889</v>
+        <v>1414212</v>
       </c>
       <c r="AN11" s="11">
-        <v>1414212</v>
+        <v>1277905</v>
       </c>
       <c r="AO11" s="11">
-        <v>1277905</v>
+        <v>1379084</v>
       </c>
       <c r="AP11" s="11">
-        <v>1379084</v>
+        <v>1362327</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1362327</v>
+        <v>1255588</v>
       </c>
       <c r="AR11" s="11">
-        <v>1255588</v>
+        <v>1326245</v>
       </c>
       <c r="AS11" s="11">
-        <v>1326245</v>
+        <v>813561</v>
       </c>
       <c r="AT11" s="11">
-        <v>813561</v>
+        <v>666056</v>
       </c>
       <c r="AU11" s="11">
-        <v>666056</v>
+        <v>1284935</v>
       </c>
       <c r="AV11" s="11">
-        <v>1284935</v>
+        <v>1414467</v>
       </c>
       <c r="AW11" s="11">
-        <v>1414467</v>
+        <v>1262842</v>
       </c>
       <c r="AX11" s="11">
-        <v>1262842</v>
+        <v>1215231</v>
       </c>
       <c r="AY11" s="11">
-        <v>1215231</v>
+        <v>1130358</v>
       </c>
       <c r="AZ11" s="11">
-        <v>1130358</v>
+        <v>949821</v>
       </c>
       <c r="BA11" s="11">
-        <v>949821</v>
+        <v>1462906</v>
       </c>
       <c r="BB11" s="11">
-        <v>1462906</v>
+        <v>1579004</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1657,36 +1657,36 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>124515</v>
       </c>
       <c r="Z12" s="13">
-        <v>124515</v>
+        <v>110120</v>
       </c>
       <c r="AA12" s="13">
-        <v>110120</v>
+        <v>103430</v>
       </c>
       <c r="AB12" s="13">
-        <v>103430</v>
+        <v>66209</v>
       </c>
       <c r="AC12" s="13">
-        <v>66209</v>
+        <v>71944</v>
       </c>
       <c r="AD12" s="13">
-        <v>71944</v>
+        <v>112511</v>
       </c>
       <c r="AE12" s="13">
-        <v>112511</v>
+        <v>105943</v>
       </c>
       <c r="AF12" s="13">
-        <v>105943</v>
+        <v>94317</v>
       </c>
       <c r="AG12" s="13">
-        <v>94317</v>
-      </c>
-      <c r="AH12" s="13">
         <v>70052</v>
       </c>
+      <c r="AH12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1714,14 +1714,14 @@
       <c r="AQ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
+      <c r="AR12" s="13">
+        <v>89606</v>
       </c>
       <c r="AS12" s="13">
-        <v>89606</v>
-      </c>
-      <c r="AT12" s="13">
         <v>64456</v>
+      </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU12" s="13" t="s">
         <v>58</v>
@@ -1816,95 +1816,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>332468</v>
       </c>
       <c r="Z13" s="11">
-        <v>332468</v>
+        <v>314218</v>
       </c>
       <c r="AA13" s="11">
-        <v>314218</v>
+        <v>1285139</v>
       </c>
       <c r="AB13" s="11">
-        <v>1285139</v>
+        <v>218610</v>
       </c>
       <c r="AC13" s="11">
-        <v>218610</v>
+        <v>315710</v>
       </c>
       <c r="AD13" s="11">
-        <v>315710</v>
+        <v>310027</v>
       </c>
       <c r="AE13" s="11">
-        <v>310027</v>
+        <v>310581</v>
       </c>
       <c r="AF13" s="11">
-        <v>310581</v>
+        <v>234342</v>
       </c>
       <c r="AG13" s="11">
-        <v>234342</v>
+        <v>131430</v>
       </c>
       <c r="AH13" s="11">
-        <v>131430</v>
+        <v>111657</v>
       </c>
       <c r="AI13" s="11">
-        <v>111657</v>
+        <v>181932</v>
       </c>
       <c r="AJ13" s="11">
-        <v>181932</v>
+        <v>156101</v>
       </c>
       <c r="AK13" s="11">
-        <v>156101</v>
+        <v>170724</v>
       </c>
       <c r="AL13" s="11">
-        <v>170724</v>
+        <v>110235</v>
       </c>
       <c r="AM13" s="11">
-        <v>110235</v>
+        <v>286846</v>
       </c>
       <c r="AN13" s="11">
-        <v>286846</v>
+        <v>240282</v>
       </c>
       <c r="AO13" s="11">
-        <v>240282</v>
+        <v>254640</v>
       </c>
       <c r="AP13" s="11">
-        <v>254640</v>
+        <v>272919</v>
       </c>
       <c r="AQ13" s="11">
-        <v>272919</v>
+        <v>223708</v>
       </c>
       <c r="AR13" s="11">
-        <v>223708</v>
+        <v>226709</v>
       </c>
       <c r="AS13" s="11">
-        <v>226709</v>
+        <v>194299</v>
       </c>
       <c r="AT13" s="11">
-        <v>194299</v>
+        <v>100164</v>
       </c>
       <c r="AU13" s="11">
-        <v>100164</v>
+        <v>183692</v>
       </c>
       <c r="AV13" s="11">
-        <v>183692</v>
+        <v>196344</v>
       </c>
       <c r="AW13" s="11">
-        <v>196344</v>
+        <v>165035</v>
       </c>
       <c r="AX13" s="11">
-        <v>165035</v>
+        <v>162716</v>
       </c>
       <c r="AY13" s="11">
-        <v>162716</v>
+        <v>206418</v>
       </c>
       <c r="AZ13" s="11">
-        <v>206418</v>
+        <v>116371</v>
       </c>
       <c r="BA13" s="11">
-        <v>116371</v>
+        <v>184422</v>
       </c>
       <c r="BB13" s="11">
-        <v>184422</v>
+        <v>198484</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2002,68 +2002,68 @@
       <c r="AG14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH14" s="13" t="s">
-        <v>58</v>
+      <c r="AH14" s="13">
+        <v>56441</v>
       </c>
       <c r="AI14" s="13">
-        <v>56441</v>
+        <v>122686</v>
       </c>
       <c r="AJ14" s="13">
-        <v>122686</v>
+        <v>216298</v>
       </c>
       <c r="AK14" s="13">
-        <v>216298</v>
+        <v>192322</v>
       </c>
       <c r="AL14" s="13">
-        <v>192322</v>
+        <v>117622</v>
       </c>
       <c r="AM14" s="13">
-        <v>117622</v>
+        <v>24402</v>
       </c>
       <c r="AN14" s="13">
-        <v>24402</v>
+        <v>76558</v>
       </c>
       <c r="AO14" s="13">
-        <v>76558</v>
+        <v>88699</v>
       </c>
       <c r="AP14" s="13">
-        <v>88699</v>
+        <v>105933</v>
       </c>
       <c r="AQ14" s="13">
-        <v>105933</v>
-      </c>
-      <c r="AR14" s="13">
         <v>85939</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>61089</v>
       </c>
       <c r="AU14" s="13">
-        <v>61089</v>
+        <v>142674</v>
       </c>
       <c r="AV14" s="13">
-        <v>142674</v>
+        <v>132872</v>
       </c>
       <c r="AW14" s="13">
-        <v>132872</v>
+        <v>101431</v>
       </c>
       <c r="AX14" s="13">
-        <v>101431</v>
+        <v>114885</v>
       </c>
       <c r="AY14" s="13">
-        <v>114885</v>
+        <v>23535</v>
       </c>
       <c r="AZ14" s="13">
-        <v>23535</v>
+        <v>26527</v>
       </c>
       <c r="BA14" s="13">
-        <v>26527</v>
+        <v>46778</v>
       </c>
       <c r="BB14" s="13">
-        <v>46778</v>
+        <v>77256</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2133,94 +2133,94 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="Z15" s="15">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="AA15" s="15">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="AB15" s="15">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="AC15" s="15">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="AD15" s="15">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AE15" s="15">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AF15" s="15">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AG15" s="15">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AH15" s="15">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AI15" s="15">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AJ15" s="15">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AK15" s="15">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AL15" s="15">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AM15" s="15">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AN15" s="15">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AO15" s="15">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AP15" s="15">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AR15" s="15">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AS15" s="15">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AT15" s="15">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AU15" s="15">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AV15" s="15">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AW15" s="15">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AX15" s="15">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AY15" s="15">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="BA15" s="15">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
       <c r="BB15" s="15">
-        <v>1694106</v>
+        <v>1854744</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2348,8 +2348,8 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2378,8 +2378,8 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2405,8 +2405,8 @@
       <c r="AQ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
+      <c r="AR17" s="11">
+        <v>0</v>
       </c>
       <c r="AS17" s="11">
         <v>0</v>
@@ -2507,14 +2507,14 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
         <v>0</v>
       </c>
-      <c r="AA18" s="13">
-        <v>0</v>
+      <c r="AA18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB18" s="13" t="s">
         <v>58</v>
@@ -2531,14 +2531,14 @@
       <c r="AF18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG18" s="13" t="s">
-        <v>58</v>
+      <c r="AG18" s="13">
+        <v>0</v>
       </c>
       <c r="AH18" s="13">
         <v>0</v>
       </c>
-      <c r="AI18" s="13">
-        <v>0</v>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>58</v>
@@ -2564,14 +2564,14 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2666,8 +2666,8 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2696,8 +2696,8 @@
       <c r="AH19" s="11">
         <v>0</v>
       </c>
-      <c r="AI19" s="11">
-        <v>0</v>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>58</v>
@@ -2723,8 +2723,8 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
         <v>0</v>
@@ -2888,8 +2888,8 @@
       <c r="AS20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
+      <c r="AT20" s="13">
+        <v>0</v>
       </c>
       <c r="AU20" s="13">
         <v>0</v>
@@ -3196,8 +3196,8 @@
       <c r="X23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>58</v>
+      <c r="Y23" s="15">
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <v>0</v>
@@ -3354,94 +3354,94 @@
         <v>0</v>
       </c>
       <c r="Y24" s="19">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="Z24" s="19">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="AA24" s="19">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="AB24" s="19">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="AC24" s="19">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="AD24" s="19">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AE24" s="19">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AF24" s="19">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AG24" s="19">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AH24" s="19">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AI24" s="19">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AJ24" s="19">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AK24" s="19">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AL24" s="19">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AM24" s="19">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AN24" s="19">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AO24" s="19">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AP24" s="19">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AR24" s="19">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AS24" s="19">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AT24" s="19">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AU24" s="19">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AV24" s="19">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AW24" s="19">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AX24" s="19">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AY24" s="19">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="BA24" s="19">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
       <c r="BB24" s="19">
-        <v>1694106</v>
+        <v>1854744</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3946,95 +3946,95 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>979673</v>
       </c>
       <c r="Z31" s="11">
-        <v>979673</v>
+        <v>1082127</v>
       </c>
       <c r="AA31" s="11">
-        <v>1082127</v>
+        <v>1052547</v>
       </c>
       <c r="AB31" s="11">
-        <v>1052547</v>
+        <v>700348</v>
       </c>
       <c r="AC31" s="11">
-        <v>700348</v>
+        <v>745890</v>
       </c>
       <c r="AD31" s="11">
-        <v>745890</v>
+        <v>563427</v>
       </c>
       <c r="AE31" s="11">
-        <v>563427</v>
+        <v>728491</v>
       </c>
       <c r="AF31" s="11">
-        <v>728491</v>
+        <v>734161</v>
       </c>
       <c r="AG31" s="11">
-        <v>734161</v>
+        <v>684373</v>
       </c>
       <c r="AH31" s="11">
-        <v>684373</v>
+        <v>739019</v>
       </c>
       <c r="AI31" s="11">
-        <v>739019</v>
+        <v>892247</v>
       </c>
       <c r="AJ31" s="11">
-        <v>892247</v>
+        <v>1208897</v>
       </c>
       <c r="AK31" s="11">
-        <v>1208897</v>
+        <v>925018</v>
       </c>
       <c r="AL31" s="11">
-        <v>925018</v>
+        <v>813625</v>
       </c>
       <c r="AM31" s="11">
-        <v>813625</v>
+        <v>820540</v>
       </c>
       <c r="AN31" s="11">
-        <v>820540</v>
+        <v>717793</v>
       </c>
       <c r="AO31" s="11">
-        <v>717793</v>
+        <v>732830</v>
       </c>
       <c r="AP31" s="11">
-        <v>732830</v>
+        <v>687005</v>
       </c>
       <c r="AQ31" s="11">
-        <v>687005</v>
+        <v>676587</v>
       </c>
       <c r="AR31" s="11">
-        <v>676587</v>
+        <v>854049</v>
       </c>
       <c r="AS31" s="11">
-        <v>854049</v>
+        <v>467068</v>
       </c>
       <c r="AT31" s="11">
-        <v>467068</v>
+        <v>675477</v>
       </c>
       <c r="AU31" s="11">
-        <v>675477</v>
+        <v>1060871</v>
       </c>
       <c r="AV31" s="11">
-        <v>1060871</v>
+        <v>1256318</v>
       </c>
       <c r="AW31" s="11">
-        <v>1256318</v>
+        <v>1138722</v>
       </c>
       <c r="AX31" s="11">
-        <v>1138722</v>
+        <v>955654</v>
       </c>
       <c r="AY31" s="11">
-        <v>955654</v>
+        <v>955532</v>
       </c>
       <c r="AZ31" s="11">
-        <v>955532</v>
+        <v>975351</v>
       </c>
       <c r="BA31" s="11">
-        <v>975351</v>
+        <v>627552</v>
       </c>
       <c r="BB31" s="11">
-        <v>627552</v>
+        <v>855508</v>
       </c>
     </row>
     <row r="32" spans="2:54" x14ac:dyDescent="0.3">
@@ -4105,36 +4105,36 @@
       <c r="X32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>58</v>
+      <c r="Y32" s="13">
+        <v>121878</v>
       </c>
       <c r="Z32" s="13">
-        <v>121878</v>
+        <v>85611</v>
       </c>
       <c r="AA32" s="13">
-        <v>85611</v>
+        <v>78826</v>
       </c>
       <c r="AB32" s="13">
-        <v>78826</v>
+        <v>106761</v>
       </c>
       <c r="AC32" s="13">
-        <v>106761</v>
+        <v>85491</v>
       </c>
       <c r="AD32" s="13">
-        <v>85491</v>
+        <v>97876</v>
       </c>
       <c r="AE32" s="13">
-        <v>97876</v>
+        <v>93514</v>
       </c>
       <c r="AF32" s="13">
-        <v>93514</v>
+        <v>84526</v>
       </c>
       <c r="AG32" s="13">
-        <v>84526</v>
-      </c>
-      <c r="AH32" s="13">
         <v>100182</v>
       </c>
+      <c r="AH32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4162,14 +4162,14 @@
       <c r="AQ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>58</v>
+      <c r="AR32" s="13">
+        <v>85067</v>
       </c>
       <c r="AS32" s="13">
-        <v>85067</v>
-      </c>
-      <c r="AT32" s="13">
         <v>86030</v>
+      </c>
+      <c r="AT32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU32" s="13" t="s">
         <v>58</v>
@@ -4264,95 +4264,95 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>206743</v>
       </c>
       <c r="Z33" s="11">
-        <v>206743</v>
+        <v>186120</v>
       </c>
       <c r="AA33" s="11">
-        <v>186120</v>
+        <v>219603</v>
       </c>
       <c r="AB33" s="11">
-        <v>219603</v>
+        <v>138595</v>
       </c>
       <c r="AC33" s="11">
-        <v>138595</v>
+        <v>191030</v>
       </c>
       <c r="AD33" s="11">
-        <v>191030</v>
+        <v>125633</v>
       </c>
       <c r="AE33" s="11">
-        <v>125633</v>
+        <v>138908</v>
       </c>
       <c r="AF33" s="11">
-        <v>138908</v>
+        <v>123213</v>
       </c>
       <c r="AG33" s="11">
-        <v>123213</v>
+        <v>140887</v>
       </c>
       <c r="AH33" s="11">
-        <v>140887</v>
+        <v>142466</v>
       </c>
       <c r="AI33" s="11">
-        <v>142466</v>
+        <v>175338</v>
       </c>
       <c r="AJ33" s="11">
-        <v>175338</v>
+        <v>250014</v>
       </c>
       <c r="AK33" s="11">
-        <v>250014</v>
+        <v>138150</v>
       </c>
       <c r="AL33" s="11">
-        <v>138150</v>
+        <v>230905</v>
       </c>
       <c r="AM33" s="11">
-        <v>230905</v>
+        <v>232825</v>
       </c>
       <c r="AN33" s="11">
-        <v>232825</v>
+        <v>219167</v>
       </c>
       <c r="AO33" s="11">
-        <v>219167</v>
+        <v>192763</v>
       </c>
       <c r="AP33" s="11">
-        <v>192763</v>
+        <v>206733</v>
       </c>
       <c r="AQ33" s="11">
-        <v>206733</v>
+        <v>189384</v>
       </c>
       <c r="AR33" s="11">
-        <v>189384</v>
+        <v>38075</v>
       </c>
       <c r="AS33" s="11">
-        <v>38075</v>
+        <v>38242</v>
       </c>
       <c r="AT33" s="11">
-        <v>38242</v>
+        <v>158407</v>
       </c>
       <c r="AU33" s="11">
-        <v>158407</v>
+        <v>197007</v>
       </c>
       <c r="AV33" s="11">
-        <v>197007</v>
+        <v>225573</v>
       </c>
       <c r="AW33" s="11">
-        <v>225573</v>
+        <v>182592</v>
       </c>
       <c r="AX33" s="11">
-        <v>182592</v>
+        <v>193746</v>
       </c>
       <c r="AY33" s="11">
-        <v>193746</v>
+        <v>204267</v>
       </c>
       <c r="AZ33" s="11">
-        <v>204267</v>
+        <v>275647</v>
       </c>
       <c r="BA33" s="11">
-        <v>275647</v>
+        <v>114191</v>
       </c>
       <c r="BB33" s="11">
-        <v>114191</v>
+        <v>110003</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4450,68 +4450,68 @@
       <c r="AG34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH34" s="13" t="s">
-        <v>58</v>
+      <c r="AH34" s="13">
+        <v>68091</v>
       </c>
       <c r="AI34" s="13">
-        <v>68091</v>
+        <v>127691</v>
       </c>
       <c r="AJ34" s="13">
-        <v>127691</v>
+        <v>140353</v>
       </c>
       <c r="AK34" s="13">
-        <v>140353</v>
+        <v>123855</v>
       </c>
       <c r="AL34" s="13">
-        <v>123855</v>
+        <v>114719</v>
       </c>
       <c r="AM34" s="13">
-        <v>114719</v>
+        <v>118876</v>
       </c>
       <c r="AN34" s="13">
-        <v>118876</v>
+        <v>66307</v>
       </c>
       <c r="AO34" s="13">
-        <v>66307</v>
+        <v>100918</v>
       </c>
       <c r="AP34" s="13">
-        <v>100918</v>
+        <v>81510</v>
       </c>
       <c r="AQ34" s="13">
-        <v>81510</v>
-      </c>
-      <c r="AR34" s="13">
         <v>59708</v>
       </c>
+      <c r="AR34" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="13" t="s">
-        <v>58</v>
+      <c r="AT34" s="13">
+        <v>99905</v>
       </c>
       <c r="AU34" s="13">
-        <v>99905</v>
+        <v>89183</v>
       </c>
       <c r="AV34" s="13">
-        <v>89183</v>
+        <v>130589</v>
       </c>
       <c r="AW34" s="13">
-        <v>130589</v>
+        <v>100244</v>
       </c>
       <c r="AX34" s="13">
-        <v>100244</v>
+        <v>93413</v>
       </c>
       <c r="AY34" s="13">
-        <v>93413</v>
+        <v>103354</v>
       </c>
       <c r="AZ34" s="13">
-        <v>103354</v>
+        <v>15803</v>
       </c>
       <c r="BA34" s="13">
-        <v>15803</v>
+        <v>150097</v>
       </c>
       <c r="BB34" s="13">
-        <v>150097</v>
+        <v>109202</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4581,94 +4581,94 @@
         <v>0</v>
       </c>
       <c r="Y35" s="15">
-        <v>0</v>
+        <v>1308294</v>
       </c>
       <c r="Z35" s="15">
-        <v>1308294</v>
+        <v>1353858</v>
       </c>
       <c r="AA35" s="15">
-        <v>1353858</v>
+        <v>1350976</v>
       </c>
       <c r="AB35" s="15">
-        <v>1350976</v>
+        <v>945704</v>
       </c>
       <c r="AC35" s="15">
-        <v>945704</v>
+        <v>1022411</v>
       </c>
       <c r="AD35" s="15">
-        <v>1022411</v>
+        <v>786936</v>
       </c>
       <c r="AE35" s="15">
-        <v>786936</v>
+        <v>960913</v>
       </c>
       <c r="AF35" s="15">
-        <v>960913</v>
+        <v>941900</v>
       </c>
       <c r="AG35" s="15">
-        <v>941900</v>
+        <v>925442</v>
       </c>
       <c r="AH35" s="15">
-        <v>925442</v>
+        <v>949576</v>
       </c>
       <c r="AI35" s="15">
-        <v>949576</v>
+        <v>1195276</v>
       </c>
       <c r="AJ35" s="15">
-        <v>1195276</v>
+        <v>1599264</v>
       </c>
       <c r="AK35" s="15">
-        <v>1599264</v>
+        <v>1187023</v>
       </c>
       <c r="AL35" s="15">
-        <v>1187023</v>
+        <v>1159249</v>
       </c>
       <c r="AM35" s="15">
-        <v>1159249</v>
+        <v>1172241</v>
       </c>
       <c r="AN35" s="15">
-        <v>1172241</v>
+        <v>1003267</v>
       </c>
       <c r="AO35" s="15">
-        <v>1003267</v>
+        <v>1026511</v>
       </c>
       <c r="AP35" s="15">
-        <v>1026511</v>
+        <v>975248</v>
       </c>
       <c r="AQ35" s="15">
-        <v>975248</v>
+        <v>925679</v>
       </c>
       <c r="AR35" s="15">
-        <v>925679</v>
+        <v>977191</v>
       </c>
       <c r="AS35" s="15">
-        <v>977191</v>
+        <v>591340</v>
       </c>
       <c r="AT35" s="15">
-        <v>591340</v>
+        <v>933789</v>
       </c>
       <c r="AU35" s="15">
-        <v>933789</v>
+        <v>1347061</v>
       </c>
       <c r="AV35" s="15">
-        <v>1347061</v>
+        <v>1612480</v>
       </c>
       <c r="AW35" s="15">
-        <v>1612480</v>
+        <v>1421558</v>
       </c>
       <c r="AX35" s="15">
-        <v>1421558</v>
+        <v>1242813</v>
       </c>
       <c r="AY35" s="15">
-        <v>1242813</v>
+        <v>1263153</v>
       </c>
       <c r="AZ35" s="15">
-        <v>1263153</v>
+        <v>1266801</v>
       </c>
       <c r="BA35" s="15">
-        <v>1266801</v>
+        <v>891840</v>
       </c>
       <c r="BB35" s="15">
-        <v>891840</v>
+        <v>1074713</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4796,95 +4796,95 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>181190</v>
       </c>
       <c r="Z37" s="11">
-        <v>181190</v>
+        <v>285984</v>
       </c>
       <c r="AA37" s="11">
-        <v>285984</v>
+        <v>330009</v>
       </c>
       <c r="AB37" s="11">
-        <v>330009</v>
+        <v>160912</v>
       </c>
       <c r="AC37" s="11">
-        <v>160912</v>
+        <v>301953</v>
       </c>
       <c r="AD37" s="11">
-        <v>301953</v>
+        <v>309723</v>
       </c>
       <c r="AE37" s="11">
-        <v>309723</v>
+        <v>276356</v>
       </c>
       <c r="AF37" s="11">
-        <v>276356</v>
+        <v>263260</v>
       </c>
       <c r="AG37" s="11">
-        <v>263260</v>
+        <v>300280</v>
       </c>
       <c r="AH37" s="11">
-        <v>300280</v>
+        <v>189474</v>
       </c>
       <c r="AI37" s="11">
-        <v>189474</v>
+        <v>305722</v>
       </c>
       <c r="AJ37" s="11">
-        <v>305722</v>
+        <v>338249</v>
       </c>
       <c r="AK37" s="11">
-        <v>338249</v>
+        <v>538853</v>
       </c>
       <c r="AL37" s="11">
-        <v>538853</v>
+        <v>190523</v>
       </c>
       <c r="AM37" s="11">
-        <v>190523</v>
+        <v>339166</v>
       </c>
       <c r="AN37" s="11">
-        <v>339166</v>
+        <v>298118</v>
       </c>
       <c r="AO37" s="11">
-        <v>298118</v>
+        <v>185640</v>
       </c>
       <c r="AP37" s="11">
-        <v>185640</v>
+        <v>176389</v>
       </c>
       <c r="AQ37" s="11">
-        <v>176389</v>
+        <v>73665</v>
       </c>
       <c r="AR37" s="11">
-        <v>73665</v>
+        <v>120868</v>
       </c>
       <c r="AS37" s="11">
-        <v>120868</v>
+        <v>531566</v>
       </c>
       <c r="AT37" s="11">
-        <v>531566</v>
+        <v>387294</v>
       </c>
       <c r="AU37" s="11">
-        <v>387294</v>
+        <v>4382</v>
       </c>
       <c r="AV37" s="11">
-        <v>4382</v>
+        <v>414551</v>
       </c>
       <c r="AW37" s="11">
-        <v>414551</v>
+        <v>189931</v>
       </c>
       <c r="AX37" s="11">
-        <v>189931</v>
+        <v>480691</v>
       </c>
       <c r="AY37" s="11">
-        <v>480691</v>
+        <v>437942</v>
       </c>
       <c r="AZ37" s="11">
-        <v>437942</v>
+        <v>432674</v>
       </c>
       <c r="BA37" s="11">
-        <v>432674</v>
+        <v>297422</v>
       </c>
       <c r="BB37" s="11">
-        <v>297422</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -4955,14 +4955,14 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>0</v>
       </c>
       <c r="Z38" s="13">
         <v>0</v>
       </c>
-      <c r="AA38" s="13">
-        <v>0</v>
+      <c r="AA38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB38" s="13" t="s">
         <v>58</v>
@@ -4979,20 +4979,20 @@
       <c r="AF38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG38" s="13" t="s">
-        <v>58</v>
+      <c r="AG38" s="13">
+        <v>12405</v>
       </c>
       <c r="AH38" s="13">
-        <v>12405</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL38" s="13" t="s">
         <v>58</v>
@@ -5012,14 +5012,14 @@
       <c r="AQ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="13" t="s">
-        <v>58</v>
+      <c r="AR38" s="13">
+        <v>0</v>
       </c>
       <c r="AS38" s="13">
         <v>0</v>
       </c>
-      <c r="AT38" s="13">
-        <v>0</v>
+      <c r="AT38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU38" s="13" t="s">
         <v>58</v>
@@ -5114,95 +5114,95 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>88012</v>
       </c>
       <c r="Z39" s="11">
-        <v>88012</v>
+        <v>53090</v>
       </c>
       <c r="AA39" s="11">
-        <v>53090</v>
+        <v>108564</v>
       </c>
       <c r="AB39" s="11">
-        <v>108564</v>
+        <v>8031</v>
       </c>
       <c r="AC39" s="11">
-        <v>8031</v>
+        <v>77477</v>
       </c>
       <c r="AD39" s="11">
-        <v>77477</v>
+        <v>40769</v>
       </c>
       <c r="AE39" s="11">
-        <v>40769</v>
+        <v>53501</v>
       </c>
       <c r="AF39" s="11">
-        <v>53501</v>
+        <v>89783</v>
       </c>
       <c r="AG39" s="11">
-        <v>89783</v>
+        <v>96771</v>
       </c>
       <c r="AH39" s="11">
-        <v>96771</v>
+        <v>67002</v>
       </c>
       <c r="AI39" s="11">
-        <v>67002</v>
+        <v>154038</v>
       </c>
       <c r="AJ39" s="11">
-        <v>154038</v>
+        <v>65993</v>
       </c>
       <c r="AK39" s="11">
-        <v>65993</v>
+        <v>21456</v>
       </c>
       <c r="AL39" s="11">
-        <v>21456</v>
+        <v>49018</v>
       </c>
       <c r="AM39" s="11">
-        <v>49018</v>
+        <v>91212</v>
       </c>
       <c r="AN39" s="11">
-        <v>91212</v>
+        <v>82571</v>
       </c>
       <c r="AO39" s="11">
-        <v>82571</v>
+        <v>28028</v>
       </c>
       <c r="AP39" s="11">
-        <v>28028</v>
+        <v>31898</v>
       </c>
       <c r="AQ39" s="11">
-        <v>31898</v>
+        <v>2546</v>
       </c>
       <c r="AR39" s="11">
-        <v>2546</v>
+        <v>20788</v>
       </c>
       <c r="AS39" s="11">
-        <v>20788</v>
+        <v>142861</v>
       </c>
       <c r="AT39" s="11">
-        <v>142861</v>
+        <v>31025</v>
       </c>
       <c r="AU39" s="11">
-        <v>31025</v>
+        <v>538</v>
       </c>
       <c r="AV39" s="11">
-        <v>538</v>
+        <v>11030</v>
       </c>
       <c r="AW39" s="11">
-        <v>11030</v>
+        <v>6323</v>
       </c>
       <c r="AX39" s="11">
-        <v>6323</v>
+        <v>14371</v>
       </c>
       <c r="AY39" s="11">
-        <v>14371</v>
+        <v>9338</v>
       </c>
       <c r="AZ39" s="11">
-        <v>9338</v>
+        <v>23735</v>
       </c>
       <c r="BA39" s="11">
-        <v>23735</v>
+        <v>14202</v>
       </c>
       <c r="BB39" s="11">
-        <v>14202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5336,17 +5336,17 @@
       <c r="AS40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT40" s="13" t="s">
-        <v>58</v>
+      <c r="AT40" s="13">
+        <v>0</v>
       </c>
       <c r="AU40" s="13">
         <v>0</v>
       </c>
       <c r="AV40" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AW40" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AX40" s="13">
         <v>0</v>
@@ -5355,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="13">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="BA40" s="13">
-        <v>199</v>
+        <v>25440</v>
       </c>
       <c r="BB40" s="13">
-        <v>25440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5431,94 +5431,94 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>269202</v>
       </c>
       <c r="Z41" s="15">
-        <v>269202</v>
+        <v>339074</v>
       </c>
       <c r="AA41" s="15">
-        <v>339074</v>
+        <v>438573</v>
       </c>
       <c r="AB41" s="15">
-        <v>438573</v>
+        <v>168943</v>
       </c>
       <c r="AC41" s="15">
-        <v>168943</v>
+        <v>379430</v>
       </c>
       <c r="AD41" s="15">
-        <v>379430</v>
+        <v>350492</v>
       </c>
       <c r="AE41" s="15">
-        <v>350492</v>
+        <v>329857</v>
       </c>
       <c r="AF41" s="15">
-        <v>329857</v>
+        <v>353043</v>
       </c>
       <c r="AG41" s="15">
-        <v>353043</v>
+        <v>409456</v>
       </c>
       <c r="AH41" s="15">
-        <v>409456</v>
+        <v>256476</v>
       </c>
       <c r="AI41" s="15">
-        <v>256476</v>
+        <v>459760</v>
       </c>
       <c r="AJ41" s="15">
-        <v>459760</v>
+        <v>404242</v>
       </c>
       <c r="AK41" s="15">
-        <v>404242</v>
+        <v>560309</v>
       </c>
       <c r="AL41" s="15">
-        <v>560309</v>
+        <v>239541</v>
       </c>
       <c r="AM41" s="15">
-        <v>239541</v>
+        <v>430378</v>
       </c>
       <c r="AN41" s="15">
-        <v>430378</v>
+        <v>380689</v>
       </c>
       <c r="AO41" s="15">
-        <v>380689</v>
+        <v>213668</v>
       </c>
       <c r="AP41" s="15">
-        <v>213668</v>
+        <v>208287</v>
       </c>
       <c r="AQ41" s="15">
-        <v>208287</v>
+        <v>76211</v>
       </c>
       <c r="AR41" s="15">
-        <v>76211</v>
+        <v>141656</v>
       </c>
       <c r="AS41" s="15">
-        <v>141656</v>
+        <v>674427</v>
       </c>
       <c r="AT41" s="15">
-        <v>674427</v>
+        <v>418319</v>
       </c>
       <c r="AU41" s="15">
-        <v>418319</v>
+        <v>4920</v>
       </c>
       <c r="AV41" s="15">
-        <v>4920</v>
+        <v>425603</v>
       </c>
       <c r="AW41" s="15">
-        <v>425603</v>
+        <v>196254</v>
       </c>
       <c r="AX41" s="15">
-        <v>196254</v>
+        <v>495062</v>
       </c>
       <c r="AY41" s="15">
-        <v>495062</v>
+        <v>447280</v>
       </c>
       <c r="AZ41" s="15">
-        <v>447280</v>
+        <v>456608</v>
       </c>
       <c r="BA41" s="15">
-        <v>456608</v>
+        <v>337064</v>
       </c>
       <c r="BB41" s="15">
-        <v>337064</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5644,8 +5644,8 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
       </c>
       <c r="Z43" s="15">
         <v>0</v>
@@ -5866,11 +5866,11 @@
       <c r="Z45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA45" s="11" t="s">
-        <v>58</v>
+      <c r="AA45" s="11">
+        <v>-2359</v>
       </c>
       <c r="AB45" s="11">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="11">
         <v>0</v>
@@ -5879,29 +5879,29 @@
         <v>0</v>
       </c>
       <c r="AE45" s="11">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AF45" s="11">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AG45" s="11">
-        <v>-73</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI45" s="11">
         <v>-804</v>
       </c>
-      <c r="AK45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL45" s="11">
+      <c r="AJ45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK45" s="11">
         <v>-673</v>
       </c>
+      <c r="AL45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM45" s="11" t="s">
         <v>58</v>
       </c>
@@ -5917,38 +5917,38 @@
       <c r="AQ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>58</v>
+      <c r="AR45" s="11">
+        <v>-12</v>
       </c>
       <c r="AS45" s="11">
-        <v>-12</v>
-      </c>
-      <c r="AT45" s="11">
         <v>-27520</v>
       </c>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX45" s="11">
+      <c r="AW45" s="11">
         <v>-8</v>
       </c>
-      <c r="AY45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ45" s="11">
+      <c r="AX45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY45" s="11">
         <v>-257927</v>
       </c>
-      <c r="BA45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB45" s="11">
-        <v>0</v>
+      <c r="AZ45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA45" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6055,12 +6055,12 @@
       <c r="AJ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL46" s="13">
+      <c r="AK46" s="13">
         <v>-22</v>
       </c>
+      <c r="AL46" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM46" s="13" t="s">
         <v>58</v>
       </c>
@@ -6076,14 +6076,14 @@
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13">
+        <v>0</v>
       </c>
       <c r="AS46" s="13">
         <v>0</v>
       </c>
-      <c r="AT46" s="13">
-        <v>0</v>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU46" s="13" t="s">
         <v>58</v>
@@ -6220,12 +6220,12 @@
       <c r="AL47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN47" s="11">
+      <c r="AM47" s="11">
         <v>-376</v>
       </c>
+      <c r="AN47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO47" s="11" t="s">
         <v>58</v>
       </c>
@@ -6235,38 +6235,38 @@
       <c r="AQ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR47" s="11" t="s">
-        <v>58</v>
+      <c r="AR47" s="11">
+        <v>0</v>
       </c>
       <c r="AS47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT47" s="11">
         <v>-10000</v>
       </c>
+      <c r="AT47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU47" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX47" s="11">
+      <c r="AW47" s="11">
         <v>-1</v>
       </c>
-      <c r="AY47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ47" s="11">
+      <c r="AX47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY47" s="11">
         <v>-53336</v>
       </c>
-      <c r="BA47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB47" s="11">
-        <v>0</v>
+      <c r="AZ47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA47" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB47" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6409,23 +6409,23 @@
       <c r="AV48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX48" s="13">
+      <c r="AW48" s="13">
         <v>-15547</v>
       </c>
-      <c r="AY48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ48" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB48" s="13">
-        <v>0</v>
+      <c r="AX48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA48" s="13">
+        <v>0</v>
+      </c>
+      <c r="BB48" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6494,17 +6494,17 @@
       <c r="X49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="15" t="s">
-        <v>58</v>
+      <c r="Y49" s="15">
+        <v>0</v>
       </c>
       <c r="Z49" s="15">
         <v>0</v>
       </c>
       <c r="AA49" s="15">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="AB49" s="15">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="15">
         <v>0</v>
@@ -6513,34 +6513,34 @@
         <v>0</v>
       </c>
       <c r="AE49" s="15">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AF49" s="15">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AG49" s="15">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="15">
         <v>0</v>
       </c>
       <c r="AI49" s="15">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AJ49" s="15">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="15">
-        <v>0</v>
+        <v>-695</v>
       </c>
       <c r="AL49" s="15">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="15">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AN49" s="15">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="15">
         <v>0</v>
@@ -6552,13 +6552,13 @@
         <v>0</v>
       </c>
       <c r="AR49" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AS49" s="15">
-        <v>-12</v>
+        <v>-37520</v>
       </c>
       <c r="AT49" s="15">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="15">
         <v>0</v>
@@ -6567,16 +6567,16 @@
         <v>0</v>
       </c>
       <c r="AW49" s="15">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AX49" s="15">
-        <v>-15556</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="15">
-        <v>0</v>
+        <v>-311263</v>
       </c>
       <c r="AZ49" s="15">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="15">
         <v>0</v>
@@ -6652,94 +6652,94 @@
         <v>0</v>
       </c>
       <c r="Y50" s="19">
-        <v>0</v>
+        <v>1577496</v>
       </c>
       <c r="Z50" s="19">
-        <v>1577496</v>
+        <v>1692932</v>
       </c>
       <c r="AA50" s="19">
-        <v>1692932</v>
+        <v>1787190</v>
       </c>
       <c r="AB50" s="19">
-        <v>1787190</v>
+        <v>1114647</v>
       </c>
       <c r="AC50" s="19">
-        <v>1114647</v>
+        <v>1401841</v>
       </c>
       <c r="AD50" s="19">
-        <v>1401841</v>
+        <v>1137428</v>
       </c>
       <c r="AE50" s="19">
-        <v>1137428</v>
+        <v>1290676</v>
       </c>
       <c r="AF50" s="19">
-        <v>1290676</v>
+        <v>1294870</v>
       </c>
       <c r="AG50" s="19">
-        <v>1294870</v>
+        <v>1334898</v>
       </c>
       <c r="AH50" s="19">
-        <v>1334898</v>
+        <v>1206052</v>
       </c>
       <c r="AI50" s="19">
-        <v>1206052</v>
+        <v>1654232</v>
       </c>
       <c r="AJ50" s="19">
-        <v>1654232</v>
+        <v>2003506</v>
       </c>
       <c r="AK50" s="19">
-        <v>2003506</v>
+        <v>1746637</v>
       </c>
       <c r="AL50" s="19">
-        <v>1746637</v>
+        <v>1398790</v>
       </c>
       <c r="AM50" s="19">
-        <v>1398790</v>
+        <v>1602243</v>
       </c>
       <c r="AN50" s="19">
-        <v>1602243</v>
+        <v>1383956</v>
       </c>
       <c r="AO50" s="19">
-        <v>1383956</v>
+        <v>1240179</v>
       </c>
       <c r="AP50" s="19">
-        <v>1240179</v>
+        <v>1183535</v>
       </c>
       <c r="AQ50" s="19">
-        <v>1183535</v>
+        <v>1001890</v>
       </c>
       <c r="AR50" s="19">
-        <v>1001890</v>
+        <v>1118835</v>
       </c>
       <c r="AS50" s="19">
-        <v>1118835</v>
+        <v>1228247</v>
       </c>
       <c r="AT50" s="19">
-        <v>1228247</v>
+        <v>1352108</v>
       </c>
       <c r="AU50" s="19">
-        <v>1352108</v>
+        <v>1351981</v>
       </c>
       <c r="AV50" s="19">
-        <v>1351981</v>
+        <v>2038083</v>
       </c>
       <c r="AW50" s="19">
-        <v>2038083</v>
+        <v>1602256</v>
       </c>
       <c r="AX50" s="19">
-        <v>1602256</v>
+        <v>1737875</v>
       </c>
       <c r="AY50" s="19">
-        <v>1737875</v>
+        <v>1399170</v>
       </c>
       <c r="AZ50" s="19">
-        <v>1399170</v>
+        <v>1723409</v>
       </c>
       <c r="BA50" s="19">
-        <v>1723409</v>
+        <v>1228904</v>
       </c>
       <c r="BB50" s="19">
-        <v>1228904</v>
+        <v>1075803</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7244,95 +7244,95 @@
       <c r="X57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="11" t="s">
-        <v>58</v>
+      <c r="Y57" s="11">
+        <v>377966</v>
       </c>
       <c r="Z57" s="11">
-        <v>377966</v>
+        <v>484738</v>
       </c>
       <c r="AA57" s="11">
-        <v>484738</v>
+        <v>469422</v>
       </c>
       <c r="AB57" s="11">
-        <v>469422</v>
+        <v>346503</v>
       </c>
       <c r="AC57" s="11">
-        <v>346503</v>
+        <v>387412</v>
       </c>
       <c r="AD57" s="11">
-        <v>387412</v>
+        <v>283224</v>
       </c>
       <c r="AE57" s="11">
-        <v>283224</v>
+        <v>383105</v>
       </c>
       <c r="AF57" s="11">
-        <v>383105</v>
+        <v>379537</v>
       </c>
       <c r="AG57" s="11">
-        <v>379537</v>
+        <v>363206</v>
       </c>
       <c r="AH57" s="11">
-        <v>363206</v>
+        <v>417300</v>
       </c>
       <c r="AI57" s="11">
-        <v>417300</v>
+        <v>505141</v>
       </c>
       <c r="AJ57" s="11">
-        <v>505141</v>
+        <v>704811</v>
       </c>
       <c r="AK57" s="11">
-        <v>704811</v>
+        <v>586804</v>
       </c>
       <c r="AL57" s="11">
-        <v>586804</v>
+        <v>515653</v>
       </c>
       <c r="AM57" s="11">
-        <v>515653</v>
+        <v>560068</v>
       </c>
       <c r="AN57" s="11">
-        <v>560068</v>
+        <v>486218</v>
       </c>
       <c r="AO57" s="11">
-        <v>486218</v>
+        <v>510584</v>
       </c>
       <c r="AP57" s="11">
-        <v>510584</v>
+        <v>523238</v>
       </c>
       <c r="AQ57" s="11">
-        <v>523238</v>
+        <v>525300</v>
       </c>
       <c r="AR57" s="11">
-        <v>525300</v>
+        <v>647446</v>
       </c>
       <c r="AS57" s="11">
-        <v>647446</v>
+        <v>361766</v>
       </c>
       <c r="AT57" s="11">
-        <v>361766</v>
+        <v>529474</v>
       </c>
       <c r="AU57" s="11">
-        <v>529474</v>
+        <v>962843</v>
       </c>
       <c r="AV57" s="11">
-        <v>962843</v>
+        <v>1155390</v>
       </c>
       <c r="AW57" s="11">
-        <v>1155390</v>
+        <v>1058510</v>
       </c>
       <c r="AX57" s="11">
-        <v>1058510</v>
+        <v>927881</v>
       </c>
       <c r="AY57" s="11">
-        <v>927881</v>
+        <v>969953</v>
       </c>
       <c r="AZ57" s="11">
-        <v>969953</v>
+        <v>915714</v>
       </c>
       <c r="BA57" s="11">
-        <v>915714</v>
+        <v>671958</v>
       </c>
       <c r="BB57" s="11">
-        <v>671958</v>
+        <v>913145</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7403,36 +7403,36 @@
       <c r="X58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="13" t="s">
-        <v>58</v>
+      <c r="Y58" s="13">
+        <v>33000</v>
       </c>
       <c r="Z58" s="13">
-        <v>33000</v>
+        <v>24698</v>
       </c>
       <c r="AA58" s="13">
-        <v>24698</v>
+        <v>22632</v>
       </c>
       <c r="AB58" s="13">
-        <v>22632</v>
+        <v>34146</v>
       </c>
       <c r="AC58" s="13">
-        <v>34146</v>
+        <v>27973</v>
       </c>
       <c r="AD58" s="13">
-        <v>27973</v>
+        <v>32017</v>
       </c>
       <c r="AE58" s="13">
-        <v>32017</v>
+        <v>29834</v>
       </c>
       <c r="AF58" s="13">
-        <v>29834</v>
+        <v>26238</v>
       </c>
       <c r="AG58" s="13">
-        <v>26238</v>
-      </c>
-      <c r="AH58" s="13">
         <v>35294</v>
       </c>
+      <c r="AH58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI58" s="13" t="s">
         <v>58</v>
       </c>
@@ -7460,14 +7460,14 @@
       <c r="AQ58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR58" s="13" t="s">
-        <v>58</v>
+      <c r="AR58" s="13">
+        <v>47761</v>
       </c>
       <c r="AS58" s="13">
-        <v>47761</v>
-      </c>
-      <c r="AT58" s="13">
         <v>47148</v>
+      </c>
+      <c r="AT58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU58" s="13" t="s">
         <v>58</v>
@@ -7562,95 +7562,95 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>120475</v>
       </c>
       <c r="Z59" s="11">
-        <v>120475</v>
+        <v>119664</v>
       </c>
       <c r="AA59" s="11">
-        <v>119664</v>
+        <v>134603</v>
       </c>
       <c r="AB59" s="11">
-        <v>134603</v>
+        <v>93784</v>
       </c>
       <c r="AC59" s="11">
-        <v>93784</v>
+        <v>134982</v>
       </c>
       <c r="AD59" s="11">
-        <v>134982</v>
+        <v>84872</v>
       </c>
       <c r="AE59" s="11">
-        <v>84872</v>
+        <v>101005</v>
       </c>
       <c r="AF59" s="11">
-        <v>101005</v>
+        <v>92774</v>
       </c>
       <c r="AG59" s="11">
-        <v>92774</v>
+        <v>102702</v>
       </c>
       <c r="AH59" s="11">
-        <v>102702</v>
+        <v>110394</v>
       </c>
       <c r="AI59" s="11">
-        <v>110394</v>
+        <v>136446</v>
       </c>
       <c r="AJ59" s="11">
-        <v>136446</v>
+        <v>197004</v>
       </c>
       <c r="AK59" s="11">
-        <v>197004</v>
+        <v>125079</v>
       </c>
       <c r="AL59" s="11">
-        <v>125079</v>
+        <v>202413</v>
       </c>
       <c r="AM59" s="11">
-        <v>202413</v>
+        <v>204389</v>
       </c>
       <c r="AN59" s="11">
-        <v>204389</v>
+        <v>187686</v>
       </c>
       <c r="AO59" s="11">
-        <v>187686</v>
+        <v>170143</v>
       </c>
       <c r="AP59" s="11">
-        <v>170143</v>
+        <v>179325</v>
       </c>
       <c r="AQ59" s="11">
-        <v>179325</v>
+        <v>168127</v>
       </c>
       <c r="AR59" s="11">
-        <v>168127</v>
+        <v>38118</v>
       </c>
       <c r="AS59" s="11">
-        <v>38118</v>
+        <v>39297</v>
       </c>
       <c r="AT59" s="11">
-        <v>39297</v>
+        <v>146904</v>
       </c>
       <c r="AU59" s="11">
-        <v>146904</v>
+        <v>183237</v>
       </c>
       <c r="AV59" s="11">
-        <v>183237</v>
+        <v>208870</v>
       </c>
       <c r="AW59" s="11">
-        <v>208870</v>
+        <v>175142</v>
       </c>
       <c r="AX59" s="11">
-        <v>175142</v>
+        <v>176008</v>
       </c>
       <c r="AY59" s="11">
-        <v>176008</v>
+        <v>181110</v>
       </c>
       <c r="AZ59" s="11">
-        <v>181110</v>
+        <v>264271</v>
       </c>
       <c r="BA59" s="11">
-        <v>264271</v>
+        <v>124530</v>
       </c>
       <c r="BB59" s="11">
-        <v>124530</v>
+        <v>121988</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7748,68 +7748,68 @@
       <c r="AG60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH60" s="13" t="s">
-        <v>58</v>
+      <c r="AH60" s="13">
+        <v>26245</v>
       </c>
       <c r="AI60" s="13">
-        <v>26245</v>
+        <v>61856</v>
       </c>
       <c r="AJ60" s="13">
-        <v>61856</v>
+        <v>67802</v>
       </c>
       <c r="AK60" s="13">
-        <v>67802</v>
+        <v>61484</v>
       </c>
       <c r="AL60" s="13">
-        <v>61484</v>
+        <v>59403</v>
       </c>
       <c r="AM60" s="13">
-        <v>59403</v>
+        <v>64199</v>
       </c>
       <c r="AN60" s="13">
-        <v>64199</v>
+        <v>37627</v>
       </c>
       <c r="AO60" s="13">
-        <v>37627</v>
+        <v>56308</v>
       </c>
       <c r="AP60" s="13">
-        <v>56308</v>
+        <v>44349</v>
       </c>
       <c r="AQ60" s="13">
-        <v>44349</v>
-      </c>
-      <c r="AR60" s="13">
         <v>33883</v>
       </c>
+      <c r="AR60" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT60" s="13" t="s">
-        <v>58</v>
+      <c r="AT60" s="13">
+        <v>55545</v>
       </c>
       <c r="AU60" s="13">
-        <v>55545</v>
+        <v>55612</v>
       </c>
       <c r="AV60" s="13">
-        <v>55612</v>
+        <v>81389</v>
       </c>
       <c r="AW60" s="13">
-        <v>81389</v>
+        <v>62593</v>
       </c>
       <c r="AX60" s="13">
-        <v>62593</v>
+        <v>59882</v>
       </c>
       <c r="AY60" s="13">
-        <v>59882</v>
+        <v>66870</v>
       </c>
       <c r="AZ60" s="13">
-        <v>66870</v>
+        <v>11181</v>
       </c>
       <c r="BA60" s="13">
-        <v>11181</v>
+        <v>109499</v>
       </c>
       <c r="BB60" s="13">
-        <v>109499</v>
+        <v>93404</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7879,94 +7879,94 @@
         <v>0</v>
       </c>
       <c r="Y61" s="15">
-        <v>0</v>
+        <v>531441</v>
       </c>
       <c r="Z61" s="15">
-        <v>531441</v>
+        <v>629100</v>
       </c>
       <c r="AA61" s="15">
-        <v>629100</v>
+        <v>626657</v>
       </c>
       <c r="AB61" s="15">
-        <v>626657</v>
+        <v>474433</v>
       </c>
       <c r="AC61" s="15">
-        <v>474433</v>
+        <v>550367</v>
       </c>
       <c r="AD61" s="15">
-        <v>550367</v>
+        <v>400113</v>
       </c>
       <c r="AE61" s="15">
-        <v>400113</v>
+        <v>513944</v>
       </c>
       <c r="AF61" s="15">
-        <v>513944</v>
+        <v>498549</v>
       </c>
       <c r="AG61" s="15">
-        <v>498549</v>
+        <v>501202</v>
       </c>
       <c r="AH61" s="15">
-        <v>501202</v>
+        <v>553939</v>
       </c>
       <c r="AI61" s="15">
-        <v>553939</v>
+        <v>703443</v>
       </c>
       <c r="AJ61" s="15">
-        <v>703443</v>
+        <v>969617</v>
       </c>
       <c r="AK61" s="15">
-        <v>969617</v>
+        <v>773367</v>
       </c>
       <c r="AL61" s="15">
-        <v>773367</v>
+        <v>777469</v>
       </c>
       <c r="AM61" s="15">
-        <v>777469</v>
+        <v>828656</v>
       </c>
       <c r="AN61" s="15">
-        <v>828656</v>
+        <v>711531</v>
       </c>
       <c r="AO61" s="15">
-        <v>711531</v>
+        <v>737035</v>
       </c>
       <c r="AP61" s="15">
-        <v>737035</v>
+        <v>746912</v>
       </c>
       <c r="AQ61" s="15">
-        <v>746912</v>
+        <v>727310</v>
       </c>
       <c r="AR61" s="15">
-        <v>727310</v>
+        <v>733325</v>
       </c>
       <c r="AS61" s="15">
-        <v>733325</v>
+        <v>448211</v>
       </c>
       <c r="AT61" s="15">
-        <v>448211</v>
+        <v>731923</v>
       </c>
       <c r="AU61" s="15">
-        <v>731923</v>
+        <v>1201692</v>
       </c>
       <c r="AV61" s="15">
-        <v>1201692</v>
+        <v>1445649</v>
       </c>
       <c r="AW61" s="15">
-        <v>1445649</v>
+        <v>1296245</v>
       </c>
       <c r="AX61" s="15">
-        <v>1296245</v>
+        <v>1163771</v>
       </c>
       <c r="AY61" s="15">
-        <v>1163771</v>
+        <v>1217933</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1217933</v>
+        <v>1191166</v>
       </c>
       <c r="BA61" s="15">
-        <v>1191166</v>
+        <v>905987</v>
       </c>
       <c r="BB61" s="15">
-        <v>905987</v>
+        <v>1128537</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8094,95 +8094,95 @@
       <c r="X63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="11" t="s">
-        <v>58</v>
+      <c r="Y63" s="11">
+        <v>61064</v>
       </c>
       <c r="Z63" s="11">
-        <v>61064</v>
+        <v>109445</v>
       </c>
       <c r="AA63" s="11">
-        <v>109445</v>
+        <v>138345</v>
       </c>
       <c r="AB63" s="11">
-        <v>138345</v>
+        <v>72275</v>
       </c>
       <c r="AC63" s="11">
-        <v>72275</v>
+        <v>134176</v>
       </c>
       <c r="AD63" s="11">
-        <v>134176</v>
+        <v>137535</v>
       </c>
       <c r="AE63" s="11">
-        <v>137535</v>
+        <v>124744</v>
       </c>
       <c r="AF63" s="11">
-        <v>124744</v>
+        <v>108107</v>
       </c>
       <c r="AG63" s="11">
-        <v>108107</v>
+        <v>128613</v>
       </c>
       <c r="AH63" s="11">
-        <v>128613</v>
+        <v>76817</v>
       </c>
       <c r="AI63" s="11">
-        <v>76817</v>
+        <v>118283</v>
       </c>
       <c r="AJ63" s="11">
-        <v>118283</v>
+        <v>136386</v>
       </c>
       <c r="AK63" s="11">
-        <v>136386</v>
+        <v>252613</v>
       </c>
       <c r="AL63" s="11">
-        <v>252613</v>
+        <v>96259</v>
       </c>
       <c r="AM63" s="11">
-        <v>96259</v>
+        <v>172811</v>
       </c>
       <c r="AN63" s="11">
-        <v>172811</v>
+        <v>153659</v>
       </c>
       <c r="AO63" s="11">
-        <v>153659</v>
+        <v>109919</v>
       </c>
       <c r="AP63" s="11">
-        <v>109919</v>
+        <v>104877</v>
       </c>
       <c r="AQ63" s="11">
-        <v>104877</v>
+        <v>41664</v>
       </c>
       <c r="AR63" s="11">
-        <v>41664</v>
+        <v>65290</v>
       </c>
       <c r="AS63" s="11">
-        <v>65290</v>
+        <v>277275</v>
       </c>
       <c r="AT63" s="11">
-        <v>277275</v>
+        <v>215067</v>
       </c>
       <c r="AU63" s="11">
-        <v>215067</v>
+        <v>2840</v>
       </c>
       <c r="AV63" s="11">
-        <v>2840</v>
+        <v>287433</v>
       </c>
       <c r="AW63" s="11">
-        <v>287433</v>
+        <v>141649</v>
       </c>
       <c r="AX63" s="11">
-        <v>141649</v>
+        <v>357432</v>
       </c>
       <c r="AY63" s="11">
-        <v>357432</v>
+        <v>321942</v>
       </c>
       <c r="AZ63" s="11">
-        <v>321942</v>
+        <v>330788</v>
       </c>
       <c r="BA63" s="11">
-        <v>330788</v>
+        <v>242405</v>
       </c>
       <c r="BB63" s="11">
-        <v>242405</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8253,14 +8253,14 @@
       <c r="X64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y64" s="13" t="s">
-        <v>58</v>
+      <c r="Y64" s="13">
+        <v>0</v>
       </c>
       <c r="Z64" s="13">
         <v>0</v>
       </c>
-      <c r="AA64" s="13">
-        <v>0</v>
+      <c r="AA64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB64" s="13" t="s">
         <v>58</v>
@@ -8277,11 +8277,11 @@
       <c r="AF64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG64" s="13" t="s">
-        <v>58</v>
+      <c r="AG64" s="13">
+        <v>3753</v>
       </c>
       <c r="AH64" s="13">
-        <v>3753</v>
+        <v>0</v>
       </c>
       <c r="AI64" s="13">
         <v>0</v>
@@ -8316,8 +8316,8 @@
       <c r="AS64" s="13">
         <v>0</v>
       </c>
-      <c r="AT64" s="13">
-        <v>0</v>
+      <c r="AT64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU64" s="13" t="s">
         <v>58</v>
@@ -8412,95 +8412,95 @@
       <c r="X65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="11" t="s">
-        <v>58</v>
+      <c r="Y65" s="11">
+        <v>24977</v>
       </c>
       <c r="Z65" s="11">
-        <v>24977</v>
+        <v>18713</v>
       </c>
       <c r="AA65" s="11">
-        <v>18713</v>
+        <v>42718</v>
       </c>
       <c r="AB65" s="11">
-        <v>42718</v>
+        <v>4855</v>
       </c>
       <c r="AC65" s="11">
-        <v>4855</v>
+        <v>35145</v>
       </c>
       <c r="AD65" s="11">
-        <v>35145</v>
+        <v>17258</v>
       </c>
       <c r="AE65" s="11">
-        <v>17258</v>
+        <v>26378</v>
       </c>
       <c r="AF65" s="11">
-        <v>26378</v>
+        <v>38483</v>
       </c>
       <c r="AG65" s="11">
-        <v>38483</v>
+        <v>43705</v>
       </c>
       <c r="AH65" s="11">
-        <v>43705</v>
+        <v>28637</v>
       </c>
       <c r="AI65" s="11">
-        <v>28637</v>
+        <v>59364</v>
       </c>
       <c r="AJ65" s="11">
-        <v>59364</v>
+        <v>23569</v>
       </c>
       <c r="AK65" s="11">
-        <v>23569</v>
+        <v>12215</v>
       </c>
       <c r="AL65" s="11">
-        <v>12215</v>
+        <v>26010</v>
       </c>
       <c r="AM65" s="11">
-        <v>26010</v>
+        <v>47216</v>
       </c>
       <c r="AN65" s="11">
-        <v>47216</v>
+        <v>40907</v>
       </c>
       <c r="AO65" s="11">
-        <v>40907</v>
+        <v>17651</v>
       </c>
       <c r="AP65" s="11">
-        <v>17651</v>
+        <v>17918</v>
       </c>
       <c r="AQ65" s="11">
-        <v>17918</v>
+        <v>1646</v>
       </c>
       <c r="AR65" s="11">
-        <v>1646</v>
+        <v>12277</v>
       </c>
       <c r="AS65" s="11">
-        <v>12277</v>
+        <v>73893</v>
       </c>
       <c r="AT65" s="11">
-        <v>73893</v>
+        <v>17862</v>
       </c>
       <c r="AU65" s="11">
-        <v>17862</v>
+        <v>398</v>
       </c>
       <c r="AV65" s="11">
-        <v>398</v>
+        <v>8585</v>
       </c>
       <c r="AW65" s="11">
-        <v>8585</v>
+        <v>5145</v>
       </c>
       <c r="AX65" s="11">
-        <v>5145</v>
+        <v>12114</v>
       </c>
       <c r="AY65" s="11">
-        <v>12114</v>
+        <v>7796</v>
       </c>
       <c r="AZ65" s="11">
-        <v>7796</v>
+        <v>21391</v>
       </c>
       <c r="BA65" s="11">
-        <v>21391</v>
+        <v>14591</v>
       </c>
       <c r="BB65" s="11">
-        <v>14591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8634,17 +8634,17 @@
       <c r="AS66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT66" s="13" t="s">
-        <v>58</v>
+      <c r="AT66" s="13">
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
         <v>0</v>
       </c>
       <c r="AV66" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AW66" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="13">
         <v>0</v>
@@ -8653,13 +8653,13 @@
         <v>0</v>
       </c>
       <c r="AZ66" s="13">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="BA66" s="13">
-        <v>184</v>
+        <v>14775</v>
       </c>
       <c r="BB66" s="13">
-        <v>14775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8729,94 +8729,94 @@
         <v>0</v>
       </c>
       <c r="Y67" s="15">
-        <v>0</v>
+        <v>86041</v>
       </c>
       <c r="Z67" s="15">
-        <v>86041</v>
+        <v>128158</v>
       </c>
       <c r="AA67" s="15">
-        <v>128158</v>
+        <v>181063</v>
       </c>
       <c r="AB67" s="15">
-        <v>181063</v>
+        <v>77130</v>
       </c>
       <c r="AC67" s="15">
-        <v>77130</v>
+        <v>169321</v>
       </c>
       <c r="AD67" s="15">
-        <v>169321</v>
+        <v>154793</v>
       </c>
       <c r="AE67" s="15">
-        <v>154793</v>
+        <v>151122</v>
       </c>
       <c r="AF67" s="15">
-        <v>151122</v>
+        <v>146590</v>
       </c>
       <c r="AG67" s="15">
-        <v>146590</v>
+        <v>176071</v>
       </c>
       <c r="AH67" s="15">
-        <v>176071</v>
+        <v>105454</v>
       </c>
       <c r="AI67" s="15">
-        <v>105454</v>
+        <v>177647</v>
       </c>
       <c r="AJ67" s="15">
-        <v>177647</v>
+        <v>159955</v>
       </c>
       <c r="AK67" s="15">
-        <v>159955</v>
+        <v>264828</v>
       </c>
       <c r="AL67" s="15">
-        <v>264828</v>
+        <v>122269</v>
       </c>
       <c r="AM67" s="15">
-        <v>122269</v>
+        <v>220027</v>
       </c>
       <c r="AN67" s="15">
-        <v>220027</v>
+        <v>194566</v>
       </c>
       <c r="AO67" s="15">
-        <v>194566</v>
+        <v>127570</v>
       </c>
       <c r="AP67" s="15">
-        <v>127570</v>
+        <v>122795</v>
       </c>
       <c r="AQ67" s="15">
-        <v>122795</v>
+        <v>43310</v>
       </c>
       <c r="AR67" s="15">
-        <v>43310</v>
+        <v>77567</v>
       </c>
       <c r="AS67" s="15">
-        <v>77567</v>
+        <v>351168</v>
       </c>
       <c r="AT67" s="15">
-        <v>351168</v>
+        <v>232929</v>
       </c>
       <c r="AU67" s="15">
-        <v>232929</v>
+        <v>3238</v>
       </c>
       <c r="AV67" s="15">
-        <v>3238</v>
+        <v>296029</v>
       </c>
       <c r="AW67" s="15">
-        <v>296029</v>
+        <v>146794</v>
       </c>
       <c r="AX67" s="15">
-        <v>146794</v>
+        <v>369546</v>
       </c>
       <c r="AY67" s="15">
-        <v>369546</v>
+        <v>329738</v>
       </c>
       <c r="AZ67" s="15">
-        <v>329738</v>
+        <v>352363</v>
       </c>
       <c r="BA67" s="15">
-        <v>352363</v>
+        <v>271771</v>
       </c>
       <c r="BB67" s="15">
-        <v>271771</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8944,8 +8944,8 @@
       <c r="X69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="15" t="s">
-        <v>58</v>
+      <c r="Y69" s="15">
+        <v>0</v>
       </c>
       <c r="Z69" s="15">
         <v>0</v>
@@ -9166,11 +9166,11 @@
       <c r="Z71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA71" s="11" t="s">
-        <v>58</v>
+      <c r="AA71" s="11">
+        <v>-537</v>
       </c>
       <c r="AB71" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="11">
         <v>0</v>
@@ -9179,28 +9179,28 @@
         <v>0</v>
       </c>
       <c r="AE71" s="11">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AF71" s="11">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AG71" s="11">
-        <v>-32</v>
-      </c>
-      <c r="AH71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="11">
+        <v>-534</v>
       </c>
       <c r="AJ71" s="11">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AK71" s="11">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="AL71" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="11">
         <v>0</v>
@@ -9218,31 +9218,31 @@
         <v>0</v>
       </c>
       <c r="AR71" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AS71" s="11">
-        <v>-11</v>
-      </c>
-      <c r="AT71" s="11">
         <v>-18919</v>
       </c>
-      <c r="AU71" s="11" t="s">
-        <v>58</v>
+      <c r="AT71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU71" s="11">
+        <v>0</v>
       </c>
       <c r="AV71" s="11">
         <v>0</v>
       </c>
       <c r="AW71" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AX71" s="11">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="11">
-        <v>0</v>
+        <v>-232282</v>
       </c>
       <c r="AZ71" s="11">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="11">
         <v>0</v>
@@ -9355,11 +9355,11 @@
       <c r="AJ72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK72" s="13" t="s">
-        <v>58</v>
+      <c r="AK72" s="13">
+        <v>-9</v>
       </c>
       <c r="AL72" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AM72" s="13">
         <v>0</v>
@@ -9382,8 +9382,8 @@
       <c r="AS72" s="13">
         <v>0</v>
       </c>
-      <c r="AT72" s="13">
-        <v>0</v>
+      <c r="AT72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU72" s="13" t="s">
         <v>58</v>
@@ -9520,11 +9520,11 @@
       <c r="AL73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM73" s="11" t="s">
-        <v>58</v>
+      <c r="AM73" s="11">
+        <v>-228</v>
       </c>
       <c r="AN73" s="11">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AO73" s="11">
         <v>0</v>
@@ -9539,28 +9539,28 @@
         <v>0</v>
       </c>
       <c r="AS73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT73" s="11">
         <v>-8665</v>
       </c>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU73" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW73" s="11" t="s">
-        <v>58</v>
+      <c r="AW73" s="11">
+        <v>-1</v>
       </c>
       <c r="AX73" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AY73" s="11">
-        <v>0</v>
+        <v>-46804</v>
       </c>
       <c r="AZ73" s="11">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="11">
         <v>0</v>
@@ -9709,11 +9709,11 @@
       <c r="AV74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW74" s="13" t="s">
-        <v>58</v>
+      <c r="AW74" s="13">
+        <v>-10250</v>
       </c>
       <c r="AX74" s="13">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="13">
         <v>0</v>
@@ -9796,17 +9796,17 @@
       <c r="X75" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y75" s="15" t="s">
-        <v>58</v>
+      <c r="Y75" s="15">
+        <v>0</v>
       </c>
       <c r="Z75" s="15">
         <v>0</v>
       </c>
       <c r="AA75" s="15">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="AB75" s="15">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AC75" s="15">
         <v>0</v>
@@ -9815,34 +9815,34 @@
         <v>0</v>
       </c>
       <c r="AE75" s="15">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AF75" s="15">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AG75" s="15">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AH75" s="15">
         <v>0</v>
       </c>
       <c r="AI75" s="15">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AJ75" s="15">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="15">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AL75" s="15">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AM75" s="15">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AN75" s="15">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="15">
         <v>0</v>
@@ -9854,13 +9854,13 @@
         <v>0</v>
       </c>
       <c r="AR75" s="15">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AS75" s="15">
-        <v>-11</v>
+        <v>-27584</v>
       </c>
       <c r="AT75" s="15">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="15">
         <v>0</v>
@@ -9869,16 +9869,16 @@
         <v>0</v>
       </c>
       <c r="AW75" s="15">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AX75" s="15">
-        <v>-10259</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="15">
-        <v>0</v>
+        <v>-279086</v>
       </c>
       <c r="AZ75" s="15">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="15">
         <v>0</v>
@@ -10012,17 +10012,17 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>-643</v>
       </c>
       <c r="Z77" s="11">
-        <v>-643</v>
+        <v>-325</v>
       </c>
       <c r="AA77" s="11">
-        <v>-325</v>
+        <v>-3860</v>
       </c>
       <c r="AB77" s="11">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="AC77" s="11">
         <v>0</v>
@@ -10031,67 +10031,67 @@
         <v>0</v>
       </c>
       <c r="AE77" s="11">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AF77" s="11">
-        <v>-455</v>
+        <v>-472</v>
       </c>
       <c r="AG77" s="11">
-        <v>-472</v>
+        <v>-259</v>
       </c>
       <c r="AH77" s="11">
-        <v>-259</v>
+        <v>-6</v>
       </c>
       <c r="AI77" s="11">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="11">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AK77" s="11">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="AL77" s="11">
-        <v>-58</v>
+        <v>-7683</v>
       </c>
       <c r="AM77" s="11">
-        <v>-7683</v>
+        <v>-8058</v>
       </c>
       <c r="AN77" s="11">
-        <v>-8058</v>
+        <v>-8049</v>
       </c>
       <c r="AO77" s="11">
-        <v>-8049</v>
+        <v>-8065</v>
       </c>
       <c r="AP77" s="11">
-        <v>-8065</v>
+        <v>-7978</v>
       </c>
       <c r="AQ77" s="11">
-        <v>-7978</v>
+        <v>-31864</v>
       </c>
       <c r="AR77" s="11">
-        <v>-31864</v>
+        <v>-22230</v>
       </c>
       <c r="AS77" s="11">
-        <v>-22230</v>
+        <v>-22531</v>
       </c>
       <c r="AT77" s="11">
-        <v>-22531</v>
+        <v>-56</v>
       </c>
       <c r="AU77" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AV77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX77" s="11">
         <v>-56</v>
       </c>
-      <c r="AV77" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AW77" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX77" s="11">
-        <v>0</v>
-      </c>
       <c r="AY77" s="11">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="11">
         <v>0</v>
@@ -10170,94 +10170,94 @@
         <v>0</v>
       </c>
       <c r="Y78" s="19">
-        <v>0</v>
+        <v>616839</v>
       </c>
       <c r="Z78" s="19">
-        <v>616839</v>
+        <v>756933</v>
       </c>
       <c r="AA78" s="19">
-        <v>756933</v>
+        <v>803323</v>
       </c>
       <c r="AB78" s="19">
-        <v>803323</v>
+        <v>551563</v>
       </c>
       <c r="AC78" s="19">
-        <v>551563</v>
+        <v>719688</v>
       </c>
       <c r="AD78" s="19">
-        <v>719688</v>
+        <v>554906</v>
       </c>
       <c r="AE78" s="19">
-        <v>554906</v>
+        <v>664563</v>
       </c>
       <c r="AF78" s="19">
-        <v>664563</v>
+        <v>644635</v>
       </c>
       <c r="AG78" s="19">
-        <v>644635</v>
+        <v>677014</v>
       </c>
       <c r="AH78" s="19">
-        <v>677014</v>
+        <v>659387</v>
       </c>
       <c r="AI78" s="19">
-        <v>659387</v>
+        <v>880556</v>
       </c>
       <c r="AJ78" s="19">
-        <v>880556</v>
+        <v>1129525</v>
       </c>
       <c r="AK78" s="19">
-        <v>1129525</v>
+        <v>1037648</v>
       </c>
       <c r="AL78" s="19">
-        <v>1037648</v>
+        <v>892055</v>
       </c>
       <c r="AM78" s="19">
-        <v>892055</v>
+        <v>1040397</v>
       </c>
       <c r="AN78" s="19">
-        <v>1040397</v>
+        <v>898048</v>
       </c>
       <c r="AO78" s="19">
-        <v>898048</v>
+        <v>856540</v>
       </c>
       <c r="AP78" s="19">
-        <v>856540</v>
+        <v>861729</v>
       </c>
       <c r="AQ78" s="19">
-        <v>861729</v>
+        <v>738756</v>
       </c>
       <c r="AR78" s="19">
-        <v>738756</v>
+        <v>788651</v>
       </c>
       <c r="AS78" s="19">
-        <v>788651</v>
+        <v>749264</v>
       </c>
       <c r="AT78" s="19">
-        <v>749264</v>
+        <v>964796</v>
       </c>
       <c r="AU78" s="19">
-        <v>964796</v>
+        <v>1204929</v>
       </c>
       <c r="AV78" s="19">
-        <v>1204929</v>
+        <v>1741678</v>
       </c>
       <c r="AW78" s="19">
-        <v>1741678</v>
+        <v>1432780</v>
       </c>
       <c r="AX78" s="19">
-        <v>1432780</v>
+        <v>1533261</v>
       </c>
       <c r="AY78" s="19">
-        <v>1533261</v>
+        <v>1268585</v>
       </c>
       <c r="AZ78" s="19">
-        <v>1268585</v>
+        <v>1543529</v>
       </c>
       <c r="BA78" s="19">
-        <v>1543529</v>
+        <v>1177758</v>
       </c>
       <c r="BB78" s="19">
-        <v>1177758</v>
+        <v>1130006</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10762,95 +10762,95 @@
       <c r="X85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>58</v>
+      <c r="Y85" s="11">
+        <v>385808</v>
       </c>
       <c r="Z85" s="11">
-        <v>385808</v>
+        <v>447949</v>
       </c>
       <c r="AA85" s="11">
-        <v>447949</v>
+        <v>445987</v>
       </c>
       <c r="AB85" s="11">
-        <v>445987</v>
+        <v>494758</v>
       </c>
       <c r="AC85" s="11">
-        <v>494758</v>
+        <v>519396</v>
       </c>
       <c r="AD85" s="11">
-        <v>519396</v>
+        <v>502681</v>
       </c>
       <c r="AE85" s="11">
-        <v>502681</v>
+        <v>525888</v>
       </c>
       <c r="AF85" s="11">
-        <v>525888</v>
+        <v>516967</v>
       </c>
       <c r="AG85" s="11">
-        <v>516967</v>
+        <v>530714</v>
       </c>
       <c r="AH85" s="11">
-        <v>530714</v>
+        <v>564667</v>
       </c>
       <c r="AI85" s="11">
-        <v>564667</v>
+        <v>566145</v>
       </c>
       <c r="AJ85" s="11">
-        <v>566145</v>
+        <v>583020</v>
       </c>
       <c r="AK85" s="11">
-        <v>583020</v>
+        <v>634370</v>
       </c>
       <c r="AL85" s="11">
-        <v>634370</v>
+        <v>633772</v>
       </c>
       <c r="AM85" s="11">
-        <v>633772</v>
+        <v>682560</v>
       </c>
       <c r="AN85" s="11">
-        <v>682560</v>
+        <v>677379</v>
       </c>
       <c r="AO85" s="11">
-        <v>677379</v>
+        <v>696729</v>
       </c>
       <c r="AP85" s="11">
-        <v>696729</v>
+        <v>761622</v>
       </c>
       <c r="AQ85" s="11">
-        <v>761622</v>
+        <v>776397</v>
       </c>
       <c r="AR85" s="11">
-        <v>776397</v>
+        <v>758090</v>
       </c>
       <c r="AS85" s="11">
-        <v>758090</v>
+        <v>774547</v>
       </c>
       <c r="AT85" s="11">
-        <v>774547</v>
+        <v>783852</v>
       </c>
       <c r="AU85" s="11">
-        <v>783852</v>
+        <v>907597</v>
       </c>
       <c r="AV85" s="11">
-        <v>907597</v>
+        <v>919664</v>
       </c>
       <c r="AW85" s="11">
-        <v>919664</v>
+        <v>929560</v>
       </c>
       <c r="AX85" s="11">
-        <v>929560</v>
+        <v>970938</v>
       </c>
       <c r="AY85" s="11">
-        <v>970938</v>
+        <v>1015092</v>
       </c>
       <c r="AZ85" s="11">
-        <v>1015092</v>
+        <v>938856</v>
       </c>
       <c r="BA85" s="11">
-        <v>938856</v>
+        <v>1070761</v>
       </c>
       <c r="BB85" s="11">
-        <v>1070761</v>
+        <v>1067372</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10921,36 +10921,36 @@
       <c r="X86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="13" t="s">
-        <v>58</v>
+      <c r="Y86" s="13">
+        <v>270763</v>
       </c>
       <c r="Z86" s="13">
-        <v>270763</v>
+        <v>288491</v>
       </c>
       <c r="AA86" s="13">
-        <v>288491</v>
+        <v>287113</v>
       </c>
       <c r="AB86" s="13">
-        <v>287113</v>
+        <v>319836</v>
       </c>
       <c r="AC86" s="13">
-        <v>319836</v>
+        <v>327204</v>
       </c>
       <c r="AD86" s="13">
-        <v>327204</v>
+        <v>327118</v>
       </c>
       <c r="AE86" s="13">
-        <v>327118</v>
+        <v>319032</v>
       </c>
       <c r="AF86" s="13">
-        <v>319032</v>
+        <v>310413</v>
       </c>
       <c r="AG86" s="13">
-        <v>310413</v>
-      </c>
-      <c r="AH86" s="13">
         <v>352299</v>
       </c>
+      <c r="AH86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI86" s="13" t="s">
         <v>58</v>
       </c>
@@ -10978,14 +10978,14 @@
       <c r="AQ86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>58</v>
+      <c r="AR86" s="13">
+        <v>561452</v>
       </c>
       <c r="AS86" s="13">
-        <v>561452</v>
-      </c>
-      <c r="AT86" s="13">
         <v>548041</v>
+      </c>
+      <c r="AT86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU86" s="13" t="s">
         <v>58</v>
@@ -11080,95 +11080,95 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>582728</v>
       </c>
       <c r="Z87" s="11">
-        <v>582728</v>
+        <v>642940</v>
       </c>
       <c r="AA87" s="11">
-        <v>642940</v>
+        <v>612938</v>
       </c>
       <c r="AB87" s="11">
-        <v>612938</v>
+        <v>676677</v>
       </c>
       <c r="AC87" s="11">
-        <v>676677</v>
+        <v>706601</v>
       </c>
       <c r="AD87" s="11">
-        <v>706601</v>
+        <v>675555</v>
       </c>
       <c r="AE87" s="11">
-        <v>675555</v>
+        <v>727136</v>
       </c>
       <c r="AF87" s="11">
-        <v>727136</v>
+        <v>752956</v>
       </c>
       <c r="AG87" s="11">
-        <v>752956</v>
+        <v>728967</v>
       </c>
       <c r="AH87" s="11">
-        <v>728967</v>
+        <v>774880</v>
       </c>
       <c r="AI87" s="11">
-        <v>774880</v>
+        <v>778188</v>
       </c>
       <c r="AJ87" s="11">
-        <v>778188</v>
+        <v>787972</v>
       </c>
       <c r="AK87" s="11">
-        <v>787972</v>
+        <v>905385</v>
       </c>
       <c r="AL87" s="11">
-        <v>905385</v>
+        <v>876607</v>
       </c>
       <c r="AM87" s="11">
-        <v>876607</v>
+        <v>877865</v>
       </c>
       <c r="AN87" s="11">
-        <v>877865</v>
+        <v>856361</v>
       </c>
       <c r="AO87" s="11">
-        <v>856361</v>
+        <v>882654</v>
       </c>
       <c r="AP87" s="11">
-        <v>882654</v>
+        <v>867423</v>
       </c>
       <c r="AQ87" s="11">
-        <v>867423</v>
+        <v>887757</v>
       </c>
       <c r="AR87" s="11">
-        <v>887757</v>
+        <v>1001129</v>
       </c>
       <c r="AS87" s="11">
-        <v>1001129</v>
+        <v>1027587</v>
       </c>
       <c r="AT87" s="11">
-        <v>1027587</v>
+        <v>927383</v>
       </c>
       <c r="AU87" s="11">
-        <v>927383</v>
+        <v>930104</v>
       </c>
       <c r="AV87" s="11">
-        <v>930104</v>
+        <v>925953</v>
       </c>
       <c r="AW87" s="11">
-        <v>925953</v>
+        <v>959199</v>
       </c>
       <c r="AX87" s="11">
-        <v>959199</v>
+        <v>908447</v>
       </c>
       <c r="AY87" s="11">
-        <v>908447</v>
+        <v>886634</v>
       </c>
       <c r="AZ87" s="11">
-        <v>886634</v>
+        <v>958730</v>
       </c>
       <c r="BA87" s="11">
-        <v>958730</v>
+        <v>1090541</v>
       </c>
       <c r="BB87" s="11">
-        <v>1090541</v>
+        <v>1108952</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -11266,68 +11266,68 @@
       <c r="AG88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH88" s="13" t="s">
-        <v>58</v>
+      <c r="AH88" s="13">
+        <v>385440</v>
       </c>
       <c r="AI88" s="13">
-        <v>385440</v>
+        <v>484419</v>
       </c>
       <c r="AJ88" s="13">
-        <v>484419</v>
+        <v>483082</v>
       </c>
       <c r="AK88" s="13">
-        <v>483082</v>
+        <v>496419</v>
       </c>
       <c r="AL88" s="13">
-        <v>496419</v>
+        <v>517813</v>
       </c>
       <c r="AM88" s="13">
-        <v>517813</v>
+        <v>540050</v>
       </c>
       <c r="AN88" s="13">
-        <v>540050</v>
+        <v>567466</v>
       </c>
       <c r="AO88" s="13">
-        <v>567466</v>
+        <v>557958</v>
       </c>
       <c r="AP88" s="13">
-        <v>557958</v>
+        <v>544093</v>
       </c>
       <c r="AQ88" s="13">
-        <v>544093</v>
-      </c>
-      <c r="AR88" s="13">
         <v>567478</v>
       </c>
+      <c r="AR88" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT88" s="13" t="s">
-        <v>58</v>
+      <c r="AT88" s="13">
+        <v>555978</v>
       </c>
       <c r="AU88" s="13">
-        <v>555978</v>
+        <v>623572</v>
       </c>
       <c r="AV88" s="13">
-        <v>623572</v>
+        <v>623245</v>
       </c>
       <c r="AW88" s="13">
-        <v>623245</v>
+        <v>624406</v>
       </c>
       <c r="AX88" s="13">
-        <v>624406</v>
+        <v>641046</v>
       </c>
       <c r="AY88" s="13">
-        <v>641046</v>
+        <v>647000</v>
       </c>
       <c r="AZ88" s="13">
-        <v>647000</v>
+        <v>707524</v>
       </c>
       <c r="BA88" s="13">
-        <v>707524</v>
+        <v>729522</v>
       </c>
       <c r="BB88" s="13">
-        <v>729522</v>
+        <v>855332</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11455,95 +11455,95 @@
       <c r="X90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>58</v>
+      <c r="Y90" s="11">
+        <v>337016</v>
       </c>
       <c r="Z90" s="11">
-        <v>337016</v>
+        <v>382696</v>
       </c>
       <c r="AA90" s="11">
-        <v>382696</v>
+        <v>419216</v>
       </c>
       <c r="AB90" s="11">
-        <v>419216</v>
+        <v>449159</v>
       </c>
       <c r="AC90" s="11">
-        <v>449159</v>
+        <v>444361</v>
       </c>
       <c r="AD90" s="11">
-        <v>444361</v>
+        <v>444058</v>
       </c>
       <c r="AE90" s="11">
-        <v>444058</v>
+        <v>451389</v>
       </c>
       <c r="AF90" s="11">
-        <v>451389</v>
+        <v>410647</v>
       </c>
       <c r="AG90" s="11">
-        <v>410647</v>
+        <v>428310</v>
       </c>
       <c r="AH90" s="11">
-        <v>428310</v>
+        <v>405422</v>
       </c>
       <c r="AI90" s="11">
-        <v>405422</v>
+        <v>386897</v>
       </c>
       <c r="AJ90" s="11">
-        <v>386897</v>
+        <v>403212</v>
       </c>
       <c r="AK90" s="11">
-        <v>403212</v>
+        <v>468798</v>
       </c>
       <c r="AL90" s="11">
-        <v>468798</v>
+        <v>505236</v>
       </c>
       <c r="AM90" s="11">
-        <v>505236</v>
+        <v>509517</v>
       </c>
       <c r="AN90" s="11">
-        <v>509517</v>
+        <v>515430</v>
       </c>
       <c r="AO90" s="11">
-        <v>515430</v>
+        <v>592108</v>
       </c>
       <c r="AP90" s="11">
-        <v>592108</v>
+        <v>594578</v>
       </c>
       <c r="AQ90" s="11">
-        <v>594578</v>
+        <v>565587</v>
       </c>
       <c r="AR90" s="11">
-        <v>565587</v>
+        <v>540176</v>
       </c>
       <c r="AS90" s="11">
-        <v>540176</v>
+        <v>521619</v>
       </c>
       <c r="AT90" s="11">
-        <v>521619</v>
+        <v>555307</v>
       </c>
       <c r="AU90" s="11">
-        <v>555307</v>
+        <v>648106</v>
       </c>
       <c r="AV90" s="11">
-        <v>648106</v>
+        <v>693360</v>
       </c>
       <c r="AW90" s="11">
-        <v>693360</v>
+        <v>745792</v>
       </c>
       <c r="AX90" s="11">
-        <v>745792</v>
+        <v>743580</v>
       </c>
       <c r="AY90" s="11">
-        <v>743580</v>
+        <v>735125</v>
       </c>
       <c r="AZ90" s="11">
-        <v>735125</v>
+        <v>764520</v>
       </c>
       <c r="BA90" s="11">
-        <v>764520</v>
+        <v>815020</v>
       </c>
       <c r="BB90" s="11">
-        <v>815020</v>
+        <v>1347706</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11638,11 +11638,11 @@
       <c r="AF91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH91" s="13">
+      <c r="AG91" s="13">
         <v>302539</v>
+      </c>
+      <c r="AH91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI91" s="13" t="s">
         <v>58</v>
@@ -11773,95 +11773,95 @@
       <c r="X92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y92" s="11" t="s">
-        <v>58</v>
+      <c r="Y92" s="11">
+        <v>283791</v>
       </c>
       <c r="Z92" s="11">
-        <v>283791</v>
+        <v>352477</v>
       </c>
       <c r="AA92" s="11">
-        <v>352477</v>
+        <v>393482</v>
       </c>
       <c r="AB92" s="11">
-        <v>393482</v>
+        <v>604532</v>
       </c>
       <c r="AC92" s="11">
-        <v>604532</v>
+        <v>453618</v>
       </c>
       <c r="AD92" s="11">
-        <v>453618</v>
+        <v>423312</v>
       </c>
       <c r="AE92" s="11">
-        <v>423312</v>
+        <v>493038</v>
       </c>
       <c r="AF92" s="11">
-        <v>493038</v>
+        <v>428622</v>
       </c>
       <c r="AG92" s="11">
-        <v>428622</v>
+        <v>451633</v>
       </c>
       <c r="AH92" s="11">
-        <v>451633</v>
+        <v>427405</v>
       </c>
       <c r="AI92" s="11">
-        <v>427405</v>
+        <v>385385</v>
       </c>
       <c r="AJ92" s="11">
-        <v>385385</v>
+        <v>357144</v>
       </c>
       <c r="AK92" s="11">
-        <v>357144</v>
+        <v>569305</v>
       </c>
       <c r="AL92" s="11">
-        <v>569305</v>
+        <v>530621</v>
       </c>
       <c r="AM92" s="11">
-        <v>530621</v>
+        <v>517651</v>
       </c>
       <c r="AN92" s="11">
-        <v>517651</v>
+        <v>495416</v>
       </c>
       <c r="AO92" s="11">
-        <v>495416</v>
+        <v>629763</v>
       </c>
       <c r="AP92" s="11">
-        <v>629763</v>
+        <v>561728</v>
       </c>
       <c r="AQ92" s="11">
-        <v>561728</v>
+        <v>646504</v>
       </c>
       <c r="AR92" s="11">
-        <v>646504</v>
+        <v>590581</v>
       </c>
       <c r="AS92" s="11">
-        <v>590581</v>
+        <v>517237</v>
       </c>
       <c r="AT92" s="11">
-        <v>517237</v>
+        <v>575729</v>
       </c>
       <c r="AU92" s="11">
-        <v>575729</v>
+        <v>739777</v>
       </c>
       <c r="AV92" s="11">
-        <v>739777</v>
+        <v>778332</v>
       </c>
       <c r="AW92" s="11">
-        <v>778332</v>
+        <v>813696</v>
       </c>
       <c r="AX92" s="11">
-        <v>813696</v>
+        <v>842948</v>
       </c>
       <c r="AY92" s="11">
-        <v>842948</v>
+        <v>834868</v>
       </c>
       <c r="AZ92" s="11">
-        <v>834868</v>
+        <v>901243</v>
       </c>
       <c r="BA92" s="11">
-        <v>901243</v>
-      </c>
-      <c r="BB92" s="11">
         <v>1027391</v>
+      </c>
+      <c r="BB92" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -12001,26 +12001,26 @@
       <c r="AU93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW93" s="13">
+      <c r="AV93" s="13">
         <v>500000</v>
       </c>
+      <c r="AW93" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AX93" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AY93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ93" s="13" t="s">
-        <v>58</v>
+      <c r="AZ93" s="13">
+        <v>924623</v>
       </c>
       <c r="BA93" s="13">
-        <v>924623</v>
-      </c>
-      <c r="BB93" s="13">
         <v>580778</v>
+      </c>
+      <c r="BB93" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pasa/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pasa/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pasa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3C8606-84F1-4B50-B1EB-D233F6380486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6706755D-5B5B-4908-B809-02B79C7350B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1492,104 +1492,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>1325483</v>
+      </c>
+      <c r="X11" s="11">
+        <v>1156344</v>
       </c>
       <c r="Y11" s="11">
-        <v>1325483</v>
+        <v>197112</v>
       </c>
       <c r="Z11" s="11">
-        <v>1156344</v>
+        <v>774553</v>
       </c>
       <c r="AA11" s="11">
-        <v>197112</v>
+        <v>1175860</v>
       </c>
       <c r="AB11" s="11">
-        <v>774553</v>
+        <v>1276508</v>
       </c>
       <c r="AC11" s="11">
-        <v>1175860</v>
+        <v>1260775</v>
       </c>
       <c r="AD11" s="11">
-        <v>1276508</v>
+        <v>1087802</v>
       </c>
       <c r="AE11" s="11">
-        <v>1260775</v>
+        <v>651932</v>
       </c>
       <c r="AF11" s="11">
-        <v>1087802</v>
+        <v>537758</v>
       </c>
       <c r="AG11" s="11">
-        <v>651932</v>
+        <v>1057005</v>
       </c>
       <c r="AH11" s="11">
-        <v>537758</v>
+        <v>1240544</v>
       </c>
       <c r="AI11" s="11">
-        <v>1057005</v>
+        <v>1357633</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1240544</v>
+        <v>866889</v>
       </c>
       <c r="AK11" s="11">
-        <v>1357633</v>
+        <v>1414212</v>
       </c>
       <c r="AL11" s="11">
-        <v>866889</v>
+        <v>1277905</v>
       </c>
       <c r="AM11" s="11">
-        <v>1414212</v>
+        <v>1379084</v>
       </c>
       <c r="AN11" s="11">
-        <v>1277905</v>
+        <v>1362327</v>
       </c>
       <c r="AO11" s="11">
-        <v>1379084</v>
+        <v>1255588</v>
       </c>
       <c r="AP11" s="11">
-        <v>1362327</v>
+        <v>1326245</v>
       </c>
       <c r="AQ11" s="11">
-        <v>1255588</v>
+        <v>813561</v>
       </c>
       <c r="AR11" s="11">
-        <v>1326245</v>
+        <v>666056</v>
       </c>
       <c r="AS11" s="11">
-        <v>813561</v>
+        <v>1284935</v>
       </c>
       <c r="AT11" s="11">
-        <v>666056</v>
+        <v>1414467</v>
       </c>
       <c r="AU11" s="11">
-        <v>1284935</v>
+        <v>1262842</v>
       </c>
       <c r="AV11" s="11">
-        <v>1414467</v>
+        <v>1215231</v>
       </c>
       <c r="AW11" s="11">
-        <v>1262842</v>
+        <v>1130358</v>
       </c>
       <c r="AX11" s="11">
-        <v>1215231</v>
+        <v>949821</v>
       </c>
       <c r="AY11" s="11">
-        <v>1130358</v>
+        <v>1462906</v>
       </c>
       <c r="AZ11" s="11">
-        <v>949821</v>
+        <v>1579004</v>
       </c>
       <c r="BA11" s="11">
-        <v>1462906</v>
+        <v>1146358</v>
       </c>
       <c r="BB11" s="11">
-        <v>1579004</v>
+        <v>1377457</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1651,39 +1651,39 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>124515</v>
+      </c>
+      <c r="X12" s="13">
+        <v>110120</v>
       </c>
       <c r="Y12" s="13">
-        <v>124515</v>
+        <v>103430</v>
       </c>
       <c r="Z12" s="13">
-        <v>110120</v>
+        <v>66209</v>
       </c>
       <c r="AA12" s="13">
-        <v>103430</v>
+        <v>71944</v>
       </c>
       <c r="AB12" s="13">
-        <v>66209</v>
+        <v>112511</v>
       </c>
       <c r="AC12" s="13">
-        <v>71944</v>
+        <v>105943</v>
       </c>
       <c r="AD12" s="13">
-        <v>112511</v>
+        <v>94317</v>
       </c>
       <c r="AE12" s="13">
-        <v>105943</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>94317</v>
-      </c>
-      <c r="AG12" s="13">
         <v>70052</v>
       </c>
+      <c r="AF12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1711,15 +1711,15 @@
       <c r="AP12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>89606</v>
-      </c>
-      <c r="AS12" s="13">
+      <c r="AQ12" s="13">
         <v>64456</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1810,104 +1810,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>332468</v>
+      </c>
+      <c r="X13" s="11">
+        <v>314218</v>
       </c>
       <c r="Y13" s="11">
-        <v>332468</v>
+        <v>1285139</v>
       </c>
       <c r="Z13" s="11">
-        <v>314218</v>
+        <v>218610</v>
       </c>
       <c r="AA13" s="11">
-        <v>1285139</v>
+        <v>315710</v>
       </c>
       <c r="AB13" s="11">
-        <v>218610</v>
+        <v>310027</v>
       </c>
       <c r="AC13" s="11">
-        <v>315710</v>
+        <v>310581</v>
       </c>
       <c r="AD13" s="11">
-        <v>310027</v>
+        <v>234342</v>
       </c>
       <c r="AE13" s="11">
-        <v>310581</v>
+        <v>131430</v>
       </c>
       <c r="AF13" s="11">
-        <v>234342</v>
+        <v>111657</v>
       </c>
       <c r="AG13" s="11">
-        <v>131430</v>
+        <v>181932</v>
       </c>
       <c r="AH13" s="11">
-        <v>111657</v>
+        <v>156101</v>
       </c>
       <c r="AI13" s="11">
-        <v>181932</v>
+        <v>170724</v>
       </c>
       <c r="AJ13" s="11">
-        <v>156101</v>
+        <v>110235</v>
       </c>
       <c r="AK13" s="11">
-        <v>170724</v>
+        <v>286846</v>
       </c>
       <c r="AL13" s="11">
-        <v>110235</v>
+        <v>240282</v>
       </c>
       <c r="AM13" s="11">
-        <v>286846</v>
+        <v>254640</v>
       </c>
       <c r="AN13" s="11">
-        <v>240282</v>
+        <v>272919</v>
       </c>
       <c r="AO13" s="11">
-        <v>254640</v>
+        <v>223708</v>
       </c>
       <c r="AP13" s="11">
-        <v>272919</v>
+        <v>226709</v>
       </c>
       <c r="AQ13" s="11">
-        <v>223708</v>
+        <v>194299</v>
       </c>
       <c r="AR13" s="11">
-        <v>226709</v>
+        <v>100164</v>
       </c>
       <c r="AS13" s="11">
-        <v>194299</v>
+        <v>183692</v>
       </c>
       <c r="AT13" s="11">
-        <v>100164</v>
+        <v>196344</v>
       </c>
       <c r="AU13" s="11">
-        <v>183692</v>
+        <v>165035</v>
       </c>
       <c r="AV13" s="11">
-        <v>196344</v>
+        <v>162716</v>
       </c>
       <c r="AW13" s="11">
-        <v>165035</v>
+        <v>206418</v>
       </c>
       <c r="AX13" s="11">
-        <v>162716</v>
+        <v>116371</v>
       </c>
       <c r="AY13" s="11">
-        <v>206418</v>
+        <v>184422</v>
       </c>
       <c r="AZ13" s="11">
-        <v>116371</v>
+        <v>198484</v>
       </c>
       <c r="BA13" s="11">
-        <v>184422</v>
+        <v>166239</v>
       </c>
       <c r="BB13" s="11">
-        <v>198484</v>
+        <v>243196</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1996,77 +1996,77 @@
       <c r="AE14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG14" s="13" t="s">
-        <v>58</v>
+      <c r="AF14" s="13">
+        <v>56441</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>122686</v>
       </c>
       <c r="AH14" s="13">
-        <v>56441</v>
+        <v>216298</v>
       </c>
       <c r="AI14" s="13">
-        <v>122686</v>
+        <v>192322</v>
       </c>
       <c r="AJ14" s="13">
-        <v>216298</v>
+        <v>117622</v>
       </c>
       <c r="AK14" s="13">
-        <v>192322</v>
+        <v>24402</v>
       </c>
       <c r="AL14" s="13">
-        <v>117622</v>
+        <v>76558</v>
       </c>
       <c r="AM14" s="13">
-        <v>24402</v>
+        <v>88699</v>
       </c>
       <c r="AN14" s="13">
-        <v>76558</v>
+        <v>105933</v>
       </c>
       <c r="AO14" s="13">
-        <v>88699</v>
+        <v>85939</v>
       </c>
       <c r="AP14" s="13">
-        <v>105933</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>85939</v>
-      </c>
-      <c r="AR14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS14" s="13" t="s">
-        <v>58</v>
+        <v>89606</v>
+      </c>
+      <c r="AQ14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>61089</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>142674</v>
       </c>
       <c r="AT14" s="13">
-        <v>61089</v>
+        <v>132872</v>
       </c>
       <c r="AU14" s="13">
-        <v>142674</v>
+        <v>101431</v>
       </c>
       <c r="AV14" s="13">
-        <v>132872</v>
+        <v>114885</v>
       </c>
       <c r="AW14" s="13">
-        <v>101431</v>
+        <v>23535</v>
       </c>
       <c r="AX14" s="13">
-        <v>114885</v>
+        <v>26527</v>
       </c>
       <c r="AY14" s="13">
-        <v>23535</v>
+        <v>46778</v>
       </c>
       <c r="AZ14" s="13">
-        <v>26527</v>
+        <v>77256</v>
       </c>
       <c r="BA14" s="13">
-        <v>46778</v>
+        <v>86062</v>
       </c>
       <c r="BB14" s="13">
-        <v>77256</v>
+        <v>222875</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2127,103 +2127,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>1580682</v>
       </c>
       <c r="Y15" s="15">
-        <v>1782466</v>
+        <v>1585681</v>
       </c>
       <c r="Z15" s="15">
-        <v>1580682</v>
+        <v>1059372</v>
       </c>
       <c r="AA15" s="15">
-        <v>1585681</v>
+        <v>1563514</v>
       </c>
       <c r="AB15" s="15">
-        <v>1059372</v>
+        <v>1699046</v>
       </c>
       <c r="AC15" s="15">
-        <v>1563514</v>
+        <v>1677299</v>
       </c>
       <c r="AD15" s="15">
-        <v>1699046</v>
+        <v>1416461</v>
       </c>
       <c r="AE15" s="15">
-        <v>1677299</v>
+        <v>853414</v>
       </c>
       <c r="AF15" s="15">
-        <v>1416461</v>
+        <v>705856</v>
       </c>
       <c r="AG15" s="15">
-        <v>853414</v>
+        <v>1361623</v>
       </c>
       <c r="AH15" s="15">
-        <v>705856</v>
+        <v>1612943</v>
       </c>
       <c r="AI15" s="15">
-        <v>1361623</v>
+        <v>1720679</v>
       </c>
       <c r="AJ15" s="15">
-        <v>1612943</v>
+        <v>1094746</v>
       </c>
       <c r="AK15" s="15">
-        <v>1720679</v>
+        <v>1725460</v>
       </c>
       <c r="AL15" s="15">
-        <v>1094746</v>
+        <v>1594745</v>
       </c>
       <c r="AM15" s="15">
-        <v>1725460</v>
+        <v>1722423</v>
       </c>
       <c r="AN15" s="15">
-        <v>1594745</v>
+        <v>1741179</v>
       </c>
       <c r="AO15" s="15">
-        <v>1722423</v>
+        <v>1565235</v>
       </c>
       <c r="AP15" s="15">
-        <v>1741179</v>
+        <v>1642560</v>
       </c>
       <c r="AQ15" s="15">
-        <v>1565235</v>
+        <v>1072316</v>
       </c>
       <c r="AR15" s="15">
-        <v>1642560</v>
+        <v>827309</v>
       </c>
       <c r="AS15" s="15">
-        <v>1072316</v>
+        <v>1611301</v>
       </c>
       <c r="AT15" s="15">
-        <v>827309</v>
+        <v>1743683</v>
       </c>
       <c r="AU15" s="15">
-        <v>1611301</v>
+        <v>1529308</v>
       </c>
       <c r="AV15" s="15">
-        <v>1743683</v>
+        <v>1492832</v>
       </c>
       <c r="AW15" s="15">
-        <v>1529308</v>
+        <v>1360311</v>
       </c>
       <c r="AX15" s="15">
-        <v>1492832</v>
+        <v>1092719</v>
       </c>
       <c r="AY15" s="15">
-        <v>1360311</v>
+        <v>1694106</v>
       </c>
       <c r="AZ15" s="15">
-        <v>1092719</v>
+        <v>1854744</v>
       </c>
       <c r="BA15" s="15">
-        <v>1694106</v>
+        <v>1398659</v>
       </c>
       <c r="BB15" s="15">
-        <v>1854744</v>
+        <v>1843528</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2342,11 +2342,11 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2372,11 +2372,11 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2402,8 +2402,8 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2501,17 +2501,17 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>0</v>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>58</v>
@@ -2525,17 +2525,17 @@
       <c r="AD18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AE18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2561,14 +2561,14 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>0</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>58</v>
@@ -2598,7 +2598,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2660,11 +2660,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2690,11 +2690,11 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>58</v>
@@ -2720,8 +2720,8 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2882,11 +2882,11 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="13">
+        <v>0</v>
       </c>
       <c r="AT20" s="13">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
@@ -3190,11 +3190,11 @@
       <c r="V23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>58</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>67</v>
       </c>
@@ -3348,103 +3348,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="X24" s="19">
-        <v>0</v>
+        <v>1580682</v>
       </c>
       <c r="Y24" s="19">
-        <v>1782466</v>
+        <v>1585681</v>
       </c>
       <c r="Z24" s="19">
-        <v>1580682</v>
+        <v>1059372</v>
       </c>
       <c r="AA24" s="19">
-        <v>1585681</v>
+        <v>1563514</v>
       </c>
       <c r="AB24" s="19">
-        <v>1059372</v>
+        <v>1699046</v>
       </c>
       <c r="AC24" s="19">
-        <v>1563514</v>
+        <v>1677299</v>
       </c>
       <c r="AD24" s="19">
-        <v>1699046</v>
+        <v>1416461</v>
       </c>
       <c r="AE24" s="19">
-        <v>1677299</v>
+        <v>853414</v>
       </c>
       <c r="AF24" s="19">
-        <v>1416461</v>
+        <v>705856</v>
       </c>
       <c r="AG24" s="19">
-        <v>853414</v>
+        <v>1361623</v>
       </c>
       <c r="AH24" s="19">
-        <v>705856</v>
+        <v>1612943</v>
       </c>
       <c r="AI24" s="19">
-        <v>1361623</v>
+        <v>1720679</v>
       </c>
       <c r="AJ24" s="19">
-        <v>1612943</v>
+        <v>1094746</v>
       </c>
       <c r="AK24" s="19">
-        <v>1720679</v>
+        <v>1725460</v>
       </c>
       <c r="AL24" s="19">
-        <v>1094746</v>
+        <v>1594745</v>
       </c>
       <c r="AM24" s="19">
-        <v>1725460</v>
+        <v>1722423</v>
       </c>
       <c r="AN24" s="19">
-        <v>1594745</v>
+        <v>1741179</v>
       </c>
       <c r="AO24" s="19">
-        <v>1722423</v>
+        <v>1565235</v>
       </c>
       <c r="AP24" s="19">
-        <v>1741179</v>
+        <v>1642560</v>
       </c>
       <c r="AQ24" s="19">
-        <v>1565235</v>
+        <v>1072316</v>
       </c>
       <c r="AR24" s="19">
-        <v>1642560</v>
+        <v>827309</v>
       </c>
       <c r="AS24" s="19">
-        <v>1072316</v>
+        <v>1611301</v>
       </c>
       <c r="AT24" s="19">
-        <v>827309</v>
+        <v>1743683</v>
       </c>
       <c r="AU24" s="19">
-        <v>1611301</v>
+        <v>1529308</v>
       </c>
       <c r="AV24" s="19">
-        <v>1743683</v>
+        <v>1492832</v>
       </c>
       <c r="AW24" s="19">
-        <v>1529308</v>
+        <v>1360311</v>
       </c>
       <c r="AX24" s="19">
-        <v>1492832</v>
+        <v>1092719</v>
       </c>
       <c r="AY24" s="19">
-        <v>1360311</v>
+        <v>1694106</v>
       </c>
       <c r="AZ24" s="19">
-        <v>1092719</v>
+        <v>1854744</v>
       </c>
       <c r="BA24" s="19">
-        <v>1694106</v>
+        <v>1398659</v>
       </c>
       <c r="BB24" s="19">
-        <v>1854744</v>
+        <v>1843528</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3499,7 +3499,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3554,7 +3554,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3609,7 +3609,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3821,7 +3821,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3940,104 +3940,104 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>979673</v>
+      </c>
+      <c r="X31" s="11">
+        <v>1082127</v>
       </c>
       <c r="Y31" s="11">
-        <v>979673</v>
+        <v>1052547</v>
       </c>
       <c r="Z31" s="11">
-        <v>1082127</v>
+        <v>700348</v>
       </c>
       <c r="AA31" s="11">
-        <v>1052547</v>
+        <v>745890</v>
       </c>
       <c r="AB31" s="11">
-        <v>700348</v>
+        <v>563427</v>
       </c>
       <c r="AC31" s="11">
-        <v>745890</v>
+        <v>728491</v>
       </c>
       <c r="AD31" s="11">
-        <v>563427</v>
+        <v>734161</v>
       </c>
       <c r="AE31" s="11">
-        <v>728491</v>
+        <v>684373</v>
       </c>
       <c r="AF31" s="11">
-        <v>734161</v>
+        <v>739019</v>
       </c>
       <c r="AG31" s="11">
-        <v>684373</v>
+        <v>892247</v>
       </c>
       <c r="AH31" s="11">
-        <v>739019</v>
+        <v>1208897</v>
       </c>
       <c r="AI31" s="11">
-        <v>892247</v>
+        <v>925018</v>
       </c>
       <c r="AJ31" s="11">
-        <v>1208897</v>
+        <v>813625</v>
       </c>
       <c r="AK31" s="11">
-        <v>925018</v>
+        <v>820540</v>
       </c>
       <c r="AL31" s="11">
-        <v>813625</v>
+        <v>717793</v>
       </c>
       <c r="AM31" s="11">
-        <v>820540</v>
+        <v>732830</v>
       </c>
       <c r="AN31" s="11">
-        <v>717793</v>
+        <v>687005</v>
       </c>
       <c r="AO31" s="11">
-        <v>732830</v>
+        <v>676587</v>
       </c>
       <c r="AP31" s="11">
-        <v>687005</v>
+        <v>854049</v>
       </c>
       <c r="AQ31" s="11">
-        <v>676587</v>
+        <v>467068</v>
       </c>
       <c r="AR31" s="11">
-        <v>854049</v>
+        <v>675477</v>
       </c>
       <c r="AS31" s="11">
-        <v>467068</v>
+        <v>1060871</v>
       </c>
       <c r="AT31" s="11">
-        <v>675477</v>
+        <v>1256318</v>
       </c>
       <c r="AU31" s="11">
-        <v>1060871</v>
+        <v>1138722</v>
       </c>
       <c r="AV31" s="11">
-        <v>1256318</v>
+        <v>955654</v>
       </c>
       <c r="AW31" s="11">
-        <v>1138722</v>
+        <v>955532</v>
       </c>
       <c r="AX31" s="11">
-        <v>955654</v>
+        <v>975351</v>
       </c>
       <c r="AY31" s="11">
-        <v>955532</v>
+        <v>627552</v>
       </c>
       <c r="AZ31" s="11">
-        <v>975351</v>
+        <v>855508</v>
       </c>
       <c r="BA31" s="11">
-        <v>627552</v>
+        <v>1304982</v>
       </c>
       <c r="BB31" s="11">
-        <v>855508</v>
+        <v>1215959</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4099,39 +4099,39 @@
       <c r="V32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>58</v>
+      <c r="W32" s="13">
+        <v>121878</v>
+      </c>
+      <c r="X32" s="13">
+        <v>85611</v>
       </c>
       <c r="Y32" s="13">
-        <v>121878</v>
+        <v>78826</v>
       </c>
       <c r="Z32" s="13">
-        <v>85611</v>
+        <v>106761</v>
       </c>
       <c r="AA32" s="13">
-        <v>78826</v>
+        <v>85491</v>
       </c>
       <c r="AB32" s="13">
-        <v>106761</v>
+        <v>97876</v>
       </c>
       <c r="AC32" s="13">
-        <v>85491</v>
+        <v>93514</v>
       </c>
       <c r="AD32" s="13">
-        <v>97876</v>
+        <v>84526</v>
       </c>
       <c r="AE32" s="13">
-        <v>93514</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>84526</v>
-      </c>
-      <c r="AG32" s="13">
         <v>100182</v>
       </c>
+      <c r="AF32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4159,15 +4159,15 @@
       <c r="AP32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR32" s="13">
-        <v>85067</v>
-      </c>
-      <c r="AS32" s="13">
+      <c r="AQ32" s="13">
         <v>86030</v>
       </c>
+      <c r="AR32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS32" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT32" s="13" t="s">
         <v>58</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4258,104 +4258,104 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>206743</v>
+      </c>
+      <c r="X33" s="11">
+        <v>186120</v>
       </c>
       <c r="Y33" s="11">
-        <v>206743</v>
+        <v>219603</v>
       </c>
       <c r="Z33" s="11">
-        <v>186120</v>
+        <v>138595</v>
       </c>
       <c r="AA33" s="11">
-        <v>219603</v>
+        <v>191030</v>
       </c>
       <c r="AB33" s="11">
-        <v>138595</v>
+        <v>125633</v>
       </c>
       <c r="AC33" s="11">
-        <v>191030</v>
+        <v>138908</v>
       </c>
       <c r="AD33" s="11">
-        <v>125633</v>
+        <v>123213</v>
       </c>
       <c r="AE33" s="11">
-        <v>138908</v>
+        <v>140887</v>
       </c>
       <c r="AF33" s="11">
-        <v>123213</v>
+        <v>142466</v>
       </c>
       <c r="AG33" s="11">
-        <v>140887</v>
+        <v>175338</v>
       </c>
       <c r="AH33" s="11">
-        <v>142466</v>
+        <v>250014</v>
       </c>
       <c r="AI33" s="11">
-        <v>175338</v>
+        <v>138150</v>
       </c>
       <c r="AJ33" s="11">
-        <v>250014</v>
+        <v>230905</v>
       </c>
       <c r="AK33" s="11">
-        <v>138150</v>
+        <v>232825</v>
       </c>
       <c r="AL33" s="11">
-        <v>230905</v>
+        <v>219167</v>
       </c>
       <c r="AM33" s="11">
-        <v>232825</v>
+        <v>192763</v>
       </c>
       <c r="AN33" s="11">
-        <v>219167</v>
+        <v>206733</v>
       </c>
       <c r="AO33" s="11">
-        <v>192763</v>
+        <v>189384</v>
       </c>
       <c r="AP33" s="11">
-        <v>206733</v>
+        <v>38075</v>
       </c>
       <c r="AQ33" s="11">
-        <v>189384</v>
+        <v>38242</v>
       </c>
       <c r="AR33" s="11">
-        <v>38075</v>
+        <v>158407</v>
       </c>
       <c r="AS33" s="11">
-        <v>38242</v>
+        <v>197007</v>
       </c>
       <c r="AT33" s="11">
-        <v>158407</v>
+        <v>225573</v>
       </c>
       <c r="AU33" s="11">
-        <v>197007</v>
+        <v>182592</v>
       </c>
       <c r="AV33" s="11">
-        <v>225573</v>
+        <v>193746</v>
       </c>
       <c r="AW33" s="11">
-        <v>182592</v>
+        <v>204267</v>
       </c>
       <c r="AX33" s="11">
-        <v>193746</v>
+        <v>275647</v>
       </c>
       <c r="AY33" s="11">
-        <v>204267</v>
+        <v>114191</v>
       </c>
       <c r="AZ33" s="11">
-        <v>275647</v>
+        <v>110003</v>
       </c>
       <c r="BA33" s="11">
-        <v>114191</v>
+        <v>225134</v>
       </c>
       <c r="BB33" s="11">
-        <v>110003</v>
+        <v>81644</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4444,77 +4444,77 @@
       <c r="AE34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG34" s="13" t="s">
-        <v>58</v>
+      <c r="AF34" s="13">
+        <v>68091</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>127691</v>
       </c>
       <c r="AH34" s="13">
-        <v>68091</v>
+        <v>140353</v>
       </c>
       <c r="AI34" s="13">
-        <v>127691</v>
+        <v>123855</v>
       </c>
       <c r="AJ34" s="13">
-        <v>140353</v>
+        <v>114719</v>
       </c>
       <c r="AK34" s="13">
-        <v>123855</v>
+        <v>118876</v>
       </c>
       <c r="AL34" s="13">
-        <v>114719</v>
+        <v>66307</v>
       </c>
       <c r="AM34" s="13">
-        <v>118876</v>
+        <v>100918</v>
       </c>
       <c r="AN34" s="13">
-        <v>66307</v>
+        <v>81510</v>
       </c>
       <c r="AO34" s="13">
-        <v>100918</v>
+        <v>59708</v>
       </c>
       <c r="AP34" s="13">
-        <v>81510</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>59708</v>
-      </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS34" s="13" t="s">
-        <v>58</v>
+        <v>85067</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR34" s="13">
+        <v>99905</v>
+      </c>
+      <c r="AS34" s="13">
+        <v>89183</v>
       </c>
       <c r="AT34" s="13">
-        <v>99905</v>
+        <v>130589</v>
       </c>
       <c r="AU34" s="13">
-        <v>89183</v>
+        <v>100244</v>
       </c>
       <c r="AV34" s="13">
-        <v>130589</v>
+        <v>93413</v>
       </c>
       <c r="AW34" s="13">
-        <v>100244</v>
+        <v>103354</v>
       </c>
       <c r="AX34" s="13">
-        <v>93413</v>
+        <v>15803</v>
       </c>
       <c r="AY34" s="13">
-        <v>103354</v>
+        <v>150097</v>
       </c>
       <c r="AZ34" s="13">
-        <v>15803</v>
+        <v>109202</v>
       </c>
       <c r="BA34" s="13">
-        <v>150097</v>
+        <v>94435</v>
       </c>
       <c r="BB34" s="13">
-        <v>109202</v>
+        <v>187176</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
@@ -4575,103 +4575,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="15">
-        <v>0</v>
+        <v>1308294</v>
       </c>
       <c r="X35" s="15">
-        <v>0</v>
+        <v>1353858</v>
       </c>
       <c r="Y35" s="15">
-        <v>1308294</v>
+        <v>1350976</v>
       </c>
       <c r="Z35" s="15">
-        <v>1353858</v>
+        <v>945704</v>
       </c>
       <c r="AA35" s="15">
-        <v>1350976</v>
+        <v>1022411</v>
       </c>
       <c r="AB35" s="15">
-        <v>945704</v>
+        <v>786936</v>
       </c>
       <c r="AC35" s="15">
-        <v>1022411</v>
+        <v>960913</v>
       </c>
       <c r="AD35" s="15">
-        <v>786936</v>
+        <v>941900</v>
       </c>
       <c r="AE35" s="15">
-        <v>960913</v>
+        <v>925442</v>
       </c>
       <c r="AF35" s="15">
-        <v>941900</v>
+        <v>949576</v>
       </c>
       <c r="AG35" s="15">
-        <v>925442</v>
+        <v>1195276</v>
       </c>
       <c r="AH35" s="15">
-        <v>949576</v>
+        <v>1599264</v>
       </c>
       <c r="AI35" s="15">
-        <v>1195276</v>
+        <v>1187023</v>
       </c>
       <c r="AJ35" s="15">
-        <v>1599264</v>
+        <v>1159249</v>
       </c>
       <c r="AK35" s="15">
-        <v>1187023</v>
+        <v>1172241</v>
       </c>
       <c r="AL35" s="15">
-        <v>1159249</v>
+        <v>1003267</v>
       </c>
       <c r="AM35" s="15">
-        <v>1172241</v>
+        <v>1026511</v>
       </c>
       <c r="AN35" s="15">
-        <v>1003267</v>
+        <v>975248</v>
       </c>
       <c r="AO35" s="15">
-        <v>1026511</v>
+        <v>925679</v>
       </c>
       <c r="AP35" s="15">
-        <v>975248</v>
+        <v>977191</v>
       </c>
       <c r="AQ35" s="15">
-        <v>925679</v>
+        <v>591340</v>
       </c>
       <c r="AR35" s="15">
-        <v>977191</v>
+        <v>933789</v>
       </c>
       <c r="AS35" s="15">
-        <v>591340</v>
+        <v>1347061</v>
       </c>
       <c r="AT35" s="15">
-        <v>933789</v>
+        <v>1612480</v>
       </c>
       <c r="AU35" s="15">
-        <v>1347061</v>
+        <v>1421558</v>
       </c>
       <c r="AV35" s="15">
-        <v>1612480</v>
+        <v>1242813</v>
       </c>
       <c r="AW35" s="15">
-        <v>1421558</v>
+        <v>1263153</v>
       </c>
       <c r="AX35" s="15">
-        <v>1242813</v>
+        <v>1266801</v>
       </c>
       <c r="AY35" s="15">
-        <v>1263153</v>
+        <v>891840</v>
       </c>
       <c r="AZ35" s="15">
-        <v>1266801</v>
+        <v>1074713</v>
       </c>
       <c r="BA35" s="15">
-        <v>891840</v>
+        <v>1624551</v>
       </c>
       <c r="BB35" s="15">
-        <v>1074713</v>
+        <v>1484779</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4790,104 +4790,104 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>181190</v>
+      </c>
+      <c r="X37" s="11">
+        <v>285984</v>
       </c>
       <c r="Y37" s="11">
-        <v>181190</v>
+        <v>330009</v>
       </c>
       <c r="Z37" s="11">
-        <v>285984</v>
+        <v>160912</v>
       </c>
       <c r="AA37" s="11">
-        <v>330009</v>
+        <v>301953</v>
       </c>
       <c r="AB37" s="11">
-        <v>160912</v>
+        <v>309723</v>
       </c>
       <c r="AC37" s="11">
-        <v>301953</v>
+        <v>276356</v>
       </c>
       <c r="AD37" s="11">
-        <v>309723</v>
+        <v>263260</v>
       </c>
       <c r="AE37" s="11">
-        <v>276356</v>
+        <v>300280</v>
       </c>
       <c r="AF37" s="11">
-        <v>263260</v>
+        <v>189474</v>
       </c>
       <c r="AG37" s="11">
-        <v>300280</v>
+        <v>305722</v>
       </c>
       <c r="AH37" s="11">
-        <v>189474</v>
+        <v>338249</v>
       </c>
       <c r="AI37" s="11">
-        <v>305722</v>
+        <v>538853</v>
       </c>
       <c r="AJ37" s="11">
-        <v>338249</v>
+        <v>190523</v>
       </c>
       <c r="AK37" s="11">
-        <v>538853</v>
+        <v>339166</v>
       </c>
       <c r="AL37" s="11">
-        <v>190523</v>
+        <v>298118</v>
       </c>
       <c r="AM37" s="11">
-        <v>339166</v>
+        <v>185640</v>
       </c>
       <c r="AN37" s="11">
-        <v>298118</v>
+        <v>176389</v>
       </c>
       <c r="AO37" s="11">
-        <v>185640</v>
+        <v>73665</v>
       </c>
       <c r="AP37" s="11">
-        <v>176389</v>
+        <v>120868</v>
       </c>
       <c r="AQ37" s="11">
-        <v>73665</v>
+        <v>531566</v>
       </c>
       <c r="AR37" s="11">
-        <v>120868</v>
+        <v>387294</v>
       </c>
       <c r="AS37" s="11">
-        <v>531566</v>
+        <v>4382</v>
       </c>
       <c r="AT37" s="11">
-        <v>387294</v>
+        <v>414551</v>
       </c>
       <c r="AU37" s="11">
-        <v>4382</v>
+        <v>189931</v>
       </c>
       <c r="AV37" s="11">
-        <v>414551</v>
+        <v>480691</v>
       </c>
       <c r="AW37" s="11">
-        <v>189931</v>
+        <v>437942</v>
       </c>
       <c r="AX37" s="11">
-        <v>480691</v>
+        <v>432674</v>
       </c>
       <c r="AY37" s="11">
-        <v>437942</v>
+        <v>297422</v>
       </c>
       <c r="AZ37" s="11">
-        <v>432674</v>
+        <v>1090</v>
       </c>
       <c r="BA37" s="11">
-        <v>297422</v>
+        <v>430121</v>
       </c>
       <c r="BB37" s="11">
-        <v>1090</v>
+        <v>116829</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -4949,17 +4949,17 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y38" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="13">
-        <v>0</v>
+      <c r="W38" s="13">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA38" s="13" t="s">
         <v>58</v>
@@ -4973,23 +4973,23 @@
       <c r="AD38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG38" s="13">
+      <c r="AE38" s="13">
         <v>12405</v>
       </c>
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH38" s="13">
         <v>0</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK38" s="13" t="s">
         <v>58</v>
@@ -5006,17 +5006,17 @@
       <c r="AO38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="13">
-        <v>0</v>
+      <c r="AP38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT38" s="13" t="s">
         <v>58</v>
@@ -5046,7 +5046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5108,104 +5108,104 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>88012</v>
+      </c>
+      <c r="X39" s="11">
+        <v>53090</v>
       </c>
       <c r="Y39" s="11">
-        <v>88012</v>
+        <v>108564</v>
       </c>
       <c r="Z39" s="11">
-        <v>53090</v>
+        <v>8031</v>
       </c>
       <c r="AA39" s="11">
-        <v>108564</v>
+        <v>77477</v>
       </c>
       <c r="AB39" s="11">
-        <v>8031</v>
+        <v>40769</v>
       </c>
       <c r="AC39" s="11">
-        <v>77477</v>
+        <v>53501</v>
       </c>
       <c r="AD39" s="11">
-        <v>40769</v>
+        <v>89783</v>
       </c>
       <c r="AE39" s="11">
-        <v>53501</v>
+        <v>96771</v>
       </c>
       <c r="AF39" s="11">
-        <v>89783</v>
+        <v>67002</v>
       </c>
       <c r="AG39" s="11">
-        <v>96771</v>
+        <v>154038</v>
       </c>
       <c r="AH39" s="11">
-        <v>67002</v>
+        <v>65993</v>
       </c>
       <c r="AI39" s="11">
-        <v>154038</v>
+        <v>21456</v>
       </c>
       <c r="AJ39" s="11">
-        <v>65993</v>
+        <v>49018</v>
       </c>
       <c r="AK39" s="11">
-        <v>21456</v>
+        <v>91212</v>
       </c>
       <c r="AL39" s="11">
-        <v>49018</v>
+        <v>82571</v>
       </c>
       <c r="AM39" s="11">
-        <v>91212</v>
+        <v>28028</v>
       </c>
       <c r="AN39" s="11">
-        <v>82571</v>
+        <v>31898</v>
       </c>
       <c r="AO39" s="11">
-        <v>28028</v>
+        <v>2546</v>
       </c>
       <c r="AP39" s="11">
-        <v>31898</v>
+        <v>20788</v>
       </c>
       <c r="AQ39" s="11">
-        <v>2546</v>
+        <v>142861</v>
       </c>
       <c r="AR39" s="11">
-        <v>20788</v>
+        <v>31025</v>
       </c>
       <c r="AS39" s="11">
-        <v>142861</v>
+        <v>538</v>
       </c>
       <c r="AT39" s="11">
-        <v>31025</v>
+        <v>11030</v>
       </c>
       <c r="AU39" s="11">
-        <v>538</v>
+        <v>6323</v>
       </c>
       <c r="AV39" s="11">
-        <v>11030</v>
+        <v>14371</v>
       </c>
       <c r="AW39" s="11">
-        <v>6323</v>
+        <v>9338</v>
       </c>
       <c r="AX39" s="11">
-        <v>14371</v>
+        <v>23735</v>
       </c>
       <c r="AY39" s="11">
-        <v>9338</v>
+        <v>14202</v>
       </c>
       <c r="AZ39" s="11">
-        <v>23735</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="11">
-        <v>14202</v>
+        <v>5837</v>
       </c>
       <c r="BB39" s="11">
-        <v>0</v>
+        <v>14893</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5330,41 +5330,41 @@
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS40" s="13" t="s">
-        <v>58</v>
+      <c r="AR40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>0</v>
       </c>
       <c r="AT40" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AU40" s="13">
         <v>0</v>
       </c>
       <c r="AV40" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AW40" s="13">
         <v>0</v>
       </c>
       <c r="AX40" s="13">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AY40" s="13">
-        <v>0</v>
+        <v>25440</v>
       </c>
       <c r="AZ40" s="13">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="13">
-        <v>25440</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>72</v>
       </c>
@@ -5425,103 +5425,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>269202</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>339074</v>
       </c>
       <c r="Y41" s="15">
-        <v>269202</v>
+        <v>438573</v>
       </c>
       <c r="Z41" s="15">
-        <v>339074</v>
+        <v>168943</v>
       </c>
       <c r="AA41" s="15">
-        <v>438573</v>
+        <v>379430</v>
       </c>
       <c r="AB41" s="15">
-        <v>168943</v>
+        <v>350492</v>
       </c>
       <c r="AC41" s="15">
-        <v>379430</v>
+        <v>329857</v>
       </c>
       <c r="AD41" s="15">
-        <v>350492</v>
+        <v>353043</v>
       </c>
       <c r="AE41" s="15">
-        <v>329857</v>
+        <v>409456</v>
       </c>
       <c r="AF41" s="15">
-        <v>353043</v>
+        <v>256476</v>
       </c>
       <c r="AG41" s="15">
-        <v>409456</v>
+        <v>459760</v>
       </c>
       <c r="AH41" s="15">
-        <v>256476</v>
+        <v>404242</v>
       </c>
       <c r="AI41" s="15">
-        <v>459760</v>
+        <v>560309</v>
       </c>
       <c r="AJ41" s="15">
-        <v>404242</v>
+        <v>239541</v>
       </c>
       <c r="AK41" s="15">
-        <v>560309</v>
+        <v>430378</v>
       </c>
       <c r="AL41" s="15">
-        <v>239541</v>
+        <v>380689</v>
       </c>
       <c r="AM41" s="15">
-        <v>430378</v>
+        <v>213668</v>
       </c>
       <c r="AN41" s="15">
-        <v>380689</v>
+        <v>208287</v>
       </c>
       <c r="AO41" s="15">
-        <v>213668</v>
+        <v>76211</v>
       </c>
       <c r="AP41" s="15">
-        <v>208287</v>
+        <v>141656</v>
       </c>
       <c r="AQ41" s="15">
-        <v>76211</v>
+        <v>674427</v>
       </c>
       <c r="AR41" s="15">
-        <v>141656</v>
+        <v>418319</v>
       </c>
       <c r="AS41" s="15">
-        <v>674427</v>
+        <v>4920</v>
       </c>
       <c r="AT41" s="15">
-        <v>418319</v>
+        <v>425603</v>
       </c>
       <c r="AU41" s="15">
-        <v>4920</v>
+        <v>196254</v>
       </c>
       <c r="AV41" s="15">
-        <v>425603</v>
+        <v>495062</v>
       </c>
       <c r="AW41" s="15">
-        <v>196254</v>
+        <v>447280</v>
       </c>
       <c r="AX41" s="15">
-        <v>495062</v>
+        <v>456608</v>
       </c>
       <c r="AY41" s="15">
-        <v>447280</v>
+        <v>337064</v>
       </c>
       <c r="AZ41" s="15">
-        <v>456608</v>
+        <v>1090</v>
       </c>
       <c r="BA41" s="15">
-        <v>337064</v>
+        <v>435958</v>
       </c>
       <c r="BB41" s="15">
-        <v>1090</v>
+        <v>131722</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>65</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>66</v>
       </c>
@@ -5638,11 +5638,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>73</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>56</v>
       </c>
@@ -5860,44 +5860,44 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>-2359</v>
+      </c>
+      <c r="Z45" s="11">
+        <v>0</v>
       </c>
       <c r="AA45" s="11">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="11">
         <v>0</v>
       </c>
       <c r="AC45" s="11">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AD45" s="11">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AE45" s="11">
-        <v>-94</v>
-      </c>
-      <c r="AF45" s="11">
-        <v>-73</v>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG45" s="11">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AH45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AI45" s="11">
-        <v>-804</v>
+        <v>-673</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK45" s="11">
-        <v>-673</v>
+      <c r="AK45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL45" s="11" t="s">
         <v>58</v>
@@ -5911,47 +5911,47 @@
       <c r="AO45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR45" s="11">
+      <c r="AP45" s="11">
         <v>-12</v>
       </c>
-      <c r="AS45" s="11">
+      <c r="AQ45" s="11">
         <v>-27520</v>
       </c>
+      <c r="AR45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU45" s="11" t="s">
-        <v>58</v>
+      <c r="AU45" s="11">
+        <v>-8</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW45" s="11">
-        <v>-8</v>
+        <v>-257927</v>
       </c>
       <c r="AX45" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY45" s="11">
-        <v>-257927</v>
+        <v>0</v>
       </c>
       <c r="AZ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA45" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB45" s="11" t="s">
-        <v>58</v>
+      <c r="BA45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB45" s="11">
+        <v>-35944</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>59</v>
       </c>
@@ -6049,14 +6049,14 @@
       <c r="AH46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI46" s="13" t="s">
-        <v>58</v>
+      <c r="AI46" s="13">
+        <v>-22</v>
       </c>
       <c r="AJ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK46" s="13">
-        <v>-22</v>
+      <c r="AK46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL46" s="13" t="s">
         <v>58</v>
@@ -6070,17 +6070,17 @@
       <c r="AO46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="13">
-        <v>0</v>
+      <c r="AP46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>58</v>
@@ -6110,7 +6110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>60</v>
       </c>
@@ -6214,14 +6214,14 @@
       <c r="AJ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK47" s="11" t="s">
-        <v>58</v>
+      <c r="AK47" s="11">
+        <v>-376</v>
       </c>
       <c r="AL47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM47" s="11">
-        <v>-376</v>
+      <c r="AM47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN47" s="11" t="s">
         <v>58</v>
@@ -6229,47 +6229,47 @@
       <c r="AO47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS47" s="11">
+      <c r="AP47" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="11">
         <v>-10000</v>
       </c>
+      <c r="AR47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS47" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU47" s="11" t="s">
-        <v>58</v>
+      <c r="AU47" s="11">
+        <v>-1</v>
       </c>
       <c r="AV47" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW47" s="11">
-        <v>-1</v>
+        <v>-53336</v>
       </c>
       <c r="AX47" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY47" s="11">
-        <v>-53336</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA47" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB47" s="11" t="s">
-        <v>58</v>
+      <c r="BA47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB47" s="11">
+        <v>-12355</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>61</v>
       </c>
@@ -6403,14 +6403,14 @@
       <c r="AT48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU48" s="13" t="s">
-        <v>58</v>
+      <c r="AU48" s="13">
+        <v>-15547</v>
       </c>
       <c r="AV48" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AW48" s="13">
-        <v>-15547</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="13" t="s">
         <v>58</v>
@@ -6421,14 +6421,14 @@
       <c r="AZ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA48" s="13">
-        <v>0</v>
+      <c r="BA48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB48" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>74</v>
       </c>
@@ -6488,56 +6488,56 @@
       <c r="V49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="15" t="s">
-        <v>58</v>
+      <c r="W49" s="15">
+        <v>0</v>
+      </c>
+      <c r="X49" s="15">
+        <v>0</v>
       </c>
       <c r="Y49" s="15">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="Z49" s="15">
         <v>0</v>
       </c>
       <c r="AA49" s="15">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="AB49" s="15">
         <v>0</v>
       </c>
       <c r="AC49" s="15">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AD49" s="15">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AE49" s="15">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="15">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="15">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AH49" s="15">
         <v>0</v>
       </c>
       <c r="AI49" s="15">
-        <v>-804</v>
+        <v>-695</v>
       </c>
       <c r="AJ49" s="15">
         <v>0</v>
       </c>
       <c r="AK49" s="15">
-        <v>-695</v>
+        <v>-376</v>
       </c>
       <c r="AL49" s="15">
         <v>0</v>
       </c>
       <c r="AM49" s="15">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AN49" s="15">
         <v>0</v>
@@ -6546,34 +6546,34 @@
         <v>0</v>
       </c>
       <c r="AP49" s="15">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AQ49" s="15">
-        <v>0</v>
+        <v>-37520</v>
       </c>
       <c r="AR49" s="15">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="15">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="15">
         <v>0</v>
       </c>
       <c r="AU49" s="15">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AV49" s="15">
         <v>0</v>
       </c>
       <c r="AW49" s="15">
-        <v>-15556</v>
+        <v>-311263</v>
       </c>
       <c r="AX49" s="15">
         <v>0</v>
       </c>
       <c r="AY49" s="15">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="15">
         <v>0</v>
@@ -6582,10 +6582,10 @@
         <v>0</v>
       </c>
       <c r="BB49" s="15">
-        <v>0</v>
+        <v>-48299</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="18" t="s">
         <v>67</v>
       </c>
@@ -6646,103 +6646,103 @@
         <v>0</v>
       </c>
       <c r="W50" s="19">
-        <v>0</v>
+        <v>1577496</v>
       </c>
       <c r="X50" s="19">
-        <v>0</v>
+        <v>1692932</v>
       </c>
       <c r="Y50" s="19">
-        <v>1577496</v>
+        <v>1787190</v>
       </c>
       <c r="Z50" s="19">
-        <v>1692932</v>
+        <v>1114647</v>
       </c>
       <c r="AA50" s="19">
-        <v>1787190</v>
+        <v>1401841</v>
       </c>
       <c r="AB50" s="19">
-        <v>1114647</v>
+        <v>1137428</v>
       </c>
       <c r="AC50" s="19">
-        <v>1401841</v>
+        <v>1290676</v>
       </c>
       <c r="AD50" s="19">
-        <v>1137428</v>
+        <v>1294870</v>
       </c>
       <c r="AE50" s="19">
-        <v>1290676</v>
+        <v>1334898</v>
       </c>
       <c r="AF50" s="19">
-        <v>1294870</v>
+        <v>1206052</v>
       </c>
       <c r="AG50" s="19">
-        <v>1334898</v>
+        <v>1654232</v>
       </c>
       <c r="AH50" s="19">
-        <v>1206052</v>
+        <v>2003506</v>
       </c>
       <c r="AI50" s="19">
-        <v>1654232</v>
+        <v>1746637</v>
       </c>
       <c r="AJ50" s="19">
-        <v>2003506</v>
+        <v>1398790</v>
       </c>
       <c r="AK50" s="19">
-        <v>1746637</v>
+        <v>1602243</v>
       </c>
       <c r="AL50" s="19">
-        <v>1398790</v>
+        <v>1383956</v>
       </c>
       <c r="AM50" s="19">
-        <v>1602243</v>
+        <v>1240179</v>
       </c>
       <c r="AN50" s="19">
-        <v>1383956</v>
+        <v>1183535</v>
       </c>
       <c r="AO50" s="19">
-        <v>1240179</v>
+        <v>1001890</v>
       </c>
       <c r="AP50" s="19">
-        <v>1183535</v>
+        <v>1118835</v>
       </c>
       <c r="AQ50" s="19">
-        <v>1001890</v>
+        <v>1228247</v>
       </c>
       <c r="AR50" s="19">
-        <v>1118835</v>
+        <v>1352108</v>
       </c>
       <c r="AS50" s="19">
-        <v>1228247</v>
+        <v>1351981</v>
       </c>
       <c r="AT50" s="19">
-        <v>1352108</v>
+        <v>2038083</v>
       </c>
       <c r="AU50" s="19">
-        <v>1351981</v>
+        <v>1602256</v>
       </c>
       <c r="AV50" s="19">
-        <v>2038083</v>
+        <v>1737875</v>
       </c>
       <c r="AW50" s="19">
-        <v>1602256</v>
+        <v>1399170</v>
       </c>
       <c r="AX50" s="19">
-        <v>1737875</v>
+        <v>1723409</v>
       </c>
       <c r="AY50" s="19">
-        <v>1399170</v>
+        <v>1228904</v>
       </c>
       <c r="AZ50" s="19">
-        <v>1723409</v>
+        <v>1075803</v>
       </c>
       <c r="BA50" s="19">
-        <v>1228904</v>
+        <v>2060509</v>
       </c>
       <c r="BB50" s="19">
-        <v>1075803</v>
+        <v>1568202</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6797,7 +6797,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6852,7 +6852,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6907,7 +6907,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>75</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -7119,7 +7119,7 @@
       <c r="BA55" s="1"/>
       <c r="BB55" s="1"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>76</v>
       </c>
@@ -7176,7 +7176,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7238,104 +7238,104 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>377966</v>
+      </c>
+      <c r="X57" s="11">
+        <v>484738</v>
       </c>
       <c r="Y57" s="11">
-        <v>377966</v>
+        <v>469422</v>
       </c>
       <c r="Z57" s="11">
-        <v>484738</v>
+        <v>346503</v>
       </c>
       <c r="AA57" s="11">
-        <v>469422</v>
+        <v>387412</v>
       </c>
       <c r="AB57" s="11">
-        <v>346503</v>
+        <v>283224</v>
       </c>
       <c r="AC57" s="11">
-        <v>387412</v>
+        <v>383105</v>
       </c>
       <c r="AD57" s="11">
-        <v>283224</v>
+        <v>379537</v>
       </c>
       <c r="AE57" s="11">
-        <v>383105</v>
+        <v>363206</v>
       </c>
       <c r="AF57" s="11">
-        <v>379537</v>
+        <v>417300</v>
       </c>
       <c r="AG57" s="11">
-        <v>363206</v>
+        <v>505141</v>
       </c>
       <c r="AH57" s="11">
-        <v>417300</v>
+        <v>704811</v>
       </c>
       <c r="AI57" s="11">
-        <v>505141</v>
+        <v>586804</v>
       </c>
       <c r="AJ57" s="11">
-        <v>704811</v>
+        <v>515653</v>
       </c>
       <c r="AK57" s="11">
-        <v>586804</v>
+        <v>560068</v>
       </c>
       <c r="AL57" s="11">
-        <v>515653</v>
+        <v>486218</v>
       </c>
       <c r="AM57" s="11">
-        <v>560068</v>
+        <v>510584</v>
       </c>
       <c r="AN57" s="11">
-        <v>486218</v>
+        <v>523238</v>
       </c>
       <c r="AO57" s="11">
-        <v>510584</v>
+        <v>525300</v>
       </c>
       <c r="AP57" s="11">
-        <v>523238</v>
+        <v>647446</v>
       </c>
       <c r="AQ57" s="11">
-        <v>525300</v>
+        <v>361766</v>
       </c>
       <c r="AR57" s="11">
-        <v>647446</v>
+        <v>529474</v>
       </c>
       <c r="AS57" s="11">
-        <v>361766</v>
+        <v>962843</v>
       </c>
       <c r="AT57" s="11">
-        <v>529474</v>
+        <v>1155390</v>
       </c>
       <c r="AU57" s="11">
-        <v>962843</v>
+        <v>1058510</v>
       </c>
       <c r="AV57" s="11">
-        <v>1155390</v>
+        <v>927881</v>
       </c>
       <c r="AW57" s="11">
-        <v>1058510</v>
+        <v>969953</v>
       </c>
       <c r="AX57" s="11">
-        <v>927881</v>
+        <v>915714</v>
       </c>
       <c r="AY57" s="11">
-        <v>969953</v>
+        <v>671958</v>
       </c>
       <c r="AZ57" s="11">
-        <v>915714</v>
+        <v>913145</v>
       </c>
       <c r="BA57" s="11">
-        <v>671958</v>
+        <v>1372317</v>
       </c>
       <c r="BB57" s="11">
-        <v>913145</v>
+        <v>1306840</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7397,39 +7397,39 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>33000</v>
+      </c>
+      <c r="X58" s="13">
+        <v>24698</v>
       </c>
       <c r="Y58" s="13">
-        <v>33000</v>
+        <v>22632</v>
       </c>
       <c r="Z58" s="13">
-        <v>24698</v>
+        <v>34146</v>
       </c>
       <c r="AA58" s="13">
-        <v>22632</v>
+        <v>27973</v>
       </c>
       <c r="AB58" s="13">
-        <v>34146</v>
+        <v>32017</v>
       </c>
       <c r="AC58" s="13">
-        <v>27973</v>
+        <v>29834</v>
       </c>
       <c r="AD58" s="13">
-        <v>32017</v>
+        <v>26238</v>
       </c>
       <c r="AE58" s="13">
-        <v>29834</v>
-      </c>
-      <c r="AF58" s="13">
-        <v>26238</v>
-      </c>
-      <c r="AG58" s="13">
         <v>35294</v>
       </c>
+      <c r="AF58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH58" s="13" t="s">
         <v>58</v>
       </c>
@@ -7457,15 +7457,15 @@
       <c r="AP58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR58" s="13">
-        <v>47761</v>
-      </c>
-      <c r="AS58" s="13">
+      <c r="AQ58" s="13">
         <v>47148</v>
       </c>
+      <c r="AR58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT58" s="13" t="s">
         <v>58</v>
       </c>
@@ -7494,7 +7494,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
@@ -7556,104 +7556,104 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>120475</v>
+      </c>
+      <c r="X59" s="11">
+        <v>119664</v>
       </c>
       <c r="Y59" s="11">
-        <v>120475</v>
+        <v>134603</v>
       </c>
       <c r="Z59" s="11">
-        <v>119664</v>
+        <v>93784</v>
       </c>
       <c r="AA59" s="11">
-        <v>134603</v>
+        <v>134982</v>
       </c>
       <c r="AB59" s="11">
-        <v>93784</v>
+        <v>84872</v>
       </c>
       <c r="AC59" s="11">
-        <v>134982</v>
+        <v>101005</v>
       </c>
       <c r="AD59" s="11">
-        <v>84872</v>
+        <v>92774</v>
       </c>
       <c r="AE59" s="11">
-        <v>101005</v>
+        <v>102702</v>
       </c>
       <c r="AF59" s="11">
-        <v>92774</v>
+        <v>110394</v>
       </c>
       <c r="AG59" s="11">
-        <v>102702</v>
+        <v>136446</v>
       </c>
       <c r="AH59" s="11">
-        <v>110394</v>
+        <v>197004</v>
       </c>
       <c r="AI59" s="11">
-        <v>136446</v>
+        <v>125079</v>
       </c>
       <c r="AJ59" s="11">
-        <v>197004</v>
+        <v>202413</v>
       </c>
       <c r="AK59" s="11">
-        <v>125079</v>
+        <v>204389</v>
       </c>
       <c r="AL59" s="11">
-        <v>202413</v>
+        <v>187686</v>
       </c>
       <c r="AM59" s="11">
-        <v>204389</v>
+        <v>170143</v>
       </c>
       <c r="AN59" s="11">
-        <v>187686</v>
+        <v>179325</v>
       </c>
       <c r="AO59" s="11">
-        <v>170143</v>
+        <v>168127</v>
       </c>
       <c r="AP59" s="11">
-        <v>179325</v>
+        <v>38118</v>
       </c>
       <c r="AQ59" s="11">
-        <v>168127</v>
+        <v>39297</v>
       </c>
       <c r="AR59" s="11">
-        <v>38118</v>
+        <v>146904</v>
       </c>
       <c r="AS59" s="11">
-        <v>39297</v>
+        <v>183237</v>
       </c>
       <c r="AT59" s="11">
-        <v>146904</v>
+        <v>208870</v>
       </c>
       <c r="AU59" s="11">
-        <v>183237</v>
+        <v>175142</v>
       </c>
       <c r="AV59" s="11">
-        <v>208870</v>
+        <v>176008</v>
       </c>
       <c r="AW59" s="11">
-        <v>175142</v>
+        <v>181110</v>
       </c>
       <c r="AX59" s="11">
-        <v>176008</v>
+        <v>264271</v>
       </c>
       <c r="AY59" s="11">
-        <v>181110</v>
+        <v>124530</v>
       </c>
       <c r="AZ59" s="11">
-        <v>264271</v>
+        <v>121988</v>
       </c>
       <c r="BA59" s="11">
-        <v>124530</v>
+        <v>240273</v>
       </c>
       <c r="BB59" s="11">
-        <v>121988</v>
+        <v>87116</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>61</v>
       </c>
@@ -7742,77 +7742,77 @@
       <c r="AE60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG60" s="13" t="s">
-        <v>58</v>
+      <c r="AF60" s="13">
+        <v>26245</v>
+      </c>
+      <c r="AG60" s="13">
+        <v>61856</v>
       </c>
       <c r="AH60" s="13">
-        <v>26245</v>
+        <v>67802</v>
       </c>
       <c r="AI60" s="13">
-        <v>61856</v>
+        <v>61484</v>
       </c>
       <c r="AJ60" s="13">
-        <v>67802</v>
+        <v>59403</v>
       </c>
       <c r="AK60" s="13">
-        <v>61484</v>
+        <v>64199</v>
       </c>
       <c r="AL60" s="13">
-        <v>59403</v>
+        <v>37627</v>
       </c>
       <c r="AM60" s="13">
-        <v>64199</v>
+        <v>56308</v>
       </c>
       <c r="AN60" s="13">
-        <v>37627</v>
+        <v>44349</v>
       </c>
       <c r="AO60" s="13">
-        <v>56308</v>
+        <v>33883</v>
       </c>
       <c r="AP60" s="13">
-        <v>44349</v>
-      </c>
-      <c r="AQ60" s="13">
-        <v>33883</v>
-      </c>
-      <c r="AR60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS60" s="13" t="s">
-        <v>58</v>
+        <v>47761</v>
+      </c>
+      <c r="AQ60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR60" s="13">
+        <v>55545</v>
+      </c>
+      <c r="AS60" s="13">
+        <v>55612</v>
       </c>
       <c r="AT60" s="13">
-        <v>55545</v>
+        <v>81389</v>
       </c>
       <c r="AU60" s="13">
-        <v>55612</v>
+        <v>62593</v>
       </c>
       <c r="AV60" s="13">
-        <v>81389</v>
+        <v>59882</v>
       </c>
       <c r="AW60" s="13">
-        <v>62593</v>
+        <v>66870</v>
       </c>
       <c r="AX60" s="13">
-        <v>59882</v>
+        <v>11181</v>
       </c>
       <c r="AY60" s="13">
-        <v>66870</v>
+        <v>109499</v>
       </c>
       <c r="AZ60" s="13">
-        <v>11181</v>
+        <v>93404</v>
       </c>
       <c r="BA60" s="13">
-        <v>109499</v>
+        <v>75929</v>
       </c>
       <c r="BB60" s="13">
-        <v>93404</v>
+        <v>144642</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>70</v>
       </c>
@@ -7873,103 +7873,103 @@
         <v>0</v>
       </c>
       <c r="W61" s="15">
-        <v>0</v>
+        <v>531441</v>
       </c>
       <c r="X61" s="15">
-        <v>0</v>
+        <v>629100</v>
       </c>
       <c r="Y61" s="15">
-        <v>531441</v>
+        <v>626657</v>
       </c>
       <c r="Z61" s="15">
-        <v>629100</v>
+        <v>474433</v>
       </c>
       <c r="AA61" s="15">
-        <v>626657</v>
+        <v>550367</v>
       </c>
       <c r="AB61" s="15">
-        <v>474433</v>
+        <v>400113</v>
       </c>
       <c r="AC61" s="15">
-        <v>550367</v>
+        <v>513944</v>
       </c>
       <c r="AD61" s="15">
-        <v>400113</v>
+        <v>498549</v>
       </c>
       <c r="AE61" s="15">
-        <v>513944</v>
+        <v>501202</v>
       </c>
       <c r="AF61" s="15">
-        <v>498549</v>
+        <v>553939</v>
       </c>
       <c r="AG61" s="15">
-        <v>501202</v>
+        <v>703443</v>
       </c>
       <c r="AH61" s="15">
-        <v>553939</v>
+        <v>969617</v>
       </c>
       <c r="AI61" s="15">
-        <v>703443</v>
+        <v>773367</v>
       </c>
       <c r="AJ61" s="15">
-        <v>969617</v>
+        <v>777469</v>
       </c>
       <c r="AK61" s="15">
-        <v>773367</v>
+        <v>828656</v>
       </c>
       <c r="AL61" s="15">
-        <v>777469</v>
+        <v>711531</v>
       </c>
       <c r="AM61" s="15">
-        <v>828656</v>
+        <v>737035</v>
       </c>
       <c r="AN61" s="15">
-        <v>711531</v>
+        <v>746912</v>
       </c>
       <c r="AO61" s="15">
-        <v>737035</v>
+        <v>727310</v>
       </c>
       <c r="AP61" s="15">
-        <v>746912</v>
+        <v>733325</v>
       </c>
       <c r="AQ61" s="15">
-        <v>727310</v>
+        <v>448211</v>
       </c>
       <c r="AR61" s="15">
-        <v>733325</v>
+        <v>731923</v>
       </c>
       <c r="AS61" s="15">
-        <v>448211</v>
+        <v>1201692</v>
       </c>
       <c r="AT61" s="15">
-        <v>731923</v>
+        <v>1445649</v>
       </c>
       <c r="AU61" s="15">
-        <v>1201692</v>
+        <v>1296245</v>
       </c>
       <c r="AV61" s="15">
-        <v>1445649</v>
+        <v>1163771</v>
       </c>
       <c r="AW61" s="15">
-        <v>1296245</v>
+        <v>1217933</v>
       </c>
       <c r="AX61" s="15">
-        <v>1163771</v>
+        <v>1191166</v>
       </c>
       <c r="AY61" s="15">
-        <v>1217933</v>
+        <v>905987</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1191166</v>
+        <v>1128537</v>
       </c>
       <c r="BA61" s="15">
-        <v>905987</v>
+        <v>1688519</v>
       </c>
       <c r="BB61" s="15">
-        <v>1128537</v>
+        <v>1538598</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>78</v>
       </c>
@@ -8026,7 +8026,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -8088,104 +8088,104 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>61064</v>
+      </c>
+      <c r="X63" s="11">
+        <v>109445</v>
       </c>
       <c r="Y63" s="11">
-        <v>61064</v>
+        <v>138345</v>
       </c>
       <c r="Z63" s="11">
-        <v>109445</v>
+        <v>72275</v>
       </c>
       <c r="AA63" s="11">
-        <v>138345</v>
+        <v>134176</v>
       </c>
       <c r="AB63" s="11">
-        <v>72275</v>
+        <v>137535</v>
       </c>
       <c r="AC63" s="11">
-        <v>134176</v>
+        <v>124744</v>
       </c>
       <c r="AD63" s="11">
-        <v>137535</v>
+        <v>108107</v>
       </c>
       <c r="AE63" s="11">
-        <v>124744</v>
+        <v>128613</v>
       </c>
       <c r="AF63" s="11">
-        <v>108107</v>
+        <v>76817</v>
       </c>
       <c r="AG63" s="11">
-        <v>128613</v>
+        <v>118283</v>
       </c>
       <c r="AH63" s="11">
-        <v>76817</v>
+        <v>136386</v>
       </c>
       <c r="AI63" s="11">
-        <v>118283</v>
+        <v>252613</v>
       </c>
       <c r="AJ63" s="11">
-        <v>136386</v>
+        <v>96259</v>
       </c>
       <c r="AK63" s="11">
-        <v>252613</v>
+        <v>172811</v>
       </c>
       <c r="AL63" s="11">
-        <v>96259</v>
+        <v>153659</v>
       </c>
       <c r="AM63" s="11">
-        <v>172811</v>
+        <v>109919</v>
       </c>
       <c r="AN63" s="11">
-        <v>153659</v>
+        <v>104877</v>
       </c>
       <c r="AO63" s="11">
-        <v>109919</v>
+        <v>41664</v>
       </c>
       <c r="AP63" s="11">
-        <v>104877</v>
+        <v>65290</v>
       </c>
       <c r="AQ63" s="11">
-        <v>41664</v>
+        <v>277275</v>
       </c>
       <c r="AR63" s="11">
-        <v>65290</v>
+        <v>215067</v>
       </c>
       <c r="AS63" s="11">
-        <v>277275</v>
+        <v>2840</v>
       </c>
       <c r="AT63" s="11">
-        <v>215067</v>
+        <v>287433</v>
       </c>
       <c r="AU63" s="11">
-        <v>2840</v>
+        <v>141649</v>
       </c>
       <c r="AV63" s="11">
-        <v>287433</v>
+        <v>357432</v>
       </c>
       <c r="AW63" s="11">
-        <v>141649</v>
+        <v>321942</v>
       </c>
       <c r="AX63" s="11">
-        <v>357432</v>
+        <v>330788</v>
       </c>
       <c r="AY63" s="11">
-        <v>321942</v>
+        <v>242405</v>
       </c>
       <c r="AZ63" s="11">
-        <v>330788</v>
+        <v>1469</v>
       </c>
       <c r="BA63" s="11">
-        <v>242405</v>
+        <v>322378</v>
       </c>
       <c r="BB63" s="11">
-        <v>1469</v>
+        <v>86903</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8247,17 +8247,17 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y64" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="13">
-        <v>0</v>
+      <c r="W64" s="13">
+        <v>0</v>
+      </c>
+      <c r="X64" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AA64" s="13" t="s">
         <v>58</v>
@@ -8271,14 +8271,14 @@
       <c r="AD64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF64" s="13" t="s">
-        <v>58</v>
+      <c r="AE64" s="13">
+        <v>3753</v>
+      </c>
+      <c r="AF64" s="13">
+        <v>0</v>
       </c>
       <c r="AG64" s="13">
-        <v>3753</v>
+        <v>0</v>
       </c>
       <c r="AH64" s="13">
         <v>0</v>
@@ -8310,11 +8310,11 @@
       <c r="AQ64" s="13">
         <v>0</v>
       </c>
-      <c r="AR64" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS64" s="13">
-        <v>0</v>
+      <c r="AR64" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT64" s="13" t="s">
         <v>58</v>
@@ -8344,7 +8344,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
@@ -8406,104 +8406,104 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>24977</v>
+      </c>
+      <c r="X65" s="11">
+        <v>18713</v>
       </c>
       <c r="Y65" s="11">
-        <v>24977</v>
+        <v>42718</v>
       </c>
       <c r="Z65" s="11">
-        <v>18713</v>
+        <v>4855</v>
       </c>
       <c r="AA65" s="11">
-        <v>42718</v>
+        <v>35145</v>
       </c>
       <c r="AB65" s="11">
-        <v>4855</v>
+        <v>17258</v>
       </c>
       <c r="AC65" s="11">
-        <v>35145</v>
+        <v>26378</v>
       </c>
       <c r="AD65" s="11">
-        <v>17258</v>
+        <v>38483</v>
       </c>
       <c r="AE65" s="11">
-        <v>26378</v>
+        <v>43705</v>
       </c>
       <c r="AF65" s="11">
-        <v>38483</v>
+        <v>28637</v>
       </c>
       <c r="AG65" s="11">
-        <v>43705</v>
+        <v>59364</v>
       </c>
       <c r="AH65" s="11">
-        <v>28637</v>
+        <v>23569</v>
       </c>
       <c r="AI65" s="11">
-        <v>59364</v>
+        <v>12215</v>
       </c>
       <c r="AJ65" s="11">
-        <v>23569</v>
+        <v>26010</v>
       </c>
       <c r="AK65" s="11">
-        <v>12215</v>
+        <v>47216</v>
       </c>
       <c r="AL65" s="11">
-        <v>26010</v>
+        <v>40907</v>
       </c>
       <c r="AM65" s="11">
-        <v>47216</v>
+        <v>17651</v>
       </c>
       <c r="AN65" s="11">
-        <v>40907</v>
+        <v>17918</v>
       </c>
       <c r="AO65" s="11">
-        <v>17651</v>
+        <v>1646</v>
       </c>
       <c r="AP65" s="11">
-        <v>17918</v>
+        <v>12277</v>
       </c>
       <c r="AQ65" s="11">
-        <v>1646</v>
+        <v>73893</v>
       </c>
       <c r="AR65" s="11">
-        <v>12277</v>
+        <v>17862</v>
       </c>
       <c r="AS65" s="11">
-        <v>73893</v>
+        <v>398</v>
       </c>
       <c r="AT65" s="11">
-        <v>17862</v>
+        <v>8585</v>
       </c>
       <c r="AU65" s="11">
-        <v>398</v>
+        <v>5145</v>
       </c>
       <c r="AV65" s="11">
-        <v>8585</v>
+        <v>12114</v>
       </c>
       <c r="AW65" s="11">
-        <v>5145</v>
+        <v>7796</v>
       </c>
       <c r="AX65" s="11">
-        <v>12114</v>
+        <v>21391</v>
       </c>
       <c r="AY65" s="11">
-        <v>7796</v>
+        <v>14591</v>
       </c>
       <c r="AZ65" s="11">
-        <v>21391</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="11">
-        <v>14591</v>
+        <v>5678</v>
       </c>
       <c r="BB65" s="11">
-        <v>0</v>
+        <v>12932</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>61</v>
       </c>
@@ -8628,41 +8628,41 @@
       <c r="AQ66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS66" s="13" t="s">
-        <v>58</v>
+      <c r="AR66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="13">
+        <v>0</v>
       </c>
       <c r="AT66" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AU66" s="13">
         <v>0</v>
       </c>
       <c r="AV66" s="13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="13">
         <v>0</v>
       </c>
       <c r="AX66" s="13">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AY66" s="13">
-        <v>0</v>
+        <v>14775</v>
       </c>
       <c r="AZ66" s="13">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="13">
-        <v>14775</v>
+        <v>0</v>
       </c>
       <c r="BB66" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>72</v>
       </c>
@@ -8723,103 +8723,103 @@
         <v>0</v>
       </c>
       <c r="W67" s="15">
-        <v>0</v>
+        <v>86041</v>
       </c>
       <c r="X67" s="15">
-        <v>0</v>
+        <v>128158</v>
       </c>
       <c r="Y67" s="15">
-        <v>86041</v>
+        <v>181063</v>
       </c>
       <c r="Z67" s="15">
-        <v>128158</v>
+        <v>77130</v>
       </c>
       <c r="AA67" s="15">
-        <v>181063</v>
+        <v>169321</v>
       </c>
       <c r="AB67" s="15">
-        <v>77130</v>
+        <v>154793</v>
       </c>
       <c r="AC67" s="15">
-        <v>169321</v>
+        <v>151122</v>
       </c>
       <c r="AD67" s="15">
-        <v>154793</v>
+        <v>146590</v>
       </c>
       <c r="AE67" s="15">
-        <v>151122</v>
+        <v>176071</v>
       </c>
       <c r="AF67" s="15">
-        <v>146590</v>
+        <v>105454</v>
       </c>
       <c r="AG67" s="15">
-        <v>176071</v>
+        <v>177647</v>
       </c>
       <c r="AH67" s="15">
-        <v>105454</v>
+        <v>159955</v>
       </c>
       <c r="AI67" s="15">
-        <v>177647</v>
+        <v>264828</v>
       </c>
       <c r="AJ67" s="15">
-        <v>159955</v>
+        <v>122269</v>
       </c>
       <c r="AK67" s="15">
-        <v>264828</v>
+        <v>220027</v>
       </c>
       <c r="AL67" s="15">
-        <v>122269</v>
+        <v>194566</v>
       </c>
       <c r="AM67" s="15">
-        <v>220027</v>
+        <v>127570</v>
       </c>
       <c r="AN67" s="15">
-        <v>194566</v>
+        <v>122795</v>
       </c>
       <c r="AO67" s="15">
-        <v>127570</v>
+        <v>43310</v>
       </c>
       <c r="AP67" s="15">
-        <v>122795</v>
+        <v>77567</v>
       </c>
       <c r="AQ67" s="15">
-        <v>43310</v>
+        <v>351168</v>
       </c>
       <c r="AR67" s="15">
-        <v>77567</v>
+        <v>232929</v>
       </c>
       <c r="AS67" s="15">
-        <v>351168</v>
+        <v>3238</v>
       </c>
       <c r="AT67" s="15">
-        <v>232929</v>
+        <v>296029</v>
       </c>
       <c r="AU67" s="15">
-        <v>3238</v>
+        <v>146794</v>
       </c>
       <c r="AV67" s="15">
-        <v>296029</v>
+        <v>369546</v>
       </c>
       <c r="AW67" s="15">
-        <v>146794</v>
+        <v>329738</v>
       </c>
       <c r="AX67" s="15">
-        <v>369546</v>
+        <v>352363</v>
       </c>
       <c r="AY67" s="15">
-        <v>329738</v>
+        <v>271771</v>
       </c>
       <c r="AZ67" s="15">
-        <v>352363</v>
+        <v>1469</v>
       </c>
       <c r="BA67" s="15">
-        <v>271771</v>
+        <v>328056</v>
       </c>
       <c r="BB67" s="15">
-        <v>1469</v>
+        <v>99835</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>79</v>
       </c>
@@ -8876,7 +8876,7 @@
       <c r="BA68" s="17"/>
       <c r="BB68" s="17"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>66</v>
       </c>
@@ -8938,11 +8938,11 @@
       <c r="V69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="15" t="s">
-        <v>58</v>
+      <c r="W69" s="15">
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <v>0</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>80</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
@@ -9160,44 +9160,44 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>-537</v>
+      </c>
+      <c r="Z71" s="11">
+        <v>0</v>
       </c>
       <c r="AA71" s="11">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="11">
         <v>0</v>
       </c>
       <c r="AC71" s="11">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AD71" s="11">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AE71" s="11">
-        <v>-48</v>
-      </c>
-      <c r="AF71" s="11">
-        <v>-32</v>
+        <v>0</v>
+      </c>
+      <c r="AF71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AG71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="11" t="s">
-        <v>58</v>
+        <v>-534</v>
+      </c>
+      <c r="AH71" s="11">
+        <v>0</v>
       </c>
       <c r="AI71" s="11">
-        <v>-534</v>
+        <v>-480</v>
       </c>
       <c r="AJ71" s="11">
         <v>0</v>
       </c>
       <c r="AK71" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AL71" s="11">
         <v>0</v>
@@ -9212,34 +9212,34 @@
         <v>0</v>
       </c>
       <c r="AP71" s="11">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AQ71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR71" s="11">
-        <v>-11</v>
+        <v>-18919</v>
+      </c>
+      <c r="AR71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS71" s="11">
-        <v>-18919</v>
-      </c>
-      <c r="AT71" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AT71" s="11">
+        <v>0</v>
       </c>
       <c r="AU71" s="11">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AV71" s="11">
         <v>0</v>
       </c>
       <c r="AW71" s="11">
-        <v>-8</v>
+        <v>-232282</v>
       </c>
       <c r="AX71" s="11">
         <v>0</v>
       </c>
       <c r="AY71" s="11">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="AZ71" s="11">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="BB71" s="11">
-        <v>0</v>
+        <v>-29177</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
         <v>59</v>
       </c>
@@ -9349,14 +9349,14 @@
       <c r="AH72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ72" s="13" t="s">
-        <v>58</v>
+      <c r="AI72" s="13">
+        <v>-9</v>
+      </c>
+      <c r="AJ72" s="13">
+        <v>0</v>
       </c>
       <c r="AK72" s="13">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AL72" s="13">
         <v>0</v>
@@ -9376,11 +9376,11 @@
       <c r="AQ72" s="13">
         <v>0</v>
       </c>
-      <c r="AR72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS72" s="13">
-        <v>0</v>
+      <c r="AR72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS72" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT72" s="13" t="s">
         <v>58</v>
@@ -9410,7 +9410,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
@@ -9514,14 +9514,14 @@
       <c r="AJ73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL73" s="11" t="s">
-        <v>58</v>
+      <c r="AK73" s="11">
+        <v>-228</v>
+      </c>
+      <c r="AL73" s="11">
+        <v>0</v>
       </c>
       <c r="AM73" s="11">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AN73" s="11">
         <v>0</v>
@@ -9533,31 +9533,31 @@
         <v>0</v>
       </c>
       <c r="AQ73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="11">
         <v>-8665</v>
       </c>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV73" s="11" t="s">
-        <v>58</v>
+      <c r="AU73" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AV73" s="11">
+        <v>0</v>
       </c>
       <c r="AW73" s="11">
-        <v>-1</v>
+        <v>-46804</v>
       </c>
       <c r="AX73" s="11">
         <v>0</v>
       </c>
       <c r="AY73" s="11">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="AZ73" s="11">
         <v>0</v>
@@ -9566,10 +9566,10 @@
         <v>0</v>
       </c>
       <c r="BB73" s="11">
-        <v>0</v>
+        <v>-11468</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
         <v>61</v>
       </c>
@@ -9703,14 +9703,14 @@
       <c r="AT74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV74" s="13" t="s">
-        <v>58</v>
+      <c r="AU74" s="13">
+        <v>-10250</v>
+      </c>
+      <c r="AV74" s="13">
+        <v>0</v>
       </c>
       <c r="AW74" s="13">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AX74" s="13">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>74</v>
       </c>
@@ -9790,56 +9790,56 @@
       <c r="V75" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X75" s="15" t="s">
-        <v>58</v>
+      <c r="W75" s="15">
+        <v>0</v>
+      </c>
+      <c r="X75" s="15">
+        <v>0</v>
       </c>
       <c r="Y75" s="15">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="Z75" s="15">
         <v>0</v>
       </c>
       <c r="AA75" s="15">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="AB75" s="15">
         <v>0</v>
       </c>
       <c r="AC75" s="15">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AD75" s="15">
-        <v>0</v>
+        <v>-32</v>
       </c>
       <c r="AE75" s="15">
-        <v>-48</v>
+        <v>0</v>
       </c>
       <c r="AF75" s="15">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="15">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AH75" s="15">
         <v>0</v>
       </c>
       <c r="AI75" s="15">
-        <v>-534</v>
+        <v>-489</v>
       </c>
       <c r="AJ75" s="15">
         <v>0</v>
       </c>
       <c r="AK75" s="15">
-        <v>-489</v>
+        <v>-228</v>
       </c>
       <c r="AL75" s="15">
         <v>0</v>
       </c>
       <c r="AM75" s="15">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="15">
         <v>0</v>
@@ -9848,34 +9848,34 @@
         <v>0</v>
       </c>
       <c r="AP75" s="15">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AQ75" s="15">
-        <v>0</v>
+        <v>-27584</v>
       </c>
       <c r="AR75" s="15">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="15">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AT75" s="15">
         <v>0</v>
       </c>
       <c r="AU75" s="15">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AV75" s="15">
         <v>0</v>
       </c>
       <c r="AW75" s="15">
-        <v>-10259</v>
+        <v>-279086</v>
       </c>
       <c r="AX75" s="15">
         <v>0</v>
       </c>
       <c r="AY75" s="15">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="15">
         <v>0</v>
@@ -9884,10 +9884,10 @@
         <v>0</v>
       </c>
       <c r="BB75" s="15">
-        <v>0</v>
+        <v>-40645</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>81</v>
       </c>
@@ -9944,7 +9944,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>82</v>
       </c>
@@ -10006,89 +10006,89 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>-643</v>
+      </c>
+      <c r="X77" s="11">
+        <v>-325</v>
       </c>
       <c r="Y77" s="11">
-        <v>-643</v>
+        <v>-3860</v>
       </c>
       <c r="Z77" s="11">
-        <v>-325</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="11">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="AB77" s="11">
         <v>0</v>
       </c>
       <c r="AC77" s="11">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AD77" s="11">
-        <v>0</v>
+        <v>-472</v>
       </c>
       <c r="AE77" s="11">
-        <v>-455</v>
+        <v>-259</v>
       </c>
       <c r="AF77" s="11">
-        <v>-472</v>
+        <v>-6</v>
       </c>
       <c r="AG77" s="11">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AH77" s="11">
-        <v>-6</v>
+        <v>-47</v>
       </c>
       <c r="AI77" s="11">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="AJ77" s="11">
-        <v>-47</v>
+        <v>-7683</v>
       </c>
       <c r="AK77" s="11">
-        <v>-58</v>
+        <v>-8058</v>
       </c>
       <c r="AL77" s="11">
-        <v>-7683</v>
+        <v>-8049</v>
       </c>
       <c r="AM77" s="11">
-        <v>-8058</v>
+        <v>-8065</v>
       </c>
       <c r="AN77" s="11">
-        <v>-8049</v>
+        <v>-7978</v>
       </c>
       <c r="AO77" s="11">
-        <v>-8065</v>
+        <v>-31864</v>
       </c>
       <c r="AP77" s="11">
-        <v>-7978</v>
+        <v>-22230</v>
       </c>
       <c r="AQ77" s="11">
-        <v>-31864</v>
+        <v>-22531</v>
       </c>
       <c r="AR77" s="11">
-        <v>-22230</v>
+        <v>-56</v>
       </c>
       <c r="AS77" s="11">
-        <v>-22531</v>
+        <v>-1</v>
       </c>
       <c r="AT77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU77" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV77" s="11">
         <v>-56</v>
       </c>
-      <c r="AU77" s="11">
-        <v>-1</v>
-      </c>
-      <c r="AV77" s="11">
-        <v>0</v>
-      </c>
       <c r="AW77" s="11">
         <v>0</v>
       </c>
       <c r="AX77" s="11">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AY77" s="11">
         <v>0</v>
@@ -10103,7 +10103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="18" t="s">
         <v>67</v>
       </c>
@@ -10164,103 +10164,103 @@
         <v>0</v>
       </c>
       <c r="W78" s="19">
-        <v>0</v>
+        <v>616839</v>
       </c>
       <c r="X78" s="19">
-        <v>0</v>
+        <v>756933</v>
       </c>
       <c r="Y78" s="19">
-        <v>616839</v>
+        <v>803323</v>
       </c>
       <c r="Z78" s="19">
-        <v>756933</v>
+        <v>551563</v>
       </c>
       <c r="AA78" s="19">
-        <v>803323</v>
+        <v>719688</v>
       </c>
       <c r="AB78" s="19">
-        <v>551563</v>
+        <v>554906</v>
       </c>
       <c r="AC78" s="19">
-        <v>719688</v>
+        <v>664563</v>
       </c>
       <c r="AD78" s="19">
-        <v>554906</v>
+        <v>644635</v>
       </c>
       <c r="AE78" s="19">
-        <v>664563</v>
+        <v>677014</v>
       </c>
       <c r="AF78" s="19">
-        <v>644635</v>
+        <v>659387</v>
       </c>
       <c r="AG78" s="19">
-        <v>677014</v>
+        <v>880556</v>
       </c>
       <c r="AH78" s="19">
-        <v>659387</v>
+        <v>1129525</v>
       </c>
       <c r="AI78" s="19">
-        <v>880556</v>
+        <v>1037648</v>
       </c>
       <c r="AJ78" s="19">
-        <v>1129525</v>
+        <v>892055</v>
       </c>
       <c r="AK78" s="19">
-        <v>1037648</v>
+        <v>1040397</v>
       </c>
       <c r="AL78" s="19">
-        <v>892055</v>
+        <v>898048</v>
       </c>
       <c r="AM78" s="19">
-        <v>1040397</v>
+        <v>856540</v>
       </c>
       <c r="AN78" s="19">
-        <v>898048</v>
+        <v>861729</v>
       </c>
       <c r="AO78" s="19">
-        <v>856540</v>
+        <v>738756</v>
       </c>
       <c r="AP78" s="19">
-        <v>861729</v>
+        <v>788651</v>
       </c>
       <c r="AQ78" s="19">
-        <v>738756</v>
+        <v>749264</v>
       </c>
       <c r="AR78" s="19">
-        <v>788651</v>
+        <v>964796</v>
       </c>
       <c r="AS78" s="19">
-        <v>749264</v>
+        <v>1204929</v>
       </c>
       <c r="AT78" s="19">
-        <v>964796</v>
+        <v>1741678</v>
       </c>
       <c r="AU78" s="19">
-        <v>1204929</v>
+        <v>1432780</v>
       </c>
       <c r="AV78" s="19">
-        <v>1741678</v>
+        <v>1533261</v>
       </c>
       <c r="AW78" s="19">
-        <v>1432780</v>
+        <v>1268585</v>
       </c>
       <c r="AX78" s="19">
-        <v>1533261</v>
+        <v>1543529</v>
       </c>
       <c r="AY78" s="19">
-        <v>1268585</v>
+        <v>1177758</v>
       </c>
       <c r="AZ78" s="19">
-        <v>1543529</v>
+        <v>1130006</v>
       </c>
       <c r="BA78" s="19">
-        <v>1177758</v>
+        <v>2016575</v>
       </c>
       <c r="BB78" s="19">
-        <v>1130006</v>
+        <v>1597788</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -10315,7 +10315,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -10370,7 +10370,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -10425,7 +10425,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B82" s="7" t="s">
         <v>83</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -10637,7 +10637,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>84</v>
       </c>
@@ -10694,7 +10694,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -10756,104 +10756,104 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>385808</v>
+      </c>
+      <c r="X85" s="11">
+        <v>447949</v>
       </c>
       <c r="Y85" s="11">
-        <v>385808</v>
+        <v>445987</v>
       </c>
       <c r="Z85" s="11">
-        <v>447949</v>
+        <v>494758</v>
       </c>
       <c r="AA85" s="11">
-        <v>445987</v>
+        <v>519396</v>
       </c>
       <c r="AB85" s="11">
-        <v>494758</v>
+        <v>502681</v>
       </c>
       <c r="AC85" s="11">
-        <v>519396</v>
+        <v>525888</v>
       </c>
       <c r="AD85" s="11">
-        <v>502681</v>
+        <v>516967</v>
       </c>
       <c r="AE85" s="11">
-        <v>525888</v>
+        <v>530714</v>
       </c>
       <c r="AF85" s="11">
-        <v>516967</v>
+        <v>564667</v>
       </c>
       <c r="AG85" s="11">
-        <v>530714</v>
+        <v>566145</v>
       </c>
       <c r="AH85" s="11">
-        <v>564667</v>
+        <v>583020</v>
       </c>
       <c r="AI85" s="11">
-        <v>566145</v>
+        <v>634370</v>
       </c>
       <c r="AJ85" s="11">
-        <v>583020</v>
+        <v>633772</v>
       </c>
       <c r="AK85" s="11">
-        <v>634370</v>
+        <v>682560</v>
       </c>
       <c r="AL85" s="11">
-        <v>633772</v>
+        <v>677379</v>
       </c>
       <c r="AM85" s="11">
-        <v>682560</v>
+        <v>696729</v>
       </c>
       <c r="AN85" s="11">
-        <v>677379</v>
+        <v>761622</v>
       </c>
       <c r="AO85" s="11">
-        <v>696729</v>
+        <v>776397</v>
       </c>
       <c r="AP85" s="11">
-        <v>761622</v>
+        <v>758090</v>
       </c>
       <c r="AQ85" s="11">
-        <v>776397</v>
+        <v>774547</v>
       </c>
       <c r="AR85" s="11">
-        <v>758090</v>
+        <v>783852</v>
       </c>
       <c r="AS85" s="11">
-        <v>774547</v>
+        <v>907597</v>
       </c>
       <c r="AT85" s="11">
-        <v>783852</v>
+        <v>919664</v>
       </c>
       <c r="AU85" s="11">
-        <v>907597</v>
+        <v>929560</v>
       </c>
       <c r="AV85" s="11">
-        <v>919664</v>
+        <v>970938</v>
       </c>
       <c r="AW85" s="11">
-        <v>929560</v>
+        <v>1015092</v>
       </c>
       <c r="AX85" s="11">
-        <v>970938</v>
+        <v>938856</v>
       </c>
       <c r="AY85" s="11">
-        <v>1015092</v>
+        <v>1070761</v>
       </c>
       <c r="AZ85" s="11">
-        <v>938856</v>
+        <v>1067372</v>
       </c>
       <c r="BA85" s="11">
-        <v>1070761</v>
+        <v>1051598</v>
       </c>
       <c r="BB85" s="11">
-        <v>1067372</v>
+        <v>1074740</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>59</v>
       </c>
@@ -10915,39 +10915,39 @@
       <c r="V86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="13" t="s">
-        <v>58</v>
+      <c r="W86" s="13">
+        <v>270763</v>
+      </c>
+      <c r="X86" s="13">
+        <v>288491</v>
       </c>
       <c r="Y86" s="13">
-        <v>270763</v>
+        <v>287113</v>
       </c>
       <c r="Z86" s="13">
-        <v>288491</v>
+        <v>319836</v>
       </c>
       <c r="AA86" s="13">
-        <v>287113</v>
+        <v>327204</v>
       </c>
       <c r="AB86" s="13">
-        <v>319836</v>
+        <v>327118</v>
       </c>
       <c r="AC86" s="13">
-        <v>327204</v>
+        <v>319032</v>
       </c>
       <c r="AD86" s="13">
-        <v>327118</v>
+        <v>310413</v>
       </c>
       <c r="AE86" s="13">
-        <v>319032</v>
-      </c>
-      <c r="AF86" s="13">
-        <v>310413</v>
-      </c>
-      <c r="AG86" s="13">
         <v>352299</v>
       </c>
+      <c r="AF86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH86" s="13" t="s">
         <v>58</v>
       </c>
@@ -10975,15 +10975,15 @@
       <c r="AP86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR86" s="13">
-        <v>561452</v>
-      </c>
-      <c r="AS86" s="13">
+      <c r="AQ86" s="13">
         <v>548041</v>
       </c>
+      <c r="AR86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT86" s="13" t="s">
         <v>58</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>60</v>
       </c>
@@ -11074,104 +11074,104 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>582728</v>
+      </c>
+      <c r="X87" s="11">
+        <v>642940</v>
       </c>
       <c r="Y87" s="11">
-        <v>582728</v>
+        <v>612938</v>
       </c>
       <c r="Z87" s="11">
-        <v>642940</v>
+        <v>676677</v>
       </c>
       <c r="AA87" s="11">
-        <v>612938</v>
+        <v>706601</v>
       </c>
       <c r="AB87" s="11">
-        <v>676677</v>
+        <v>675555</v>
       </c>
       <c r="AC87" s="11">
-        <v>706601</v>
+        <v>727136</v>
       </c>
       <c r="AD87" s="11">
-        <v>675555</v>
+        <v>752956</v>
       </c>
       <c r="AE87" s="11">
-        <v>727136</v>
+        <v>728967</v>
       </c>
       <c r="AF87" s="11">
-        <v>752956</v>
+        <v>774880</v>
       </c>
       <c r="AG87" s="11">
-        <v>728967</v>
+        <v>778188</v>
       </c>
       <c r="AH87" s="11">
-        <v>774880</v>
+        <v>787972</v>
       </c>
       <c r="AI87" s="11">
-        <v>778188</v>
+        <v>905385</v>
       </c>
       <c r="AJ87" s="11">
-        <v>787972</v>
+        <v>876607</v>
       </c>
       <c r="AK87" s="11">
-        <v>905385</v>
+        <v>877865</v>
       </c>
       <c r="AL87" s="11">
-        <v>876607</v>
+        <v>856361</v>
       </c>
       <c r="AM87" s="11">
-        <v>877865</v>
+        <v>882654</v>
       </c>
       <c r="AN87" s="11">
-        <v>856361</v>
+        <v>867423</v>
       </c>
       <c r="AO87" s="11">
-        <v>882654</v>
+        <v>887757</v>
       </c>
       <c r="AP87" s="11">
-        <v>867423</v>
+        <v>1001129</v>
       </c>
       <c r="AQ87" s="11">
-        <v>887757</v>
+        <v>1027587</v>
       </c>
       <c r="AR87" s="11">
-        <v>1001129</v>
+        <v>927383</v>
       </c>
       <c r="AS87" s="11">
-        <v>1027587</v>
+        <v>930104</v>
       </c>
       <c r="AT87" s="11">
-        <v>927383</v>
+        <v>925953</v>
       </c>
       <c r="AU87" s="11">
-        <v>930104</v>
+        <v>959199</v>
       </c>
       <c r="AV87" s="11">
-        <v>925953</v>
+        <v>908447</v>
       </c>
       <c r="AW87" s="11">
-        <v>959199</v>
+        <v>886634</v>
       </c>
       <c r="AX87" s="11">
-        <v>908447</v>
+        <v>958730</v>
       </c>
       <c r="AY87" s="11">
-        <v>886634</v>
+        <v>1090541</v>
       </c>
       <c r="AZ87" s="11">
-        <v>958730</v>
+        <v>1108952</v>
       </c>
       <c r="BA87" s="11">
-        <v>1090541</v>
+        <v>1067244</v>
       </c>
       <c r="BB87" s="11">
-        <v>1108952</v>
+        <v>1067023</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>61</v>
       </c>
@@ -11260,77 +11260,77 @@
       <c r="AE88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG88" s="13" t="s">
-        <v>58</v>
+      <c r="AF88" s="13">
+        <v>385440</v>
+      </c>
+      <c r="AG88" s="13">
+        <v>484419</v>
       </c>
       <c r="AH88" s="13">
-        <v>385440</v>
+        <v>483082</v>
       </c>
       <c r="AI88" s="13">
-        <v>484419</v>
+        <v>496419</v>
       </c>
       <c r="AJ88" s="13">
-        <v>483082</v>
+        <v>517813</v>
       </c>
       <c r="AK88" s="13">
-        <v>496419</v>
+        <v>540050</v>
       </c>
       <c r="AL88" s="13">
-        <v>517813</v>
+        <v>567466</v>
       </c>
       <c r="AM88" s="13">
-        <v>540050</v>
+        <v>557958</v>
       </c>
       <c r="AN88" s="13">
-        <v>567466</v>
+        <v>544093</v>
       </c>
       <c r="AO88" s="13">
-        <v>557958</v>
+        <v>567478</v>
       </c>
       <c r="AP88" s="13">
-        <v>544093</v>
-      </c>
-      <c r="AQ88" s="13">
-        <v>567478</v>
-      </c>
-      <c r="AR88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS88" s="13" t="s">
-        <v>58</v>
+        <v>561452</v>
+      </c>
+      <c r="AQ88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR88" s="13">
+        <v>555978</v>
+      </c>
+      <c r="AS88" s="13">
+        <v>623572</v>
       </c>
       <c r="AT88" s="13">
-        <v>555978</v>
+        <v>623245</v>
       </c>
       <c r="AU88" s="13">
-        <v>623572</v>
+        <v>624406</v>
       </c>
       <c r="AV88" s="13">
-        <v>623245</v>
+        <v>641046</v>
       </c>
       <c r="AW88" s="13">
-        <v>624406</v>
+        <v>647000</v>
       </c>
       <c r="AX88" s="13">
-        <v>641046</v>
+        <v>707524</v>
       </c>
       <c r="AY88" s="13">
-        <v>647000</v>
+        <v>729522</v>
       </c>
       <c r="AZ88" s="13">
-        <v>707524</v>
+        <v>855332</v>
       </c>
       <c r="BA88" s="13">
-        <v>729522</v>
+        <v>804035</v>
       </c>
       <c r="BB88" s="13">
-        <v>855332</v>
+        <v>772759</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>86</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="BA89" s="9"/>
       <c r="BB89" s="9"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>56</v>
       </c>
@@ -11449,104 +11449,104 @@
       <c r="V90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>58</v>
+      <c r="W90" s="11">
+        <v>337016</v>
+      </c>
+      <c r="X90" s="11">
+        <v>382696</v>
       </c>
       <c r="Y90" s="11">
-        <v>337016</v>
+        <v>419216</v>
       </c>
       <c r="Z90" s="11">
-        <v>382696</v>
+        <v>449159</v>
       </c>
       <c r="AA90" s="11">
-        <v>419216</v>
+        <v>444361</v>
       </c>
       <c r="AB90" s="11">
-        <v>449159</v>
+        <v>444058</v>
       </c>
       <c r="AC90" s="11">
-        <v>444361</v>
+        <v>451389</v>
       </c>
       <c r="AD90" s="11">
-        <v>444058</v>
+        <v>410647</v>
       </c>
       <c r="AE90" s="11">
-        <v>451389</v>
+        <v>428310</v>
       </c>
       <c r="AF90" s="11">
-        <v>410647</v>
+        <v>405422</v>
       </c>
       <c r="AG90" s="11">
-        <v>428310</v>
+        <v>386897</v>
       </c>
       <c r="AH90" s="11">
-        <v>405422</v>
+        <v>403212</v>
       </c>
       <c r="AI90" s="11">
-        <v>386897</v>
+        <v>468798</v>
       </c>
       <c r="AJ90" s="11">
-        <v>403212</v>
+        <v>505236</v>
       </c>
       <c r="AK90" s="11">
-        <v>468798</v>
+        <v>509517</v>
       </c>
       <c r="AL90" s="11">
-        <v>505236</v>
+        <v>515430</v>
       </c>
       <c r="AM90" s="11">
-        <v>509517</v>
+        <v>592108</v>
       </c>
       <c r="AN90" s="11">
-        <v>515430</v>
+        <v>594578</v>
       </c>
       <c r="AO90" s="11">
-        <v>592108</v>
+        <v>565587</v>
       </c>
       <c r="AP90" s="11">
-        <v>594578</v>
+        <v>540176</v>
       </c>
       <c r="AQ90" s="11">
-        <v>565587</v>
+        <v>521619</v>
       </c>
       <c r="AR90" s="11">
-        <v>540176</v>
+        <v>555307</v>
       </c>
       <c r="AS90" s="11">
-        <v>521619</v>
+        <v>648106</v>
       </c>
       <c r="AT90" s="11">
-        <v>555307</v>
+        <v>693360</v>
       </c>
       <c r="AU90" s="11">
-        <v>648106</v>
+        <v>745792</v>
       </c>
       <c r="AV90" s="11">
-        <v>693360</v>
+        <v>743580</v>
       </c>
       <c r="AW90" s="11">
-        <v>745792</v>
+        <v>735125</v>
       </c>
       <c r="AX90" s="11">
-        <v>743580</v>
+        <v>764520</v>
       </c>
       <c r="AY90" s="11">
-        <v>735125</v>
+        <v>815020</v>
       </c>
       <c r="AZ90" s="11">
-        <v>764520</v>
+        <v>1347706</v>
       </c>
       <c r="BA90" s="11">
-        <v>815020</v>
+        <v>749505</v>
       </c>
       <c r="BB90" s="11">
-        <v>1347706</v>
+        <v>743848</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>59</v>
       </c>
@@ -11632,14 +11632,14 @@
       <c r="AD91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE91" s="13" t="s">
-        <v>58</v>
+      <c r="AE91" s="13">
+        <v>302539</v>
       </c>
       <c r="AF91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG91" s="13">
-        <v>302539</v>
+      <c r="AG91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH91" s="13" t="s">
         <v>58</v>
@@ -11705,7 +11705,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>60</v>
       </c>
@@ -11767,104 +11767,104 @@
       <c r="V92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X92" s="11" t="s">
-        <v>58</v>
+      <c r="W92" s="11">
+        <v>283791</v>
+      </c>
+      <c r="X92" s="11">
+        <v>352477</v>
       </c>
       <c r="Y92" s="11">
-        <v>283791</v>
+        <v>393482</v>
       </c>
       <c r="Z92" s="11">
-        <v>352477</v>
+        <v>604532</v>
       </c>
       <c r="AA92" s="11">
-        <v>393482</v>
+        <v>453618</v>
       </c>
       <c r="AB92" s="11">
-        <v>604532</v>
+        <v>423312</v>
       </c>
       <c r="AC92" s="11">
-        <v>453618</v>
+        <v>493038</v>
       </c>
       <c r="AD92" s="11">
-        <v>423312</v>
+        <v>428622</v>
       </c>
       <c r="AE92" s="11">
-        <v>493038</v>
+        <v>451633</v>
       </c>
       <c r="AF92" s="11">
-        <v>428622</v>
+        <v>427405</v>
       </c>
       <c r="AG92" s="11">
-        <v>451633</v>
+        <v>385385</v>
       </c>
       <c r="AH92" s="11">
-        <v>427405</v>
+        <v>357144</v>
       </c>
       <c r="AI92" s="11">
-        <v>385385</v>
+        <v>569305</v>
       </c>
       <c r="AJ92" s="11">
-        <v>357144</v>
+        <v>530621</v>
       </c>
       <c r="AK92" s="11">
-        <v>569305</v>
+        <v>517651</v>
       </c>
       <c r="AL92" s="11">
-        <v>530621</v>
+        <v>495416</v>
       </c>
       <c r="AM92" s="11">
-        <v>517651</v>
+        <v>629763</v>
       </c>
       <c r="AN92" s="11">
-        <v>495416</v>
+        <v>561728</v>
       </c>
       <c r="AO92" s="11">
-        <v>629763</v>
+        <v>646504</v>
       </c>
       <c r="AP92" s="11">
-        <v>561728</v>
+        <v>590581</v>
       </c>
       <c r="AQ92" s="11">
-        <v>646504</v>
+        <v>517237</v>
       </c>
       <c r="AR92" s="11">
-        <v>590581</v>
+        <v>575729</v>
       </c>
       <c r="AS92" s="11">
-        <v>517237</v>
+        <v>739777</v>
       </c>
       <c r="AT92" s="11">
-        <v>575729</v>
+        <v>778332</v>
       </c>
       <c r="AU92" s="11">
-        <v>739777</v>
+        <v>813696</v>
       </c>
       <c r="AV92" s="11">
-        <v>778332</v>
+        <v>842948</v>
       </c>
       <c r="AW92" s="11">
-        <v>813696</v>
+        <v>834868</v>
       </c>
       <c r="AX92" s="11">
-        <v>842948</v>
+        <v>901243</v>
       </c>
       <c r="AY92" s="11">
-        <v>834868</v>
-      </c>
-      <c r="AZ92" s="11">
-        <v>901243</v>
+        <v>1027391</v>
+      </c>
+      <c r="AZ92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA92" s="11">
-        <v>1027391</v>
-      </c>
-      <c r="BB92" s="11" t="s">
-        <v>58</v>
+        <v>972760</v>
+      </c>
+      <c r="BB92" s="11">
+        <v>868327</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>61</v>
       </c>
@@ -11995,29 +11995,29 @@
       <c r="AS93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT93" s="13" t="s">
-        <v>58</v>
+      <c r="AT93" s="13">
+        <v>500000</v>
       </c>
       <c r="AU93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV93" s="13">
-        <v>500000</v>
+      <c r="AV93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ93" s="13">
+      <c r="AX93" s="13">
         <v>924623</v>
       </c>
-      <c r="BA93" s="13">
+      <c r="AY93" s="13">
         <v>580778</v>
+      </c>
+      <c r="AZ93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB93" s="13" t="s">
         <v>58</v>

--- a/database/industries/lastic/pasa/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pasa/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3293,107 +3293,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>1325483</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>1325483</v>
+        <v>1156344</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>1156344</v>
+        <v>197112</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>197112</v>
+        <v>774553</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>774553</v>
+        <v>1175860</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>1175860</v>
+        <v>1276508</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>1276508</v>
+        <v>1260775</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>1260775</v>
+        <v>1087802</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>1087802</v>
+        <v>651932</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>651932</v>
+        <v>537758</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>537758</v>
+        <v>1057005</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>1057005</v>
+        <v>1240544</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>1240544</v>
+        <v>1357633</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>1357633</v>
+        <v>866889</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>866889</v>
+        <v>1414212</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>1414212</v>
+        <v>1277905</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>1277905</v>
+        <v>1379084</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>1379084</v>
+        <v>1362327</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>1362327</v>
+        <v>1255588</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>1255588</v>
+        <v>1326245</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>1326245</v>
+        <v>813561</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>813561</v>
+        <v>666056</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>666056</v>
+        <v>1284935</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>1284935</v>
+        <v>1414467</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>1414467</v>
+        <v>1262842</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>1262842</v>
+        <v>1215231</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>1215231</v>
+        <v>1130358</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>1130358</v>
+        <v>949821</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>949821</v>
+        <v>1462906</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>1462906</v>
+        <v>1579004</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>1579004</v>
+        <v>1146358</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>1146358</v>
+        <v>1377457</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>1377457</v>
+        <v>954592</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>954592</v>
+        <v>709065</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,36 +3452,36 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>124515</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>124515</v>
+        <v>110120</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>110120</v>
+        <v>103430</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>103430</v>
+        <v>66209</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>66209</v>
+        <v>71944</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>71944</v>
+        <v>112511</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>112511</v>
+        <v>105943</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>105943</v>
+        <v>94317</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>94317</v>
-      </c>
-      <c r="AD12" s="16" t="n">
         <v>70052</v>
       </c>
+      <c r="AD12" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE12" s="16" t="s">
         <v>58</v>
       </c>
@@ -3512,11 +3512,11 @@
       <c r="AN12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP12" s="16" t="n">
+      <c r="AO12" s="16" t="n">
         <v>64456</v>
+      </c>
+      <c r="AP12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="16" t="s">
         <v>58</v>
@@ -3611,107 +3611,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>332468</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>332468</v>
+        <v>314218</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>314218</v>
+        <v>1285139</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>1285139</v>
+        <v>218610</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>218610</v>
+        <v>315710</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>315710</v>
+        <v>310027</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>310027</v>
+        <v>310581</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>310581</v>
+        <v>234342</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>234342</v>
+        <v>131430</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>131430</v>
+        <v>111657</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>111657</v>
+        <v>181932</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>181932</v>
+        <v>156101</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>156101</v>
+        <v>170724</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>170724</v>
+        <v>110235</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>110235</v>
+        <v>286846</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>286846</v>
+        <v>240282</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>240282</v>
+        <v>254640</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>254640</v>
+        <v>272919</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>272919</v>
+        <v>223708</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>223708</v>
+        <v>226709</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>226709</v>
+        <v>194299</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>194299</v>
+        <v>100164</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>100164</v>
+        <v>183692</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>183692</v>
+        <v>196344</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>196344</v>
+        <v>165035</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>165035</v>
+        <v>162716</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>162716</v>
+        <v>206418</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>206418</v>
+        <v>116371</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>116371</v>
+        <v>184422</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>184422</v>
+        <v>198484</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>198484</v>
+        <v>166239</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>166239</v>
+        <v>243196</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>243196</v>
+        <v>181865</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>181865</v>
+        <v>103496</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3797,80 +3797,80 @@
       <c r="AC14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD14" s="16" t="s">
-        <v>58</v>
+      <c r="AD14" s="16" t="n">
+        <v>56441</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>56441</v>
+        <v>122686</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>122686</v>
+        <v>216298</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>216298</v>
+        <v>192322</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>192322</v>
+        <v>117622</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>117622</v>
+        <v>24402</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>24402</v>
+        <v>76558</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>76558</v>
+        <v>88699</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>88699</v>
+        <v>105933</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>105933</v>
+        <v>85939</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>85939</v>
-      </c>
-      <c r="AO14" s="16" t="n">
         <v>89606</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AO14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" s="16" t="n">
+        <v>61089</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>61089</v>
+        <v>142674</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>142674</v>
+        <v>132872</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>132872</v>
+        <v>101431</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>101431</v>
+        <v>114885</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>114885</v>
+        <v>23535</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>23535</v>
+        <v>26527</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>26527</v>
+        <v>46778</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>46778</v>
+        <v>77256</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>77256</v>
+        <v>86062</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>86062</v>
+        <v>222875</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>222875</v>
+        <v>173408</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>173408</v>
+        <v>105272</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,106 +3928,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AE15" s="18" t="n">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AF15" s="18" t="n">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AG15" s="18" t="n">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AH15" s="18" t="n">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AI15" s="18" t="n">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AJ15" s="18" t="n">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AK15" s="18" t="n">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AL15" s="18" t="n">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AM15" s="18" t="n">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AN15" s="18" t="n">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AP15" s="18" t="n">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AQ15" s="18" t="n">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AR15" s="18" t="n">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AS15" s="18" t="n">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AT15" s="18" t="n">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AU15" s="18" t="n">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="AV15" s="18" t="n">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="AW15" s="18" t="n">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
       <c r="AX15" s="18" t="n">
-        <v>1694106</v>
+        <v>1854744</v>
       </c>
       <c r="AY15" s="18" t="n">
-        <v>1854744</v>
+        <v>1398659</v>
       </c>
       <c r="AZ15" s="18" t="n">
-        <v>1398659</v>
+        <v>1843528</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>1843528</v>
+        <v>1309865</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>1309865</v>
+        <v>917833</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,8 +4143,8 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="13" t="n">
         <v>0</v>
@@ -4173,8 +4173,8 @@
       <c r="AD17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" s="13" t="n">
-        <v>0</v>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>58</v>
@@ -4203,8 +4203,8 @@
       <c r="AN17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
+      <c r="AO17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP17" s="13" t="n">
         <v>0</v>
@@ -4302,14 +4302,14 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="W18" s="16" t="n">
-        <v>0</v>
+      <c r="W18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="X18" s="16" t="s">
         <v>58</v>
@@ -4326,14 +4326,14 @@
       <c r="AB18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="16" t="s">
-        <v>58</v>
+      <c r="AC18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AD18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" s="16" t="n">
-        <v>0</v>
+      <c r="AE18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF18" s="16" t="s">
         <v>58</v>
@@ -4362,11 +4362,11 @@
       <c r="AN18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="16" t="n">
-        <v>0</v>
+      <c r="AO18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ18" s="16" t="s">
         <v>58</v>
@@ -4461,8 +4461,8 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4491,8 +4491,8 @@
       <c r="AD19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
+      <c r="AE19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF19" s="13" t="s">
         <v>58</v>
@@ -4521,8 +4521,8 @@
       <c r="AN19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
+      <c r="AO19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP19" s="13" t="n">
         <v>0</v>
@@ -4683,8 +4683,8 @@
       <c r="AO20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="16" t="s">
-        <v>58</v>
+      <c r="AP20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ20" s="16" t="n">
         <v>0</v>
@@ -4991,8 +4991,8 @@
       <c r="T23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>58</v>
+      <c r="U23" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="18" t="n">
         <v>0</v>
@@ -5149,106 +5149,106 @@
         <v>0</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>0</v>
+        <v>1782466</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>1782466</v>
+        <v>1580682</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>1580682</v>
+        <v>1585681</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>1585681</v>
+        <v>1059372</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>1059372</v>
+        <v>1563514</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>1563514</v>
+        <v>1699046</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>1699046</v>
+        <v>1677299</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>1677299</v>
+        <v>1416461</v>
       </c>
       <c r="AC24" s="22" t="n">
-        <v>1416461</v>
+        <v>853414</v>
       </c>
       <c r="AD24" s="22" t="n">
-        <v>853414</v>
+        <v>705856</v>
       </c>
       <c r="AE24" s="22" t="n">
-        <v>705856</v>
+        <v>1361623</v>
       </c>
       <c r="AF24" s="22" t="n">
-        <v>1361623</v>
+        <v>1612943</v>
       </c>
       <c r="AG24" s="22" t="n">
-        <v>1612943</v>
+        <v>1720679</v>
       </c>
       <c r="AH24" s="22" t="n">
-        <v>1720679</v>
+        <v>1094746</v>
       </c>
       <c r="AI24" s="22" t="n">
-        <v>1094746</v>
+        <v>1725460</v>
       </c>
       <c r="AJ24" s="22" t="n">
-        <v>1725460</v>
+        <v>1594745</v>
       </c>
       <c r="AK24" s="22" t="n">
-        <v>1594745</v>
+        <v>1722423</v>
       </c>
       <c r="AL24" s="22" t="n">
-        <v>1722423</v>
+        <v>1741179</v>
       </c>
       <c r="AM24" s="22" t="n">
-        <v>1741179</v>
+        <v>1565235</v>
       </c>
       <c r="AN24" s="22" t="n">
-        <v>1565235</v>
+        <v>1642560</v>
       </c>
       <c r="AO24" s="22" t="n">
-        <v>1642560</v>
+        <v>1072316</v>
       </c>
       <c r="AP24" s="22" t="n">
-        <v>1072316</v>
+        <v>827309</v>
       </c>
       <c r="AQ24" s="22" t="n">
-        <v>827309</v>
+        <v>1611301</v>
       </c>
       <c r="AR24" s="22" t="n">
-        <v>1611301</v>
+        <v>1743683</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>1743683</v>
+        <v>1529308</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>1529308</v>
+        <v>1492832</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>1492832</v>
+        <v>1360311</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>1360311</v>
+        <v>1092719</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>1092719</v>
+        <v>1694106</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>1694106</v>
+        <v>1854744</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>1854744</v>
+        <v>1398659</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>1398659</v>
+        <v>1843528</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>1843528</v>
+        <v>1309865</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>1309865</v>
+        <v>917833</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,107 +5741,107 @@
       <c r="T31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>58</v>
+      <c r="U31" s="13" t="n">
+        <v>979673</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>979673</v>
+        <v>1082127</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>1082127</v>
+        <v>1052547</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>1052547</v>
+        <v>700348</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>700348</v>
+        <v>745890</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>745890</v>
+        <v>563427</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>563427</v>
+        <v>728491</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>728491</v>
+        <v>734161</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>734161</v>
+        <v>684373</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>684373</v>
+        <v>739019</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>739019</v>
+        <v>892247</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>892247</v>
+        <v>1208897</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>1208897</v>
+        <v>925018</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>925018</v>
+        <v>813625</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>813625</v>
+        <v>820540</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>820540</v>
+        <v>717793</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>717793</v>
+        <v>732830</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>732830</v>
+        <v>687005</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>687005</v>
+        <v>676587</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>676587</v>
+        <v>854049</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>854049</v>
+        <v>467068</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>467068</v>
+        <v>675477</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>675477</v>
+        <v>1060871</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>1060871</v>
+        <v>1256318</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>1256318</v>
+        <v>1138722</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>1138722</v>
+        <v>955654</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>955654</v>
+        <v>955532</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>955532</v>
+        <v>975351</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>975351</v>
+        <v>627552</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>627552</v>
+        <v>855508</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>855508</v>
+        <v>1304982</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>1304982</v>
+        <v>1215959</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>1215959</v>
+        <v>1101149</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>1101149</v>
+        <v>539490</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,36 +5900,36 @@
       <c r="T32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>58</v>
+      <c r="U32" s="16" t="n">
+        <v>121878</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>121878</v>
+        <v>85611</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>85611</v>
+        <v>78826</v>
       </c>
       <c r="X32" s="16" t="n">
-        <v>78826</v>
+        <v>106761</v>
       </c>
       <c r="Y32" s="16" t="n">
-        <v>106761</v>
+        <v>85491</v>
       </c>
       <c r="Z32" s="16" t="n">
-        <v>85491</v>
+        <v>97876</v>
       </c>
       <c r="AA32" s="16" t="n">
-        <v>97876</v>
+        <v>93514</v>
       </c>
       <c r="AB32" s="16" t="n">
-        <v>93514</v>
+        <v>84526</v>
       </c>
       <c r="AC32" s="16" t="n">
-        <v>84526</v>
-      </c>
-      <c r="AD32" s="16" t="n">
         <v>100182</v>
       </c>
+      <c r="AD32" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE32" s="16" t="s">
         <v>58</v>
       </c>
@@ -5960,11 +5960,11 @@
       <c r="AN32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO32" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP32" s="16" t="n">
+      <c r="AO32" s="16" t="n">
         <v>86030</v>
+      </c>
+      <c r="AP32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ32" s="16" t="s">
         <v>58</v>
@@ -6059,107 +6059,107 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>206743</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>206743</v>
+        <v>186120</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>186120</v>
+        <v>219603</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>219603</v>
+        <v>138595</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>138595</v>
+        <v>191030</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>191030</v>
+        <v>125633</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>125633</v>
+        <v>138908</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>138908</v>
+        <v>123213</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>123213</v>
+        <v>140887</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>140887</v>
+        <v>142466</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>142466</v>
+        <v>175338</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>175338</v>
+        <v>250014</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>250014</v>
+        <v>138150</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>138150</v>
+        <v>230905</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>230905</v>
+        <v>232825</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>232825</v>
+        <v>219167</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>219167</v>
+        <v>192763</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>192763</v>
+        <v>206733</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>206733</v>
+        <v>189384</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>189384</v>
+        <v>38075</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>38075</v>
+        <v>38242</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>38242</v>
+        <v>158407</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>158407</v>
+        <v>197007</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>197007</v>
+        <v>225573</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>225573</v>
+        <v>182592</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>182592</v>
+        <v>193746</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>193746</v>
+        <v>204267</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>204267</v>
+        <v>275647</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>275647</v>
+        <v>114191</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>114191</v>
+        <v>110003</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>110003</v>
+        <v>225134</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>225134</v>
+        <v>81644</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>81644</v>
+        <v>293547</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>293547</v>
+        <v>126407</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,80 +6245,80 @@
       <c r="AC34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD34" s="16" t="s">
-        <v>58</v>
+      <c r="AD34" s="16" t="n">
+        <v>68091</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>68091</v>
+        <v>127691</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>127691</v>
+        <v>140353</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>140353</v>
+        <v>123855</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>123855</v>
+        <v>114719</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>114719</v>
+        <v>118876</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>118876</v>
+        <v>66307</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>66307</v>
+        <v>100918</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>100918</v>
+        <v>81510</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>81510</v>
+        <v>59708</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>59708</v>
-      </c>
-      <c r="AO34" s="16" t="n">
         <v>85067</v>
       </c>
-      <c r="AP34" s="16" t="s">
-        <v>58</v>
+      <c r="AO34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP34" s="16" t="n">
+        <v>99905</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>99905</v>
+        <v>89183</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>89183</v>
+        <v>130589</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>130589</v>
+        <v>100244</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>100244</v>
+        <v>93413</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>93413</v>
+        <v>103354</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>103354</v>
+        <v>15803</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>15803</v>
+        <v>150097</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>150097</v>
+        <v>109202</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>109202</v>
+        <v>94435</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>94435</v>
+        <v>187176</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>187176</v>
+        <v>88536</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>88536</v>
+        <v>110994</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,106 +6376,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="18" t="n">
-        <v>0</v>
+        <v>1308294</v>
       </c>
       <c r="V35" s="18" t="n">
-        <v>1308294</v>
+        <v>1353858</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>1353858</v>
+        <v>1350976</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>1350976</v>
+        <v>945704</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>945704</v>
+        <v>1022411</v>
       </c>
       <c r="Z35" s="18" t="n">
-        <v>1022411</v>
+        <v>786936</v>
       </c>
       <c r="AA35" s="18" t="n">
-        <v>786936</v>
+        <v>960913</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>960913</v>
+        <v>941900</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>941900</v>
+        <v>925442</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>925442</v>
+        <v>949576</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>949576</v>
+        <v>1195276</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>1195276</v>
+        <v>1599264</v>
       </c>
       <c r="AG35" s="18" t="n">
-        <v>1599264</v>
+        <v>1187023</v>
       </c>
       <c r="AH35" s="18" t="n">
-        <v>1187023</v>
+        <v>1159249</v>
       </c>
       <c r="AI35" s="18" t="n">
-        <v>1159249</v>
+        <v>1172241</v>
       </c>
       <c r="AJ35" s="18" t="n">
-        <v>1172241</v>
+        <v>1003267</v>
       </c>
       <c r="AK35" s="18" t="n">
-        <v>1003267</v>
+        <v>1026511</v>
       </c>
       <c r="AL35" s="18" t="n">
-        <v>1026511</v>
+        <v>975248</v>
       </c>
       <c r="AM35" s="18" t="n">
-        <v>975248</v>
+        <v>925679</v>
       </c>
       <c r="AN35" s="18" t="n">
-        <v>925679</v>
+        <v>977191</v>
       </c>
       <c r="AO35" s="18" t="n">
-        <v>977191</v>
+        <v>591340</v>
       </c>
       <c r="AP35" s="18" t="n">
-        <v>591340</v>
+        <v>933789</v>
       </c>
       <c r="AQ35" s="18" t="n">
-        <v>933789</v>
+        <v>1347061</v>
       </c>
       <c r="AR35" s="18" t="n">
-        <v>1347061</v>
+        <v>1612480</v>
       </c>
       <c r="AS35" s="18" t="n">
-        <v>1612480</v>
+        <v>1421558</v>
       </c>
       <c r="AT35" s="18" t="n">
-        <v>1421558</v>
+        <v>1242813</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>1242813</v>
+        <v>1263153</v>
       </c>
       <c r="AV35" s="18" t="n">
-        <v>1263153</v>
+        <v>1266801</v>
       </c>
       <c r="AW35" s="18" t="n">
-        <v>1266801</v>
+        <v>891840</v>
       </c>
       <c r="AX35" s="18" t="n">
-        <v>891840</v>
+        <v>1074713</v>
       </c>
       <c r="AY35" s="18" t="n">
-        <v>1074713</v>
+        <v>1624551</v>
       </c>
       <c r="AZ35" s="18" t="n">
-        <v>1624551</v>
+        <v>1484779</v>
       </c>
       <c r="BA35" s="18" t="n">
-        <v>1484779</v>
+        <v>1483232</v>
       </c>
       <c r="BB35" s="18" t="n">
-        <v>1483232</v>
+        <v>776891</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,107 +6591,107 @@
       <c r="T37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>58</v>
+      <c r="U37" s="13" t="n">
+        <v>181190</v>
       </c>
       <c r="V37" s="13" t="n">
-        <v>181190</v>
+        <v>285984</v>
       </c>
       <c r="W37" s="13" t="n">
-        <v>285984</v>
+        <v>330009</v>
       </c>
       <c r="X37" s="13" t="n">
-        <v>330009</v>
+        <v>160912</v>
       </c>
       <c r="Y37" s="13" t="n">
-        <v>160912</v>
+        <v>301953</v>
       </c>
       <c r="Z37" s="13" t="n">
-        <v>301953</v>
+        <v>309723</v>
       </c>
       <c r="AA37" s="13" t="n">
-        <v>309723</v>
+        <v>276356</v>
       </c>
       <c r="AB37" s="13" t="n">
-        <v>276356</v>
+        <v>263260</v>
       </c>
       <c r="AC37" s="13" t="n">
-        <v>263260</v>
+        <v>300280</v>
       </c>
       <c r="AD37" s="13" t="n">
-        <v>300280</v>
+        <v>189474</v>
       </c>
       <c r="AE37" s="13" t="n">
-        <v>189474</v>
+        <v>305722</v>
       </c>
       <c r="AF37" s="13" t="n">
-        <v>305722</v>
+        <v>338249</v>
       </c>
       <c r="AG37" s="13" t="n">
-        <v>338249</v>
+        <v>538853</v>
       </c>
       <c r="AH37" s="13" t="n">
-        <v>538853</v>
+        <v>190523</v>
       </c>
       <c r="AI37" s="13" t="n">
-        <v>190523</v>
+        <v>339166</v>
       </c>
       <c r="AJ37" s="13" t="n">
-        <v>339166</v>
+        <v>298118</v>
       </c>
       <c r="AK37" s="13" t="n">
-        <v>298118</v>
+        <v>185640</v>
       </c>
       <c r="AL37" s="13" t="n">
-        <v>185640</v>
+        <v>176389</v>
       </c>
       <c r="AM37" s="13" t="n">
-        <v>176389</v>
+        <v>73665</v>
       </c>
       <c r="AN37" s="13" t="n">
-        <v>73665</v>
+        <v>120868</v>
       </c>
       <c r="AO37" s="13" t="n">
-        <v>120868</v>
+        <v>531566</v>
       </c>
       <c r="AP37" s="13" t="n">
-        <v>531566</v>
+        <v>387294</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>387294</v>
+        <v>4382</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>4382</v>
+        <v>414551</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>414551</v>
+        <v>189931</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>189931</v>
+        <v>480691</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>480691</v>
+        <v>437942</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>437942</v>
+        <v>432674</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>432674</v>
+        <v>297422</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>297422</v>
+        <v>1090</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>1090</v>
+        <v>430121</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>430121</v>
+        <v>116829</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>116829</v>
+        <v>357598</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>357598</v>
+        <v>154459</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6750,14 +6750,14 @@
       <c r="T38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>58</v>
+      <c r="U38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="W38" s="16" t="n">
-        <v>0</v>
+      <c r="W38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="X38" s="16" t="s">
         <v>58</v>
@@ -6774,20 +6774,20 @@
       <c r="AB38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC38" s="16" t="s">
-        <v>58</v>
+      <c r="AC38" s="16" t="n">
+        <v>12405</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>12405</v>
-      </c>
-      <c r="AE38" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG38" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AE38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="16" t="s">
         <v>58</v>
@@ -6807,14 +6807,14 @@
       <c r="AM38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN38" s="16" t="s">
-        <v>58</v>
+      <c r="AN38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP38" s="16" t="n">
-        <v>0</v>
+      <c r="AP38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ38" s="16" t="s">
         <v>58</v>
@@ -6909,107 +6909,107 @@
       <c r="T39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>58</v>
+      <c r="U39" s="13" t="n">
+        <v>88012</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>88012</v>
+        <v>53090</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>53090</v>
+        <v>108564</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>108564</v>
+        <v>8031</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>8031</v>
+        <v>77477</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>77477</v>
+        <v>40769</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>40769</v>
+        <v>53501</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>53501</v>
+        <v>89783</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>89783</v>
+        <v>96771</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>96771</v>
+        <v>67002</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>67002</v>
+        <v>154038</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>154038</v>
+        <v>65993</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>65993</v>
+        <v>21456</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>21456</v>
+        <v>49018</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>49018</v>
+        <v>91212</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>91212</v>
+        <v>82571</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>82571</v>
+        <v>28028</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>28028</v>
+        <v>31898</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>31898</v>
+        <v>2546</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>2546</v>
+        <v>20788</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>20788</v>
+        <v>142861</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>142861</v>
+        <v>31025</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>31025</v>
+        <v>538</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>538</v>
+        <v>11030</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>11030</v>
+        <v>6323</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>6323</v>
+        <v>14371</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>14371</v>
+        <v>9338</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>9338</v>
+        <v>23735</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>23735</v>
+        <v>14202</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>14202</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>0</v>
+        <v>5837</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>5837</v>
+        <v>14893</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>14893</v>
+        <v>20134</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>20134</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7131,17 +7131,17 @@
       <c r="AO40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="16" t="s">
-        <v>58</v>
+      <c r="AP40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ40" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="16" t="n">
         <v>0</v>
@@ -7150,13 +7150,13 @@
         <v>0</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>199</v>
+        <v>25440</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>25440</v>
+        <v>0</v>
       </c>
       <c r="AY40" s="16" t="n">
         <v>0</v>
@@ -7226,106 +7226,106 @@
         <v>0</v>
       </c>
       <c r="U41" s="18" t="n">
-        <v>0</v>
+        <v>269202</v>
       </c>
       <c r="V41" s="18" t="n">
-        <v>269202</v>
+        <v>339074</v>
       </c>
       <c r="W41" s="18" t="n">
-        <v>339074</v>
+        <v>438573</v>
       </c>
       <c r="X41" s="18" t="n">
-        <v>438573</v>
+        <v>168943</v>
       </c>
       <c r="Y41" s="18" t="n">
-        <v>168943</v>
+        <v>379430</v>
       </c>
       <c r="Z41" s="18" t="n">
-        <v>379430</v>
+        <v>350492</v>
       </c>
       <c r="AA41" s="18" t="n">
-        <v>350492</v>
+        <v>329857</v>
       </c>
       <c r="AB41" s="18" t="n">
-        <v>329857</v>
+        <v>353043</v>
       </c>
       <c r="AC41" s="18" t="n">
-        <v>353043</v>
+        <v>409456</v>
       </c>
       <c r="AD41" s="18" t="n">
-        <v>409456</v>
+        <v>256476</v>
       </c>
       <c r="AE41" s="18" t="n">
-        <v>256476</v>
+        <v>459760</v>
       </c>
       <c r="AF41" s="18" t="n">
-        <v>459760</v>
+        <v>404242</v>
       </c>
       <c r="AG41" s="18" t="n">
-        <v>404242</v>
+        <v>560309</v>
       </c>
       <c r="AH41" s="18" t="n">
-        <v>560309</v>
+        <v>239541</v>
       </c>
       <c r="AI41" s="18" t="n">
-        <v>239541</v>
+        <v>430378</v>
       </c>
       <c r="AJ41" s="18" t="n">
-        <v>430378</v>
+        <v>380689</v>
       </c>
       <c r="AK41" s="18" t="n">
-        <v>380689</v>
+        <v>213668</v>
       </c>
       <c r="AL41" s="18" t="n">
-        <v>213668</v>
+        <v>208287</v>
       </c>
       <c r="AM41" s="18" t="n">
-        <v>208287</v>
+        <v>76211</v>
       </c>
       <c r="AN41" s="18" t="n">
-        <v>76211</v>
+        <v>141656</v>
       </c>
       <c r="AO41" s="18" t="n">
-        <v>141656</v>
+        <v>674427</v>
       </c>
       <c r="AP41" s="18" t="n">
-        <v>674427</v>
+        <v>418319</v>
       </c>
       <c r="AQ41" s="18" t="n">
-        <v>418319</v>
+        <v>4920</v>
       </c>
       <c r="AR41" s="18" t="n">
-        <v>4920</v>
+        <v>425603</v>
       </c>
       <c r="AS41" s="18" t="n">
-        <v>425603</v>
+        <v>196254</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>196254</v>
+        <v>495062</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>495062</v>
+        <v>447280</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>447280</v>
+        <v>456608</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>456608</v>
+        <v>337064</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>337064</v>
+        <v>1090</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>1090</v>
+        <v>435958</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>435958</v>
+        <v>131722</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>131722</v>
+        <v>377732</v>
       </c>
       <c r="BB41" s="18" t="n">
-        <v>377732</v>
+        <v>155251</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7439,8 +7439,8 @@
       <c r="T43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>58</v>
+      <c r="U43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="18" t="n">
         <v>0</v>
@@ -7661,11 +7661,11 @@
       <c r="V45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="13" t="s">
-        <v>58</v>
+      <c r="W45" s="13" t="n">
+        <v>-2359</v>
       </c>
       <c r="X45" s="13" t="n">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="13" t="n">
         <v>0</v>
@@ -7674,29 +7674,29 @@
         <v>0</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>-73</v>
-      </c>
-      <c r="AD45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE45" s="13" t="n">
         <v>-804</v>
       </c>
-      <c r="AG45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH45" s="13" t="n">
+      <c r="AF45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG45" s="13" t="n">
         <v>-673</v>
       </c>
+      <c r="AH45" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI45" s="13" t="s">
         <v>58</v>
       </c>
@@ -7712,50 +7712,50 @@
       <c r="AM45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN45" s="13" t="s">
-        <v>58</v>
+      <c r="AN45" s="13" t="n">
+        <v>-12</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>-12</v>
-      </c>
-      <c r="AP45" s="13" t="n">
         <v>-27520</v>
       </c>
+      <c r="AP45" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ45" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT45" s="13" t="n">
+      <c r="AS45" s="13" t="n">
         <v>-8</v>
       </c>
-      <c r="AU45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV45" s="13" t="n">
+      <c r="AT45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU45" s="13" t="n">
         <v>-257927</v>
       </c>
-      <c r="AW45" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX45" s="13" t="n">
-        <v>0</v>
+      <c r="AV45" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ45" s="13" t="s">
-        <v>58</v>
+      <c r="AZ45" s="13" t="n">
+        <v>-35944</v>
       </c>
       <c r="BA45" s="13" t="n">
-        <v>-35944</v>
-      </c>
-      <c r="BB45" s="13" t="n">
         <v>-11266</v>
+      </c>
+      <c r="BB45" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7850,12 +7850,12 @@
       <c r="AF46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG46" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH46" s="16" t="n">
+      <c r="AG46" s="16" t="n">
         <v>-22</v>
       </c>
+      <c r="AH46" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AI46" s="16" t="s">
         <v>58</v>
       </c>
@@ -7871,14 +7871,14 @@
       <c r="AM46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN46" s="16" t="s">
-        <v>58</v>
+      <c r="AN46" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO46" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP46" s="16" t="n">
-        <v>0</v>
+      <c r="AP46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ46" s="16" t="s">
         <v>58</v>
@@ -8015,12 +8015,12 @@
       <c r="AH47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ47" s="13" t="n">
+      <c r="AI47" s="13" t="n">
         <v>-376</v>
       </c>
+      <c r="AJ47" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK47" s="13" t="s">
         <v>58</v>
       </c>
@@ -8030,47 +8030,47 @@
       <c r="AM47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN47" s="13" t="s">
-        <v>58</v>
+      <c r="AN47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO47" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" s="13" t="n">
         <v>-10000</v>
       </c>
+      <c r="AP47" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ47" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT47" s="13" t="n">
+      <c r="AS47" s="13" t="n">
         <v>-1</v>
       </c>
-      <c r="AU47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV47" s="13" t="n">
+      <c r="AT47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU47" s="13" t="n">
         <v>-53336</v>
       </c>
-      <c r="AW47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX47" s="13" t="n">
-        <v>0</v>
+      <c r="AV47" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW47" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA47" s="13" t="n">
+      <c r="AZ47" s="13" t="n">
         <v>-12355</v>
+      </c>
+      <c r="BA47" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB47" s="13" t="s">
         <v>58</v>
@@ -8204,23 +8204,23 @@
       <c r="AR48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT48" s="16" t="n">
+      <c r="AS48" s="16" t="n">
         <v>-15547</v>
       </c>
-      <c r="AU48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW48" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX48" s="16" t="n">
-        <v>0</v>
+      <c r="AT48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW48" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY48" s="16" t="s">
         <v>58</v>
@@ -8289,17 +8289,17 @@
       <c r="T49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="18" t="s">
-        <v>58</v>
+      <c r="U49" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="W49" s="18" t="n">
-        <v>0</v>
+        <v>-2359</v>
       </c>
       <c r="X49" s="18" t="n">
-        <v>-2359</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="18" t="n">
         <v>0</v>
@@ -8308,34 +8308,34 @@
         <v>0</v>
       </c>
       <c r="AA49" s="18" t="n">
-        <v>0</v>
+        <v>-94</v>
       </c>
       <c r="AB49" s="18" t="n">
-        <v>-94</v>
+        <v>-73</v>
       </c>
       <c r="AC49" s="18" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="18" t="n">
         <v>0</v>
       </c>
       <c r="AE49" s="18" t="n">
-        <v>0</v>
+        <v>-804</v>
       </c>
       <c r="AF49" s="18" t="n">
-        <v>-804</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="18" t="n">
-        <v>0</v>
+        <v>-695</v>
       </c>
       <c r="AH49" s="18" t="n">
-        <v>-695</v>
+        <v>0</v>
       </c>
       <c r="AI49" s="18" t="n">
-        <v>0</v>
+        <v>-376</v>
       </c>
       <c r="AJ49" s="18" t="n">
-        <v>-376</v>
+        <v>0</v>
       </c>
       <c r="AK49" s="18" t="n">
         <v>0</v>
@@ -8347,13 +8347,13 @@
         <v>0</v>
       </c>
       <c r="AN49" s="18" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AO49" s="18" t="n">
-        <v>-12</v>
+        <v>-37520</v>
       </c>
       <c r="AP49" s="18" t="n">
-        <v>-37520</v>
+        <v>0</v>
       </c>
       <c r="AQ49" s="18" t="n">
         <v>0</v>
@@ -8362,16 +8362,16 @@
         <v>0</v>
       </c>
       <c r="AS49" s="18" t="n">
-        <v>0</v>
+        <v>-15556</v>
       </c>
       <c r="AT49" s="18" t="n">
-        <v>-15556</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="18" t="n">
-        <v>0</v>
+        <v>-311263</v>
       </c>
       <c r="AV49" s="18" t="n">
-        <v>-311263</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="18" t="n">
         <v>0</v>
@@ -8383,13 +8383,13 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="18" t="n">
-        <v>0</v>
+        <v>-48299</v>
       </c>
       <c r="BA49" s="18" t="n">
-        <v>-48299</v>
+        <v>-11266</v>
       </c>
       <c r="BB49" s="18" t="n">
-        <v>-11266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8447,106 +8447,106 @@
         <v>0</v>
       </c>
       <c r="U50" s="22" t="n">
-        <v>0</v>
+        <v>1577496</v>
       </c>
       <c r="V50" s="22" t="n">
-        <v>1577496</v>
+        <v>1692932</v>
       </c>
       <c r="W50" s="22" t="n">
-        <v>1692932</v>
+        <v>1787190</v>
       </c>
       <c r="X50" s="22" t="n">
-        <v>1787190</v>
+        <v>1114647</v>
       </c>
       <c r="Y50" s="22" t="n">
-        <v>1114647</v>
+        <v>1401841</v>
       </c>
       <c r="Z50" s="22" t="n">
-        <v>1401841</v>
+        <v>1137428</v>
       </c>
       <c r="AA50" s="22" t="n">
-        <v>1137428</v>
+        <v>1290676</v>
       </c>
       <c r="AB50" s="22" t="n">
-        <v>1290676</v>
+        <v>1294870</v>
       </c>
       <c r="AC50" s="22" t="n">
-        <v>1294870</v>
+        <v>1334898</v>
       </c>
       <c r="AD50" s="22" t="n">
-        <v>1334898</v>
+        <v>1206052</v>
       </c>
       <c r="AE50" s="22" t="n">
-        <v>1206052</v>
+        <v>1654232</v>
       </c>
       <c r="AF50" s="22" t="n">
-        <v>1654232</v>
+        <v>2003506</v>
       </c>
       <c r="AG50" s="22" t="n">
-        <v>2003506</v>
+        <v>1746637</v>
       </c>
       <c r="AH50" s="22" t="n">
-        <v>1746637</v>
+        <v>1398790</v>
       </c>
       <c r="AI50" s="22" t="n">
-        <v>1398790</v>
+        <v>1602243</v>
       </c>
       <c r="AJ50" s="22" t="n">
-        <v>1602243</v>
+        <v>1383956</v>
       </c>
       <c r="AK50" s="22" t="n">
-        <v>1383956</v>
+        <v>1240179</v>
       </c>
       <c r="AL50" s="22" t="n">
-        <v>1240179</v>
+        <v>1183535</v>
       </c>
       <c r="AM50" s="22" t="n">
-        <v>1183535</v>
+        <v>1001890</v>
       </c>
       <c r="AN50" s="22" t="n">
-        <v>1001890</v>
+        <v>1118835</v>
       </c>
       <c r="AO50" s="22" t="n">
-        <v>1118835</v>
+        <v>1228247</v>
       </c>
       <c r="AP50" s="22" t="n">
-        <v>1228247</v>
+        <v>1352108</v>
       </c>
       <c r="AQ50" s="22" t="n">
-        <v>1352108</v>
+        <v>1351981</v>
       </c>
       <c r="AR50" s="22" t="n">
-        <v>1351981</v>
+        <v>2038083</v>
       </c>
       <c r="AS50" s="22" t="n">
-        <v>2038083</v>
+        <v>1602256</v>
       </c>
       <c r="AT50" s="22" t="n">
-        <v>1602256</v>
+        <v>1737875</v>
       </c>
       <c r="AU50" s="22" t="n">
-        <v>1737875</v>
+        <v>1399170</v>
       </c>
       <c r="AV50" s="22" t="n">
-        <v>1399170</v>
+        <v>1723409</v>
       </c>
       <c r="AW50" s="22" t="n">
-        <v>1723409</v>
+        <v>1228904</v>
       </c>
       <c r="AX50" s="22" t="n">
-        <v>1228904</v>
+        <v>1075803</v>
       </c>
       <c r="AY50" s="22" t="n">
-        <v>1075803</v>
+        <v>2060509</v>
       </c>
       <c r="AZ50" s="22" t="n">
-        <v>2060509</v>
+        <v>1568202</v>
       </c>
       <c r="BA50" s="22" t="n">
-        <v>1568202</v>
+        <v>1849698</v>
       </c>
       <c r="BB50" s="22" t="n">
-        <v>1849698</v>
+        <v>932142</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,107 +9039,107 @@
       <c r="T57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>58</v>
+      <c r="U57" s="13" t="n">
+        <v>377966</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>377966</v>
+        <v>484738</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>484738</v>
+        <v>469422</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>469422</v>
+        <v>346503</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>346503</v>
+        <v>387412</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>387412</v>
+        <v>283224</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>283224</v>
+        <v>383105</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>383105</v>
+        <v>379537</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>379537</v>
+        <v>363206</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>363206</v>
+        <v>417300</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>417300</v>
+        <v>505141</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>505141</v>
+        <v>704811</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>704811</v>
+        <v>586804</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>586804</v>
+        <v>515653</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>515653</v>
+        <v>560068</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>560068</v>
+        <v>486218</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>486218</v>
+        <v>510584</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>510584</v>
+        <v>523238</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>523238</v>
+        <v>525300</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>525300</v>
+        <v>647446</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>647446</v>
+        <v>361766</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>361766</v>
+        <v>529474</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>529474</v>
+        <v>962843</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>962843</v>
+        <v>1155390</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>1155390</v>
+        <v>1058510</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>1058510</v>
+        <v>927881</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>927881</v>
+        <v>969953</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>969953</v>
+        <v>915714</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>915714</v>
+        <v>671958</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>671958</v>
+        <v>913145</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>913145</v>
+        <v>1372317</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>1372317</v>
+        <v>1306840</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>1306840</v>
+        <v>1227256</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>1227256</v>
+        <v>645860</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9198,36 +9198,36 @@
       <c r="T58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>58</v>
+      <c r="U58" s="16" t="n">
+        <v>33000</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>33000</v>
+        <v>24698</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>24698</v>
+        <v>22632</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>22632</v>
+        <v>34146</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>34146</v>
+        <v>27973</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>27973</v>
+        <v>32017</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>32017</v>
+        <v>29834</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>29834</v>
+        <v>26238</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>26238</v>
-      </c>
-      <c r="AD58" s="16" t="n">
         <v>35294</v>
       </c>
+      <c r="AD58" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE58" s="16" t="s">
         <v>58</v>
       </c>
@@ -9258,11 +9258,11 @@
       <c r="AN58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP58" s="16" t="n">
+      <c r="AO58" s="16" t="n">
         <v>47148</v>
+      </c>
+      <c r="AP58" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ58" s="16" t="s">
         <v>58</v>
@@ -9357,107 +9357,107 @@
       <c r="T59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>58</v>
+      <c r="U59" s="13" t="n">
+        <v>120475</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>120475</v>
+        <v>119664</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>119664</v>
+        <v>134603</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>134603</v>
+        <v>93784</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>93784</v>
+        <v>134982</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>134982</v>
+        <v>84872</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>84872</v>
+        <v>101005</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>101005</v>
+        <v>92774</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>92774</v>
+        <v>102702</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>102702</v>
+        <v>110394</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>110394</v>
+        <v>136446</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>136446</v>
+        <v>197004</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>197004</v>
+        <v>125079</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>125079</v>
+        <v>202413</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>202413</v>
+        <v>204389</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>204389</v>
+        <v>187686</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>187686</v>
+        <v>170143</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>170143</v>
+        <v>179325</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>179325</v>
+        <v>168127</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>168127</v>
+        <v>38118</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>38118</v>
+        <v>39297</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>39297</v>
+        <v>146904</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>146904</v>
+        <v>183237</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>183237</v>
+        <v>208870</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>208870</v>
+        <v>175142</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>175142</v>
+        <v>176008</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>176008</v>
+        <v>181110</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>181110</v>
+        <v>264271</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>264271</v>
+        <v>124530</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>124530</v>
+        <v>121988</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>121988</v>
+        <v>240273</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>240273</v>
+        <v>87116</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>87116</v>
+        <v>321994</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>321994</v>
+        <v>150747</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9543,80 +9543,80 @@
       <c r="AC60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD60" s="16" t="s">
-        <v>58</v>
+      <c r="AD60" s="16" t="n">
+        <v>26245</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>26245</v>
+        <v>61856</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>61856</v>
+        <v>67802</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>67802</v>
+        <v>61484</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>61484</v>
+        <v>59403</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>59403</v>
+        <v>64199</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>64199</v>
+        <v>37627</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>37627</v>
+        <v>56308</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>56308</v>
+        <v>44349</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>44349</v>
+        <v>33883</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>33883</v>
-      </c>
-      <c r="AO60" s="16" t="n">
         <v>47761</v>
       </c>
-      <c r="AP60" s="16" t="s">
-        <v>58</v>
+      <c r="AO60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP60" s="16" t="n">
+        <v>55545</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>55545</v>
+        <v>55612</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>55612</v>
+        <v>81389</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>81389</v>
+        <v>62593</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>62593</v>
+        <v>59882</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>59882</v>
+        <v>66870</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>66870</v>
+        <v>11181</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>11181</v>
+        <v>109499</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>109499</v>
+        <v>93404</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>93404</v>
+        <v>75929</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>75929</v>
+        <v>144642</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>144642</v>
+        <v>72806</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>72806</v>
+        <v>98971</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9674,106 +9674,106 @@
         <v>0</v>
       </c>
       <c r="U61" s="18" t="n">
-        <v>0</v>
+        <v>531441</v>
       </c>
       <c r="V61" s="18" t="n">
-        <v>531441</v>
+        <v>629100</v>
       </c>
       <c r="W61" s="18" t="n">
-        <v>629100</v>
+        <v>626657</v>
       </c>
       <c r="X61" s="18" t="n">
-        <v>626657</v>
+        <v>474433</v>
       </c>
       <c r="Y61" s="18" t="n">
-        <v>474433</v>
+        <v>550367</v>
       </c>
       <c r="Z61" s="18" t="n">
-        <v>550367</v>
+        <v>400113</v>
       </c>
       <c r="AA61" s="18" t="n">
-        <v>400113</v>
+        <v>513944</v>
       </c>
       <c r="AB61" s="18" t="n">
-        <v>513944</v>
+        <v>498549</v>
       </c>
       <c r="AC61" s="18" t="n">
-        <v>498549</v>
+        <v>501202</v>
       </c>
       <c r="AD61" s="18" t="n">
-        <v>501202</v>
+        <v>553939</v>
       </c>
       <c r="AE61" s="18" t="n">
-        <v>553939</v>
+        <v>703443</v>
       </c>
       <c r="AF61" s="18" t="n">
-        <v>703443</v>
+        <v>969617</v>
       </c>
       <c r="AG61" s="18" t="n">
-        <v>969617</v>
+        <v>773367</v>
       </c>
       <c r="AH61" s="18" t="n">
-        <v>773367</v>
+        <v>777469</v>
       </c>
       <c r="AI61" s="18" t="n">
-        <v>777469</v>
+        <v>828656</v>
       </c>
       <c r="AJ61" s="18" t="n">
-        <v>828656</v>
+        <v>711531</v>
       </c>
       <c r="AK61" s="18" t="n">
-        <v>711531</v>
+        <v>737035</v>
       </c>
       <c r="AL61" s="18" t="n">
-        <v>737035</v>
+        <v>746912</v>
       </c>
       <c r="AM61" s="18" t="n">
-        <v>746912</v>
+        <v>727310</v>
       </c>
       <c r="AN61" s="18" t="n">
-        <v>727310</v>
+        <v>733325</v>
       </c>
       <c r="AO61" s="18" t="n">
-        <v>733325</v>
+        <v>448211</v>
       </c>
       <c r="AP61" s="18" t="n">
-        <v>448211</v>
+        <v>731923</v>
       </c>
       <c r="AQ61" s="18" t="n">
-        <v>731923</v>
+        <v>1201692</v>
       </c>
       <c r="AR61" s="18" t="n">
-        <v>1201692</v>
+        <v>1445649</v>
       </c>
       <c r="AS61" s="18" t="n">
-        <v>1445649</v>
+        <v>1296245</v>
       </c>
       <c r="AT61" s="18" t="n">
-        <v>1296245</v>
+        <v>1163771</v>
       </c>
       <c r="AU61" s="18" t="n">
-        <v>1163771</v>
+        <v>1217933</v>
       </c>
       <c r="AV61" s="18" t="n">
-        <v>1217933</v>
+        <v>1191166</v>
       </c>
       <c r="AW61" s="18" t="n">
-        <v>1191166</v>
+        <v>905987</v>
       </c>
       <c r="AX61" s="18" t="n">
-        <v>905987</v>
+        <v>1128537</v>
       </c>
       <c r="AY61" s="18" t="n">
-        <v>1128537</v>
+        <v>1688519</v>
       </c>
       <c r="AZ61" s="18" t="n">
-        <v>1688519</v>
+        <v>1538598</v>
       </c>
       <c r="BA61" s="18" t="n">
-        <v>1538598</v>
+        <v>1622056</v>
       </c>
       <c r="BB61" s="18" t="n">
-        <v>1622056</v>
+        <v>895578</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9889,107 +9889,107 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>61064</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>61064</v>
+        <v>109445</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>109445</v>
+        <v>138345</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>138345</v>
+        <v>72275</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>72275</v>
+        <v>134176</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>134176</v>
+        <v>137535</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>137535</v>
+        <v>124744</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>124744</v>
+        <v>108107</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>108107</v>
+        <v>128613</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>128613</v>
+        <v>76817</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>76817</v>
+        <v>118283</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>118283</v>
+        <v>136386</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>136386</v>
+        <v>252613</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>252613</v>
+        <v>96259</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>96259</v>
+        <v>172811</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>172811</v>
+        <v>153659</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>153659</v>
+        <v>109919</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>109919</v>
+        <v>104877</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>104877</v>
+        <v>41664</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>41664</v>
+        <v>65290</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>65290</v>
+        <v>277275</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>277275</v>
+        <v>215067</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>215067</v>
+        <v>2840</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>2840</v>
+        <v>287433</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>287433</v>
+        <v>141649</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>141649</v>
+        <v>357432</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>357432</v>
+        <v>321942</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>321942</v>
+        <v>330788</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>330788</v>
+        <v>242405</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>242405</v>
+        <v>1469</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>1469</v>
+        <v>322378</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>322378</v>
+        <v>86903</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>86903</v>
+        <v>350015</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>350015</v>
+        <v>158786</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10048,14 +10048,14 @@
       <c r="T64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>58</v>
+      <c r="U64" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="W64" s="16" t="n">
-        <v>0</v>
+      <c r="W64" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="X64" s="16" t="s">
         <v>58</v>
@@ -10072,11 +10072,11 @@
       <c r="AB64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC64" s="16" t="s">
-        <v>58</v>
+      <c r="AC64" s="16" t="n">
+        <v>3753</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>3753</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="16" t="n">
         <v>0</v>
@@ -10111,8 +10111,8 @@
       <c r="AO64" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP64" s="16" t="n">
-        <v>0</v>
+      <c r="AP64" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ64" s="16" t="s">
         <v>58</v>
@@ -10207,107 +10207,107 @@
       <c r="T65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>58</v>
+      <c r="U65" s="13" t="n">
+        <v>24977</v>
       </c>
       <c r="V65" s="13" t="n">
-        <v>24977</v>
+        <v>18713</v>
       </c>
       <c r="W65" s="13" t="n">
-        <v>18713</v>
+        <v>42718</v>
       </c>
       <c r="X65" s="13" t="n">
-        <v>42718</v>
+        <v>4855</v>
       </c>
       <c r="Y65" s="13" t="n">
-        <v>4855</v>
+        <v>35145</v>
       </c>
       <c r="Z65" s="13" t="n">
-        <v>35145</v>
+        <v>17258</v>
       </c>
       <c r="AA65" s="13" t="n">
-        <v>17258</v>
+        <v>26378</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>26378</v>
+        <v>38483</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>38483</v>
+        <v>43705</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>43705</v>
+        <v>28637</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>28637</v>
+        <v>59364</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>59364</v>
+        <v>23569</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>23569</v>
+        <v>12215</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>12215</v>
+        <v>26010</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>26010</v>
+        <v>47216</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>47216</v>
+        <v>40907</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>40907</v>
+        <v>17651</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>17651</v>
+        <v>17918</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>17918</v>
+        <v>1646</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>1646</v>
+        <v>12277</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>12277</v>
+        <v>73893</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>73893</v>
+        <v>17862</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>17862</v>
+        <v>398</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>398</v>
+        <v>8585</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>8585</v>
+        <v>5145</v>
       </c>
       <c r="AT65" s="13" t="n">
-        <v>5145</v>
+        <v>12114</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>12114</v>
+        <v>7796</v>
       </c>
       <c r="AV65" s="13" t="n">
-        <v>7796</v>
+        <v>21391</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>21391</v>
+        <v>14591</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>14591</v>
+        <v>0</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>5678</v>
+        <v>12932</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>12932</v>
+        <v>22678</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>22678</v>
+        <v>974</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10429,17 +10429,17 @@
       <c r="AO66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP66" s="16" t="s">
-        <v>58</v>
+      <c r="AP66" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ66" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR66" s="16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS66" s="16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="16" t="n">
         <v>0</v>
@@ -10448,13 +10448,13 @@
         <v>0</v>
       </c>
       <c r="AV66" s="16" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="AW66" s="16" t="n">
-        <v>184</v>
+        <v>14775</v>
       </c>
       <c r="AX66" s="16" t="n">
-        <v>14775</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="16" t="n">
         <v>0</v>
@@ -10524,106 +10524,106 @@
         <v>0</v>
       </c>
       <c r="U67" s="18" t="n">
-        <v>0</v>
+        <v>86041</v>
       </c>
       <c r="V67" s="18" t="n">
-        <v>86041</v>
+        <v>128158</v>
       </c>
       <c r="W67" s="18" t="n">
-        <v>128158</v>
+        <v>181063</v>
       </c>
       <c r="X67" s="18" t="n">
-        <v>181063</v>
+        <v>77130</v>
       </c>
       <c r="Y67" s="18" t="n">
-        <v>77130</v>
+        <v>169321</v>
       </c>
       <c r="Z67" s="18" t="n">
-        <v>169321</v>
+        <v>154793</v>
       </c>
       <c r="AA67" s="18" t="n">
-        <v>154793</v>
+        <v>151122</v>
       </c>
       <c r="AB67" s="18" t="n">
-        <v>151122</v>
+        <v>146590</v>
       </c>
       <c r="AC67" s="18" t="n">
-        <v>146590</v>
+        <v>176071</v>
       </c>
       <c r="AD67" s="18" t="n">
-        <v>176071</v>
+        <v>105454</v>
       </c>
       <c r="AE67" s="18" t="n">
-        <v>105454</v>
+        <v>177647</v>
       </c>
       <c r="AF67" s="18" t="n">
-        <v>177647</v>
+        <v>159955</v>
       </c>
       <c r="AG67" s="18" t="n">
-        <v>159955</v>
+        <v>264828</v>
       </c>
       <c r="AH67" s="18" t="n">
-        <v>264828</v>
+        <v>122269</v>
       </c>
       <c r="AI67" s="18" t="n">
-        <v>122269</v>
+        <v>220027</v>
       </c>
       <c r="AJ67" s="18" t="n">
-        <v>220027</v>
+        <v>194566</v>
       </c>
       <c r="AK67" s="18" t="n">
-        <v>194566</v>
+        <v>127570</v>
       </c>
       <c r="AL67" s="18" t="n">
-        <v>127570</v>
+        <v>122795</v>
       </c>
       <c r="AM67" s="18" t="n">
-        <v>122795</v>
+        <v>43310</v>
       </c>
       <c r="AN67" s="18" t="n">
-        <v>43310</v>
+        <v>77567</v>
       </c>
       <c r="AO67" s="18" t="n">
-        <v>77567</v>
+        <v>351168</v>
       </c>
       <c r="AP67" s="18" t="n">
-        <v>351168</v>
+        <v>232929</v>
       </c>
       <c r="AQ67" s="18" t="n">
-        <v>232929</v>
+        <v>3238</v>
       </c>
       <c r="AR67" s="18" t="n">
-        <v>3238</v>
+        <v>296029</v>
       </c>
       <c r="AS67" s="18" t="n">
-        <v>296029</v>
+        <v>146794</v>
       </c>
       <c r="AT67" s="18" t="n">
-        <v>146794</v>
+        <v>369546</v>
       </c>
       <c r="AU67" s="18" t="n">
-        <v>369546</v>
+        <v>329738</v>
       </c>
       <c r="AV67" s="18" t="n">
-        <v>329738</v>
+        <v>352363</v>
       </c>
       <c r="AW67" s="18" t="n">
-        <v>352363</v>
+        <v>271771</v>
       </c>
       <c r="AX67" s="18" t="n">
-        <v>271771</v>
+        <v>1469</v>
       </c>
       <c r="AY67" s="18" t="n">
-        <v>1469</v>
+        <v>328056</v>
       </c>
       <c r="AZ67" s="18" t="n">
-        <v>328056</v>
+        <v>99835</v>
       </c>
       <c r="BA67" s="18" t="n">
-        <v>99835</v>
+        <v>372693</v>
       </c>
       <c r="BB67" s="18" t="n">
-        <v>372693</v>
+        <v>159760</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10739,8 +10739,8 @@
       <c r="T69" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="18" t="s">
-        <v>58</v>
+      <c r="U69" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="23" t="n">
         <v>0</v>
@@ -10961,11 +10961,11 @@
       <c r="V71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="13" t="s">
-        <v>58</v>
+      <c r="W71" s="13" t="n">
+        <v>-537</v>
       </c>
       <c r="X71" s="13" t="n">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="13" t="n">
         <v>0</v>
@@ -10974,28 +10974,28 @@
         <v>0</v>
       </c>
       <c r="AA71" s="13" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AB71" s="13" t="n">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AC71" s="13" t="n">
-        <v>-32</v>
-      </c>
-      <c r="AD71" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE71" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE71" s="13" t="n">
+        <v>-534</v>
       </c>
       <c r="AF71" s="13" t="n">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AG71" s="13" t="n">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="AH71" s="13" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AI71" s="13" t="n">
         <v>0</v>
@@ -11013,31 +11013,31 @@
         <v>0</v>
       </c>
       <c r="AN71" s="13" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AO71" s="13" t="n">
-        <v>-11</v>
-      </c>
-      <c r="AP71" s="13" t="n">
         <v>-18919</v>
       </c>
-      <c r="AQ71" s="13" t="s">
-        <v>58</v>
+      <c r="AP71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ71" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AR71" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AS71" s="13" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AT71" s="13" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="13" t="n">
-        <v>0</v>
+        <v>-232282</v>
       </c>
       <c r="AV71" s="13" t="n">
-        <v>-232282</v>
+        <v>0</v>
       </c>
       <c r="AW71" s="13" t="n">
         <v>0</v>
@@ -11049,13 +11049,13 @@
         <v>0</v>
       </c>
       <c r="AZ71" s="13" t="n">
-        <v>0</v>
+        <v>-29177</v>
       </c>
       <c r="BA71" s="13" t="n">
-        <v>-29177</v>
-      </c>
-      <c r="BB71" s="13" t="n">
         <v>-11045</v>
+      </c>
+      <c r="BB71" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11150,11 +11150,11 @@
       <c r="AF72" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG72" s="16" t="s">
-        <v>58</v>
+      <c r="AG72" s="16" t="n">
+        <v>-9</v>
       </c>
       <c r="AH72" s="16" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="AI72" s="16" t="n">
         <v>0</v>
@@ -11177,8 +11177,8 @@
       <c r="AO72" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP72" s="16" t="n">
-        <v>0</v>
+      <c r="AP72" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ72" s="16" t="s">
         <v>58</v>
@@ -11315,11 +11315,11 @@
       <c r="AH73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI73" s="13" t="s">
-        <v>58</v>
+      <c r="AI73" s="13" t="n">
+        <v>-228</v>
       </c>
       <c r="AJ73" s="13" t="n">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AK73" s="13" t="n">
         <v>0</v>
@@ -11334,28 +11334,28 @@
         <v>0</v>
       </c>
       <c r="AO73" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP73" s="13" t="n">
         <v>-8665</v>
       </c>
+      <c r="AP73" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ73" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AR73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS73" s="13" t="s">
-        <v>58</v>
+      <c r="AS73" s="13" t="n">
+        <v>-1</v>
       </c>
       <c r="AT73" s="13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AU73" s="13" t="n">
-        <v>0</v>
+        <v>-46804</v>
       </c>
       <c r="AV73" s="13" t="n">
-        <v>-46804</v>
+        <v>0</v>
       </c>
       <c r="AW73" s="13" t="n">
         <v>0</v>
@@ -11367,13 +11367,13 @@
         <v>0</v>
       </c>
       <c r="AZ73" s="13" t="n">
-        <v>0</v>
+        <v>-11468</v>
       </c>
       <c r="BA73" s="13" t="n">
-        <v>-11468</v>
-      </c>
-      <c r="BB73" s="13" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB73" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11504,11 +11504,11 @@
       <c r="AR74" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AS74" s="16" t="s">
-        <v>58</v>
+      <c r="AS74" s="16" t="n">
+        <v>-10250</v>
       </c>
       <c r="AT74" s="16" t="n">
-        <v>-10250</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="16" t="n">
         <v>0</v>
@@ -11531,8 +11531,8 @@
       <c r="BA74" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB74" s="16" t="n">
-        <v>0</v>
+      <c r="BB74" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11591,17 +11591,17 @@
       <c r="T75" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="18" t="s">
-        <v>58</v>
+      <c r="U75" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V75" s="23" t="n">
         <v>0</v>
       </c>
       <c r="W75" s="23" t="n">
-        <v>0</v>
+        <v>-537</v>
       </c>
       <c r="X75" s="23" t="n">
-        <v>-537</v>
+        <v>0</v>
       </c>
       <c r="Y75" s="23" t="n">
         <v>0</v>
@@ -11610,34 +11610,34 @@
         <v>0</v>
       </c>
       <c r="AA75" s="23" t="n">
-        <v>0</v>
+        <v>-48</v>
       </c>
       <c r="AB75" s="23" t="n">
-        <v>-48</v>
+        <v>-32</v>
       </c>
       <c r="AC75" s="23" t="n">
-        <v>-32</v>
+        <v>0</v>
       </c>
       <c r="AD75" s="23" t="n">
         <v>0</v>
       </c>
       <c r="AE75" s="23" t="n">
-        <v>0</v>
+        <v>-534</v>
       </c>
       <c r="AF75" s="23" t="n">
-        <v>-534</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="23" t="n">
-        <v>0</v>
+        <v>-489</v>
       </c>
       <c r="AH75" s="23" t="n">
-        <v>-489</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="23" t="n">
-        <v>0</v>
+        <v>-228</v>
       </c>
       <c r="AJ75" s="23" t="n">
-        <v>-228</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="23" t="n">
         <v>0</v>
@@ -11649,13 +11649,13 @@
         <v>0</v>
       </c>
       <c r="AN75" s="23" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AO75" s="23" t="n">
-        <v>-11</v>
+        <v>-27584</v>
       </c>
       <c r="AP75" s="23" t="n">
-        <v>-27584</v>
+        <v>0</v>
       </c>
       <c r="AQ75" s="23" t="n">
         <v>0</v>
@@ -11664,16 +11664,16 @@
         <v>0</v>
       </c>
       <c r="AS75" s="23" t="n">
-        <v>0</v>
+        <v>-10259</v>
       </c>
       <c r="AT75" s="23" t="n">
-        <v>-10259</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="23" t="n">
-        <v>0</v>
+        <v>-279086</v>
       </c>
       <c r="AV75" s="23" t="n">
-        <v>-279086</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="23" t="n">
         <v>0</v>
@@ -11685,13 +11685,13 @@
         <v>0</v>
       </c>
       <c r="AZ75" s="23" t="n">
-        <v>0</v>
+        <v>-40645</v>
       </c>
       <c r="BA75" s="23" t="n">
-        <v>-40645</v>
+        <v>-11045</v>
       </c>
       <c r="BB75" s="23" t="n">
-        <v>-11045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11807,17 +11807,17 @@
       <c r="T77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
+      <c r="U77" s="13" t="n">
+        <v>-643</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>-643</v>
+        <v>-325</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>-325</v>
+        <v>-3860</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>-3860</v>
+        <v>0</v>
       </c>
       <c r="Y77" s="13" t="n">
         <v>0</v>
@@ -11826,67 +11826,67 @@
         <v>0</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>0</v>
+        <v>-455</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>-455</v>
+        <v>-472</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>-472</v>
+        <v>-259</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>-259</v>
+        <v>-6</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>-47</v>
+        <v>-58</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>-58</v>
+        <v>-7683</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>-7683</v>
+        <v>-8058</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>-8058</v>
+        <v>-8049</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>-8049</v>
+        <v>-8065</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>-8065</v>
+        <v>-7978</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>-7978</v>
+        <v>-31864</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>-31864</v>
+        <v>-22230</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>-22230</v>
+        <v>-22531</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>-22531</v>
+        <v>-56</v>
       </c>
       <c r="AQ77" s="13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT77" s="13" t="n">
         <v>-56</v>
       </c>
-      <c r="AR77" s="13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" s="13" t="n">
-        <v>0</v>
-      </c>
       <c r="AU77" s="13" t="n">
-        <v>-56</v>
+        <v>0</v>
       </c>
       <c r="AV77" s="13" t="n">
         <v>0</v>
@@ -11965,106 +11965,106 @@
         <v>0</v>
       </c>
       <c r="U78" s="22" t="n">
-        <v>0</v>
+        <v>616839</v>
       </c>
       <c r="V78" s="22" t="n">
-        <v>616839</v>
+        <v>756933</v>
       </c>
       <c r="W78" s="22" t="n">
-        <v>756933</v>
+        <v>803323</v>
       </c>
       <c r="X78" s="22" t="n">
-        <v>803323</v>
+        <v>551563</v>
       </c>
       <c r="Y78" s="22" t="n">
-        <v>551563</v>
+        <v>719688</v>
       </c>
       <c r="Z78" s="22" t="n">
-        <v>719688</v>
+        <v>554906</v>
       </c>
       <c r="AA78" s="22" t="n">
-        <v>554906</v>
+        <v>664563</v>
       </c>
       <c r="AB78" s="22" t="n">
-        <v>664563</v>
+        <v>644635</v>
       </c>
       <c r="AC78" s="22" t="n">
-        <v>644635</v>
+        <v>677014</v>
       </c>
       <c r="AD78" s="22" t="n">
-        <v>677014</v>
+        <v>659387</v>
       </c>
       <c r="AE78" s="22" t="n">
-        <v>659387</v>
+        <v>880556</v>
       </c>
       <c r="AF78" s="22" t="n">
-        <v>880556</v>
+        <v>1129525</v>
       </c>
       <c r="AG78" s="22" t="n">
-        <v>1129525</v>
+        <v>1037648</v>
       </c>
       <c r="AH78" s="22" t="n">
-        <v>1037648</v>
+        <v>892055</v>
       </c>
       <c r="AI78" s="22" t="n">
-        <v>892055</v>
+        <v>1040397</v>
       </c>
       <c r="AJ78" s="22" t="n">
-        <v>1040397</v>
+        <v>898048</v>
       </c>
       <c r="AK78" s="22" t="n">
-        <v>898048</v>
+        <v>856540</v>
       </c>
       <c r="AL78" s="22" t="n">
-        <v>856540</v>
+        <v>861729</v>
       </c>
       <c r="AM78" s="22" t="n">
-        <v>861729</v>
+        <v>738756</v>
       </c>
       <c r="AN78" s="22" t="n">
-        <v>738756</v>
+        <v>788651</v>
       </c>
       <c r="AO78" s="22" t="n">
-        <v>788651</v>
+        <v>749264</v>
       </c>
       <c r="AP78" s="22" t="n">
-        <v>749264</v>
+        <v>964796</v>
       </c>
       <c r="AQ78" s="22" t="n">
-        <v>964796</v>
+        <v>1204929</v>
       </c>
       <c r="AR78" s="22" t="n">
-        <v>1204929</v>
+        <v>1741678</v>
       </c>
       <c r="AS78" s="22" t="n">
-        <v>1741678</v>
+        <v>1432780</v>
       </c>
       <c r="AT78" s="22" t="n">
-        <v>1432780</v>
+        <v>1533261</v>
       </c>
       <c r="AU78" s="22" t="n">
-        <v>1533261</v>
+        <v>1268585</v>
       </c>
       <c r="AV78" s="22" t="n">
-        <v>1268585</v>
+        <v>1543529</v>
       </c>
       <c r="AW78" s="22" t="n">
-        <v>1543529</v>
+        <v>1177758</v>
       </c>
       <c r="AX78" s="22" t="n">
-        <v>1177758</v>
+        <v>1130006</v>
       </c>
       <c r="AY78" s="22" t="n">
-        <v>1130006</v>
+        <v>2016575</v>
       </c>
       <c r="AZ78" s="22" t="n">
-        <v>2016575</v>
+        <v>1597788</v>
       </c>
       <c r="BA78" s="22" t="n">
-        <v>1597788</v>
+        <v>1983704</v>
       </c>
       <c r="BB78" s="22" t="n">
-        <v>1983704</v>
+        <v>1055338</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12557,107 +12557,107 @@
       <c r="T85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>58</v>
+      <c r="U85" s="13" t="n">
+        <v>385808</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>385808</v>
+        <v>447949</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>447949</v>
+        <v>445987</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>445987</v>
+        <v>494758</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>494758</v>
+        <v>519396</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>519396</v>
+        <v>502681</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>502681</v>
+        <v>525888</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>525888</v>
+        <v>516967</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>516967</v>
+        <v>530714</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>530714</v>
+        <v>564667</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>564667</v>
+        <v>566145</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>566145</v>
+        <v>583020</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>583020</v>
+        <v>634370</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>634370</v>
+        <v>633772</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>633772</v>
+        <v>682560</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>682560</v>
+        <v>677379</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>677379</v>
+        <v>696729</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>696729</v>
+        <v>761622</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>761622</v>
+        <v>776397</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>776397</v>
+        <v>758090</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>758090</v>
+        <v>774547</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>774547</v>
+        <v>783852</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>783852</v>
+        <v>907597</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>907597</v>
+        <v>919664</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>919664</v>
+        <v>929560</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>929560</v>
+        <v>970938</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>970938</v>
+        <v>1015092</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>1015092</v>
+        <v>938856</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>938856</v>
+        <v>1070761</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>1070761</v>
+        <v>1067372</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>1067372</v>
+        <v>1051598</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>1051598</v>
+        <v>1074740</v>
       </c>
       <c r="BA85" s="13" t="n">
-        <v>1074740</v>
+        <v>1114523</v>
       </c>
       <c r="BB85" s="13" t="n">
-        <v>1114523</v>
+        <v>1197168</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12716,36 +12716,36 @@
       <c r="T86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>58</v>
+      <c r="U86" s="16" t="n">
+        <v>270763</v>
       </c>
       <c r="V86" s="16" t="n">
-        <v>270763</v>
+        <v>288491</v>
       </c>
       <c r="W86" s="16" t="n">
-        <v>288491</v>
+        <v>287113</v>
       </c>
       <c r="X86" s="16" t="n">
-        <v>287113</v>
+        <v>319836</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>319836</v>
+        <v>327204</v>
       </c>
       <c r="Z86" s="16" t="n">
-        <v>327204</v>
+        <v>327118</v>
       </c>
       <c r="AA86" s="16" t="n">
-        <v>327118</v>
+        <v>319032</v>
       </c>
       <c r="AB86" s="16" t="n">
-        <v>319032</v>
+        <v>310413</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>310413</v>
-      </c>
-      <c r="AD86" s="16" t="n">
         <v>352299</v>
       </c>
+      <c r="AD86" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AE86" s="16" t="s">
         <v>58</v>
       </c>
@@ -12776,11 +12776,11 @@
       <c r="AN86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO86" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP86" s="16" t="n">
+      <c r="AO86" s="16" t="n">
         <v>548041</v>
+      </c>
+      <c r="AP86" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ86" s="16" t="s">
         <v>58</v>
@@ -12875,107 +12875,107 @@
       <c r="T87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U87" s="13" t="s">
-        <v>58</v>
+      <c r="U87" s="13" t="n">
+        <v>582728</v>
       </c>
       <c r="V87" s="13" t="n">
-        <v>582728</v>
+        <v>642940</v>
       </c>
       <c r="W87" s="13" t="n">
-        <v>642940</v>
+        <v>612938</v>
       </c>
       <c r="X87" s="13" t="n">
-        <v>612938</v>
+        <v>676677</v>
       </c>
       <c r="Y87" s="13" t="n">
-        <v>676677</v>
+        <v>706601</v>
       </c>
       <c r="Z87" s="13" t="n">
-        <v>706601</v>
+        <v>675555</v>
       </c>
       <c r="AA87" s="13" t="n">
-        <v>675555</v>
+        <v>727136</v>
       </c>
       <c r="AB87" s="13" t="n">
-        <v>727136</v>
+        <v>752956</v>
       </c>
       <c r="AC87" s="13" t="n">
-        <v>752956</v>
+        <v>728967</v>
       </c>
       <c r="AD87" s="13" t="n">
-        <v>728967</v>
+        <v>774880</v>
       </c>
       <c r="AE87" s="13" t="n">
-        <v>774880</v>
+        <v>778188</v>
       </c>
       <c r="AF87" s="13" t="n">
-        <v>778188</v>
+        <v>787972</v>
       </c>
       <c r="AG87" s="13" t="n">
-        <v>787972</v>
+        <v>905385</v>
       </c>
       <c r="AH87" s="13" t="n">
-        <v>905385</v>
+        <v>876607</v>
       </c>
       <c r="AI87" s="13" t="n">
-        <v>876607</v>
+        <v>877865</v>
       </c>
       <c r="AJ87" s="13" t="n">
-        <v>877865</v>
+        <v>856361</v>
       </c>
       <c r="AK87" s="13" t="n">
-        <v>856361</v>
+        <v>882654</v>
       </c>
       <c r="AL87" s="13" t="n">
-        <v>882654</v>
+        <v>867423</v>
       </c>
       <c r="AM87" s="13" t="n">
-        <v>867423</v>
+        <v>887757</v>
       </c>
       <c r="AN87" s="13" t="n">
-        <v>887757</v>
+        <v>1001129</v>
       </c>
       <c r="AO87" s="13" t="n">
-        <v>1001129</v>
+        <v>1027587</v>
       </c>
       <c r="AP87" s="13" t="n">
-        <v>1027587</v>
+        <v>927383</v>
       </c>
       <c r="AQ87" s="13" t="n">
-        <v>927383</v>
+        <v>930104</v>
       </c>
       <c r="AR87" s="13" t="n">
-        <v>930104</v>
+        <v>925953</v>
       </c>
       <c r="AS87" s="13" t="n">
-        <v>925953</v>
+        <v>959199</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>959199</v>
+        <v>908447</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>908447</v>
+        <v>886634</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>886634</v>
+        <v>958730</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>958730</v>
+        <v>1090541</v>
       </c>
       <c r="AX87" s="13" t="n">
-        <v>1090541</v>
+        <v>1108952</v>
       </c>
       <c r="AY87" s="13" t="n">
-        <v>1108952</v>
+        <v>1067244</v>
       </c>
       <c r="AZ87" s="13" t="n">
-        <v>1067244</v>
+        <v>1067023</v>
       </c>
       <c r="BA87" s="13" t="n">
-        <v>1067023</v>
+        <v>1096908</v>
       </c>
       <c r="BB87" s="13" t="n">
-        <v>1096908</v>
+        <v>1192553</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13061,80 +13061,80 @@
       <c r="AC88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AD88" s="16" t="s">
-        <v>58</v>
+      <c r="AD88" s="16" t="n">
+        <v>385440</v>
       </c>
       <c r="AE88" s="16" t="n">
-        <v>385440</v>
+        <v>484419</v>
       </c>
       <c r="AF88" s="16" t="n">
-        <v>484419</v>
+        <v>483082</v>
       </c>
       <c r="AG88" s="16" t="n">
-        <v>483082</v>
+        <v>496419</v>
       </c>
       <c r="AH88" s="16" t="n">
-        <v>496419</v>
+        <v>517813</v>
       </c>
       <c r="AI88" s="16" t="n">
-        <v>517813</v>
+        <v>540050</v>
       </c>
       <c r="AJ88" s="16" t="n">
-        <v>540050</v>
+        <v>567466</v>
       </c>
       <c r="AK88" s="16" t="n">
-        <v>567466</v>
+        <v>557958</v>
       </c>
       <c r="AL88" s="16" t="n">
-        <v>557958</v>
+        <v>544093</v>
       </c>
       <c r="AM88" s="16" t="n">
-        <v>544093</v>
+        <v>567478</v>
       </c>
       <c r="AN88" s="16" t="n">
-        <v>567478</v>
-      </c>
-      <c r="AO88" s="16" t="n">
         <v>561452</v>
       </c>
-      <c r="AP88" s="16" t="s">
-        <v>58</v>
+      <c r="AO88" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP88" s="16" t="n">
+        <v>555978</v>
       </c>
       <c r="AQ88" s="16" t="n">
-        <v>555978</v>
+        <v>623572</v>
       </c>
       <c r="AR88" s="16" t="n">
-        <v>623572</v>
+        <v>623245</v>
       </c>
       <c r="AS88" s="16" t="n">
-        <v>623245</v>
+        <v>624406</v>
       </c>
       <c r="AT88" s="16" t="n">
-        <v>624406</v>
+        <v>641046</v>
       </c>
       <c r="AU88" s="16" t="n">
-        <v>641046</v>
+        <v>647000</v>
       </c>
       <c r="AV88" s="16" t="n">
-        <v>647000</v>
+        <v>707524</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>707524</v>
+        <v>729522</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>729522</v>
+        <v>855332</v>
       </c>
       <c r="AY88" s="16" t="n">
-        <v>855332</v>
+        <v>804035</v>
       </c>
       <c r="AZ88" s="16" t="n">
-        <v>804035</v>
+        <v>772759</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>772759</v>
+        <v>822332</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>822332</v>
+        <v>891679</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13250,107 +13250,107 @@
       <c r="T90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="13" t="s">
-        <v>58</v>
+      <c r="U90" s="13" t="n">
+        <v>337016</v>
       </c>
       <c r="V90" s="13" t="n">
-        <v>337016</v>
+        <v>382696</v>
       </c>
       <c r="W90" s="13" t="n">
-        <v>382696</v>
+        <v>419216</v>
       </c>
       <c r="X90" s="13" t="n">
-        <v>419216</v>
+        <v>449159</v>
       </c>
       <c r="Y90" s="13" t="n">
-        <v>449159</v>
+        <v>444361</v>
       </c>
       <c r="Z90" s="13" t="n">
-        <v>444361</v>
+        <v>444058</v>
       </c>
       <c r="AA90" s="13" t="n">
-        <v>444058</v>
+        <v>451389</v>
       </c>
       <c r="AB90" s="13" t="n">
-        <v>451389</v>
+        <v>410647</v>
       </c>
       <c r="AC90" s="13" t="n">
-        <v>410647</v>
+        <v>428310</v>
       </c>
       <c r="AD90" s="13" t="n">
-        <v>428310</v>
+        <v>405422</v>
       </c>
       <c r="AE90" s="13" t="n">
-        <v>405422</v>
+        <v>386897</v>
       </c>
       <c r="AF90" s="13" t="n">
-        <v>386897</v>
+        <v>403212</v>
       </c>
       <c r="AG90" s="13" t="n">
-        <v>403212</v>
+        <v>468798</v>
       </c>
       <c r="AH90" s="13" t="n">
-        <v>468798</v>
+        <v>505236</v>
       </c>
       <c r="AI90" s="13" t="n">
-        <v>505236</v>
+        <v>509517</v>
       </c>
       <c r="AJ90" s="13" t="n">
-        <v>509517</v>
+        <v>515430</v>
       </c>
       <c r="AK90" s="13" t="n">
-        <v>515430</v>
+        <v>592108</v>
       </c>
       <c r="AL90" s="13" t="n">
-        <v>592108</v>
+        <v>594578</v>
       </c>
       <c r="AM90" s="13" t="n">
-        <v>594578</v>
+        <v>565587</v>
       </c>
       <c r="AN90" s="13" t="n">
-        <v>565587</v>
+        <v>540176</v>
       </c>
       <c r="AO90" s="13" t="n">
-        <v>540176</v>
+        <v>521619</v>
       </c>
       <c r="AP90" s="13" t="n">
-        <v>521619</v>
+        <v>555307</v>
       </c>
       <c r="AQ90" s="13" t="n">
-        <v>555307</v>
+        <v>648106</v>
       </c>
       <c r="AR90" s="13" t="n">
-        <v>648106</v>
+        <v>693360</v>
       </c>
       <c r="AS90" s="13" t="n">
-        <v>693360</v>
+        <v>745792</v>
       </c>
       <c r="AT90" s="13" t="n">
-        <v>745792</v>
+        <v>743580</v>
       </c>
       <c r="AU90" s="13" t="n">
-        <v>743580</v>
+        <v>735125</v>
       </c>
       <c r="AV90" s="13" t="n">
-        <v>735125</v>
+        <v>764520</v>
       </c>
       <c r="AW90" s="13" t="n">
-        <v>764520</v>
+        <v>815020</v>
       </c>
       <c r="AX90" s="13" t="n">
-        <v>815020</v>
+        <v>1347706</v>
       </c>
       <c r="AY90" s="13" t="n">
-        <v>1347706</v>
+        <v>749505</v>
       </c>
       <c r="AZ90" s="13" t="n">
-        <v>749505</v>
+        <v>743848</v>
       </c>
       <c r="BA90" s="13" t="n">
-        <v>743848</v>
+        <v>978795</v>
       </c>
       <c r="BB90" s="13" t="n">
-        <v>978795</v>
+        <v>1028014</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13433,11 +13433,11 @@
       <c r="AB91" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC91" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD91" s="16" t="n">
+      <c r="AC91" s="16" t="n">
         <v>302539</v>
+      </c>
+      <c r="AD91" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE91" s="16" t="s">
         <v>58</v>
@@ -13568,107 +13568,107 @@
       <c r="T92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U92" s="13" t="s">
-        <v>58</v>
+      <c r="U92" s="13" t="n">
+        <v>283791</v>
       </c>
       <c r="V92" s="13" t="n">
-        <v>283791</v>
+        <v>352477</v>
       </c>
       <c r="W92" s="13" t="n">
-        <v>352477</v>
+        <v>393482</v>
       </c>
       <c r="X92" s="13" t="n">
-        <v>393482</v>
+        <v>604532</v>
       </c>
       <c r="Y92" s="13" t="n">
-        <v>604532</v>
+        <v>453618</v>
       </c>
       <c r="Z92" s="13" t="n">
-        <v>453618</v>
+        <v>423312</v>
       </c>
       <c r="AA92" s="13" t="n">
-        <v>423312</v>
+        <v>493038</v>
       </c>
       <c r="AB92" s="13" t="n">
-        <v>493038</v>
+        <v>428622</v>
       </c>
       <c r="AC92" s="13" t="n">
-        <v>428622</v>
+        <v>451633</v>
       </c>
       <c r="AD92" s="13" t="n">
-        <v>451633</v>
+        <v>427405</v>
       </c>
       <c r="AE92" s="13" t="n">
-        <v>427405</v>
+        <v>385385</v>
       </c>
       <c r="AF92" s="13" t="n">
-        <v>385385</v>
+        <v>357144</v>
       </c>
       <c r="AG92" s="13" t="n">
-        <v>357144</v>
+        <v>569305</v>
       </c>
       <c r="AH92" s="13" t="n">
-        <v>569305</v>
+        <v>530621</v>
       </c>
       <c r="AI92" s="13" t="n">
-        <v>530621</v>
+        <v>517651</v>
       </c>
       <c r="AJ92" s="13" t="n">
-        <v>517651</v>
+        <v>495416</v>
       </c>
       <c r="AK92" s="13" t="n">
-        <v>495416</v>
+        <v>629763</v>
       </c>
       <c r="AL92" s="13" t="n">
-        <v>629763</v>
+        <v>561728</v>
       </c>
       <c r="AM92" s="13" t="n">
-        <v>561728</v>
+        <v>646504</v>
       </c>
       <c r="AN92" s="13" t="n">
-        <v>646504</v>
+        <v>590581</v>
       </c>
       <c r="AO92" s="13" t="n">
-        <v>590581</v>
+        <v>517237</v>
       </c>
       <c r="AP92" s="13" t="n">
-        <v>517237</v>
+        <v>575729</v>
       </c>
       <c r="AQ92" s="13" t="n">
-        <v>575729</v>
+        <v>739777</v>
       </c>
       <c r="AR92" s="13" t="n">
-        <v>739777</v>
+        <v>778332</v>
       </c>
       <c r="AS92" s="13" t="n">
-        <v>778332</v>
+        <v>813696</v>
       </c>
       <c r="AT92" s="13" t="n">
-        <v>813696</v>
+        <v>842948</v>
       </c>
       <c r="AU92" s="13" t="n">
-        <v>842948</v>
+        <v>834868</v>
       </c>
       <c r="AV92" s="13" t="n">
-        <v>834868</v>
+        <v>901243</v>
       </c>
       <c r="AW92" s="13" t="n">
-        <v>901243</v>
-      </c>
-      <c r="AX92" s="13" t="n">
         <v>1027391</v>
       </c>
-      <c r="AY92" s="13" t="s">
-        <v>58</v>
+      <c r="AX92" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY92" s="13" t="n">
+        <v>972760</v>
       </c>
       <c r="AZ92" s="13" t="n">
-        <v>972760</v>
+        <v>868327</v>
       </c>
       <c r="BA92" s="13" t="n">
-        <v>868327</v>
+        <v>1126353</v>
       </c>
       <c r="BB92" s="13" t="n">
-        <v>1126353</v>
+        <v>1229798</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13796,26 +13796,26 @@
       <c r="AQ93" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR93" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS93" s="16" t="n">
+      <c r="AR93" s="16" t="n">
         <v>500000</v>
       </c>
+      <c r="AS93" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AT93" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AU93" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AV93" s="16" t="s">
-        <v>58</v>
+      <c r="AV93" s="16" t="n">
+        <v>924623</v>
       </c>
       <c r="AW93" s="16" t="n">
-        <v>924623</v>
-      </c>
-      <c r="AX93" s="16" t="n">
         <v>580778</v>
+      </c>
+      <c r="AX93" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AY93" s="16" t="s">
         <v>58</v>
